--- a/Compiled_Data.xlsx
+++ b/Compiled_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T2F\Documents\GitHub\Artificial-Neural-Network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659958D7-9000-42F7-9FC3-E6D127A6269C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BF4B60-CCFA-4F53-B271-60EB21458659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -660,73 +660,28 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -755,6 +710,72 @@
     </xf>
     <xf numFmtId="11" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="18" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="18" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="18" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="17" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="11" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -767,52 +788,13 @@
     <xf numFmtId="11" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="17" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -824,23 +806,41 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="5" fillId="18" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="5" fillId="18" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="5" fillId="18" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="4" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="4" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="4" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1253,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D61465-4395-4E29-A961-1D0F9E8FFC44}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF18" sqref="AF18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
@@ -1267,98 +1267,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="86"/>
-      <c r="AA1" s="87" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="80"/>
+      <c r="AA1" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="88"/>
-      <c r="AC1" s="88"/>
-      <c r="AD1" s="88"/>
-      <c r="AE1" s="88"/>
-      <c r="AF1" s="88"/>
-      <c r="AG1" s="89"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="64"/>
     </row>
     <row r="2" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="36" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="41" t="s">
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="46" t="s">
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="51" t="s">
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="53"/>
-      <c r="AA2" s="57" t="s">
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
+      <c r="Y2" s="92"/>
+      <c r="AA2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="58" t="s">
+      <c r="AB2" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" s="58" t="s">
+      <c r="AD2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="58" t="s">
+      <c r="AE2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="58" t="s">
+      <c r="AF2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="59" t="s">
+      <c r="AG2" s="44" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1438,7 +1438,7 @@
       <c r="Y3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="AA3" s="60" t="s">
+      <c r="AA3" s="45" t="s">
         <v>6</v>
       </c>
       <c r="AB3" s="2">
@@ -1467,15 +1467,15 @@
       <c r="B4" s="22">
         <v>366.04</v>
       </c>
-      <c r="C4" s="56">
+      <c r="C4" s="41">
         <f>(A4)/($AD$11*$AC$5)</f>
         <v>6.6425106600118161E-2</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="41">
         <f>(A4*$AC$6)/($AA$11*$AC$5)</f>
         <v>251.05176331316989</v>
       </c>
-      <c r="E4" s="75">
+      <c r="E4" s="53">
         <f>(B4*$AC$6)/(2*$AC$7*$AD$11*(C4^2))</f>
         <v>1.1230846939274983</v>
       </c>
@@ -1485,15 +1485,15 @@
       <c r="G4" s="24">
         <v>193.61</v>
       </c>
-      <c r="H4" s="71">
+      <c r="H4" s="49">
         <f>(F4)/($AD$11*$AD$5)</f>
         <v>6.1688234244208093E-2</v>
       </c>
-      <c r="I4" s="71">
+      <c r="I4" s="49">
         <f>(F4*$AD$6)/($AA$11*$AD$5)</f>
         <v>304.76497394831097</v>
       </c>
-      <c r="J4" s="76">
+      <c r="J4" s="54">
         <f>(G4*$AD$6)/(2*$AD$7*$AD$11*(H4^2))</f>
         <v>0.90033324322915187</v>
       </c>
@@ -1503,15 +1503,15 @@
       <c r="L4" s="26">
         <v>144.72</v>
       </c>
-      <c r="M4" s="72">
+      <c r="M4" s="50">
         <f>(K4)/($AD$11*$AE$5)</f>
         <v>5.9786223744945237E-2</v>
       </c>
-      <c r="N4" s="72">
+      <c r="N4" s="50">
         <f>(K4*$AE$6)/($AA$11*$AE$5)</f>
         <v>344.82086718175037</v>
       </c>
-      <c r="O4" s="79">
+      <c r="O4" s="57">
         <f>(L4*$AE$6)/(2*$AE$7*$AD$11*(M4^2))</f>
         <v>0.83644269009238492</v>
       </c>
@@ -1521,15 +1521,15 @@
       <c r="Q4" s="28">
         <v>95.626999999999995</v>
       </c>
-      <c r="R4" s="73">
+      <c r="R4" s="51">
         <f>(P4)/($AD$11*$AF$5)</f>
         <v>5.6263635755861234E-2</v>
       </c>
-      <c r="S4" s="73">
+      <c r="S4" s="51">
         <f>(P4*$AF$6)/($AA$11*$AF$5)</f>
         <v>385.11570925395165</v>
       </c>
-      <c r="T4" s="78">
+      <c r="T4" s="56">
         <f>(Q4*$AF$6)/(2*$AF$7*$AD$11*(R4^2))</f>
         <v>0.74063776511542301</v>
       </c>
@@ -1539,19 +1539,19 @@
       <c r="V4" s="30">
         <v>77.468999999999994</v>
       </c>
-      <c r="W4" s="74">
+      <c r="W4" s="52">
         <f>(U4)/($AD$11*$AG$5)</f>
         <v>5.5740144074755457E-2</v>
       </c>
-      <c r="X4" s="74">
+      <c r="X4" s="52">
         <f>(U4*$AG$6)/($AA$11*$AG$5)</f>
         <v>441.38045528328155</v>
       </c>
-      <c r="Y4" s="77">
+      <c r="Y4" s="55">
         <f>(V4*$AG$6)/(2*$AG$7*$AD$11*(W4^2))</f>
         <v>0.70721954309597934</v>
       </c>
-      <c r="AA4" s="60" t="s">
+      <c r="AA4" s="45" t="s">
         <v>7</v>
       </c>
       <c r="AB4" s="2">
@@ -1580,15 +1580,15 @@
       <c r="B5" s="22">
         <v>1241.5</v>
       </c>
-      <c r="C5" s="56">
+      <c r="C5" s="41">
         <f t="shared" ref="C5:C23" si="0">(A5)/($AD$11*$AC$5)</f>
         <v>0.13285021320023632</v>
       </c>
-      <c r="D5" s="56">
+      <c r="D5" s="41">
         <f t="shared" ref="D5:D22" si="1">(A5*$AC$6)/($AA$11*$AC$5)</f>
         <v>502.10352662633977</v>
       </c>
-      <c r="E5" s="75">
+      <c r="E5" s="53">
         <f t="shared" ref="E5:E23" si="2">(B5*$AC$6)/(2*$AC$7*$AD$11*(C5^2))</f>
         <v>0.95229322445018916</v>
       </c>
@@ -1598,15 +1598,15 @@
       <c r="G5" s="24">
         <v>676.72</v>
       </c>
-      <c r="H5" s="71">
+      <c r="H5" s="49">
         <f t="shared" ref="H5:H23" si="3">(F5)/($AD$11*$AD$5)</f>
         <v>0.12337646848841619</v>
       </c>
-      <c r="I5" s="71">
+      <c r="I5" s="49">
         <f t="shared" ref="I5:I23" si="4">(F5*$AD$6)/($AA$11*$AD$5)</f>
         <v>609.52994789662193</v>
       </c>
-      <c r="J5" s="76">
+      <c r="J5" s="54">
         <f t="shared" ref="J5:J23" si="5">(G5*$AD$6)/(2*$AD$7*$AD$11*(H5^2))</f>
         <v>0.78672784509843441</v>
       </c>
@@ -1616,11 +1616,11 @@
       <c r="L5" s="26">
         <v>538.22</v>
       </c>
-      <c r="M5" s="72">
+      <c r="M5" s="50">
         <f t="shared" ref="M5:M23" si="6">(K5)/($AD$11*$AE$5)</f>
         <v>0.11957244748989047</v>
       </c>
-      <c r="N5" s="72">
+      <c r="N5" s="50">
         <f t="shared" ref="N5:N23" si="7">(K5*$AE$6)/($AA$11*$AE$5)</f>
         <v>689.64173436350075</v>
       </c>
@@ -1634,15 +1634,15 @@
       <c r="Q5" s="28">
         <v>352.28</v>
       </c>
-      <c r="R5" s="73">
+      <c r="R5" s="51">
         <f t="shared" ref="R5:R23" si="9">(P5)/($AD$11*$AF$5)</f>
         <v>0.11252727151172247</v>
       </c>
-      <c r="S5" s="73">
+      <c r="S5" s="51">
         <f t="shared" ref="S5:S23" si="10">(P5*$AF$6)/($AA$11*$AF$5)</f>
         <v>770.2314185079033</v>
       </c>
-      <c r="T5" s="78">
+      <c r="T5" s="56">
         <f t="shared" ref="T5:T23" si="11">(Q5*$AF$6)/(2*$AF$7*$AD$11*(R5^2))</f>
         <v>0.68210827458474388</v>
       </c>
@@ -1652,43 +1652,43 @@
       <c r="V5" s="30">
         <v>300.08999999999997</v>
       </c>
-      <c r="W5" s="74">
+      <c r="W5" s="52">
         <f t="shared" ref="W5:W23" si="12">(U5)/($AD$11*$AG$5)</f>
         <v>0.11148028814951091</v>
       </c>
-      <c r="X5" s="74">
+      <c r="X5" s="52">
         <f t="shared" ref="X5:X23" si="13">(U5*$AG$6)/($AA$11*$AG$5)</f>
         <v>882.7609105665631</v>
       </c>
-      <c r="Y5" s="77">
+      <c r="Y5" s="55">
         <f t="shared" ref="Y5:Y23" si="14">(V5*$AG$6)/(2*$AG$7*$AD$11*(W5^2))</f>
         <v>0.68488528536470217</v>
       </c>
-      <c r="AA5" s="60" t="s">
+      <c r="AA5" s="45" t="s">
         <v>8</v>
       </c>
       <c r="AB5" s="2">
-        <f>(AB3/AB7)</f>
+        <f t="shared" ref="AB5:AG5" si="15">(AB3/AB7)</f>
         <v>1.2350833333333333E-4</v>
       </c>
       <c r="AC5" s="2">
-        <f>(AC3/AC7)</f>
+        <f t="shared" si="15"/>
         <v>1.5106666666666666E-4</v>
       </c>
       <c r="AD5" s="2">
-        <f>(AD3/AD7)</f>
+        <f t="shared" si="15"/>
         <v>1.6266666666666667E-4</v>
       </c>
       <c r="AE5" s="2">
-        <f>(AE3/AE7)</f>
+        <f t="shared" si="15"/>
         <v>1.6784166666666668E-4</v>
       </c>
       <c r="AF5" s="2">
-        <f>(AF3/AF7)</f>
+        <f t="shared" si="15"/>
         <v>1.7835E-4</v>
       </c>
       <c r="AG5" s="3">
-        <f>(AG3/AG7)</f>
+        <f t="shared" si="15"/>
         <v>1.80025E-4</v>
       </c>
     </row>
@@ -1699,15 +1699,15 @@
       <c r="B6" s="22">
         <v>2552.1</v>
       </c>
-      <c r="C6" s="56">
+      <c r="C6" s="41">
         <f t="shared" si="0"/>
         <v>0.19927531980035448</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="41">
         <f t="shared" si="1"/>
         <v>753.15528993950966</v>
       </c>
-      <c r="E6" s="75">
+      <c r="E6" s="53">
         <f t="shared" si="2"/>
         <v>0.87003984002123869</v>
       </c>
@@ -1717,15 +1717,15 @@
       <c r="G6" s="24">
         <v>1433.1</v>
       </c>
-      <c r="H6" s="71">
+      <c r="H6" s="49">
         <f t="shared" si="3"/>
         <v>0.18506470273262426</v>
       </c>
-      <c r="I6" s="71">
+      <c r="I6" s="49">
         <f t="shared" si="4"/>
         <v>914.2949218449329</v>
       </c>
-      <c r="J6" s="76">
+      <c r="J6" s="54">
         <f t="shared" si="5"/>
         <v>0.74047344367640422</v>
       </c>
@@ -1735,11 +1735,11 @@
       <c r="L6" s="26">
         <v>1144.5999999999999</v>
       </c>
-      <c r="M6" s="72">
+      <c r="M6" s="50">
         <f t="shared" si="6"/>
         <v>0.1793586712348357</v>
       </c>
-      <c r="N6" s="72">
+      <c r="N6" s="50">
         <f t="shared" si="7"/>
         <v>1034.4626015452511</v>
       </c>
@@ -1753,15 +1753,15 @@
       <c r="Q6" s="28">
         <v>758.74</v>
       </c>
-      <c r="R6" s="73">
+      <c r="R6" s="51">
         <f t="shared" si="9"/>
         <v>0.1687909072675837</v>
       </c>
-      <c r="S6" s="73">
+      <c r="S6" s="51">
         <f t="shared" si="10"/>
         <v>1155.3471277618548</v>
       </c>
-      <c r="T6" s="78">
+      <c r="T6" s="56">
         <f t="shared" si="11"/>
         <v>0.65294378494181249</v>
       </c>
@@ -1771,43 +1771,43 @@
       <c r="V6" s="30">
         <v>646.91</v>
       </c>
-      <c r="W6" s="74">
+      <c r="W6" s="52">
         <f t="shared" si="12"/>
         <v>0.16722043222426636</v>
       </c>
-      <c r="X6" s="74">
+      <c r="X6" s="52">
         <f t="shared" si="13"/>
         <v>1324.1413658498445</v>
       </c>
-      <c r="Y6" s="77">
+      <c r="Y6" s="55">
         <f t="shared" si="14"/>
         <v>0.65618705492837992</v>
       </c>
-      <c r="AA6" s="60" t="s">
+      <c r="AA6" s="45" t="s">
         <v>9</v>
       </c>
       <c r="AB6" s="2">
-        <f>(4*AB3)/AB4</f>
+        <f t="shared" ref="AB6:AG6" si="16">(4*AB3)/AB4</f>
         <v>2.0548334546462857E-3</v>
       </c>
       <c r="AC6" s="2">
-        <f>(4*AC3)/AC4</f>
+        <f t="shared" si="16"/>
         <v>3.2378655949988834E-3</v>
       </c>
       <c r="AD6" s="2">
-        <f>(4*AD3)/AD4</f>
+        <f t="shared" si="16"/>
         <v>4.2324371205550741E-3</v>
       </c>
       <c r="AE6" s="2">
-        <f>(4*AE3)/AE4</f>
+        <f t="shared" si="16"/>
         <v>4.941061024225697E-3</v>
       </c>
       <c r="AF6" s="2">
-        <f>(4*AF3)/AF4</f>
+        <f t="shared" si="16"/>
         <v>5.8639632851565171E-3</v>
       </c>
       <c r="AG6" s="3">
-        <f>(4*AG3)/AG4</f>
+        <f t="shared" si="16"/>
         <v>6.7837965143664625E-3</v>
       </c>
     </row>
@@ -1818,15 +1818,15 @@
       <c r="B7" s="22">
         <v>4284.8</v>
       </c>
-      <c r="C7" s="56">
+      <c r="C7" s="41">
         <f t="shared" si="0"/>
         <v>0.26570042640047264</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="41">
         <f t="shared" si="1"/>
         <v>1004.2070532526795</v>
       </c>
-      <c r="E7" s="75">
+      <c r="E7" s="53">
         <f t="shared" si="2"/>
         <v>0.82166452036330462</v>
       </c>
@@ -1836,15 +1836,15 @@
       <c r="G7" s="24">
         <v>2386.1999999999998</v>
       </c>
-      <c r="H7" s="71">
+      <c r="H7" s="49">
         <f t="shared" si="3"/>
         <v>0.24675293697683237</v>
       </c>
-      <c r="I7" s="71">
+      <c r="I7" s="49">
         <f t="shared" si="4"/>
         <v>1219.0598957932439</v>
       </c>
-      <c r="J7" s="76">
+      <c r="J7" s="54">
         <f t="shared" si="5"/>
         <v>0.69352538124109087</v>
       </c>
@@ -1854,11 +1854,11 @@
       <c r="L7" s="26">
         <v>1952.4</v>
       </c>
-      <c r="M7" s="72">
+      <c r="M7" s="50">
         <f t="shared" si="6"/>
         <v>0.23914489497978095</v>
       </c>
-      <c r="N7" s="72">
+      <c r="N7" s="50">
         <f t="shared" si="7"/>
         <v>1379.2834687270015</v>
       </c>
@@ -1872,15 +1872,15 @@
       <c r="Q7" s="28">
         <v>1333.9</v>
       </c>
-      <c r="R7" s="73">
+      <c r="R7" s="51">
         <f t="shared" si="9"/>
         <v>0.22505454302344494</v>
       </c>
-      <c r="S7" s="73">
+      <c r="S7" s="51">
         <f t="shared" si="10"/>
         <v>1540.4628370158066</v>
       </c>
-      <c r="T7" s="78">
+      <c r="T7" s="56">
         <f t="shared" si="11"/>
         <v>0.64569676639930595</v>
       </c>
@@ -1890,43 +1890,43 @@
       <c r="V7" s="30">
         <v>1085.8</v>
       </c>
-      <c r="W7" s="74">
+      <c r="W7" s="52">
         <f t="shared" si="12"/>
         <v>0.22296057629902183</v>
       </c>
-      <c r="X7" s="74">
+      <c r="X7" s="52">
         <f t="shared" si="13"/>
         <v>1765.5218211331262</v>
       </c>
-      <c r="Y7" s="77">
+      <c r="Y7" s="55">
         <f t="shared" si="14"/>
         <v>0.61952117935368856</v>
       </c>
-      <c r="AA7" s="61" t="s">
+      <c r="AA7" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="AB7" s="62">
-        <f>120/1000</f>
+      <c r="AB7" s="47">
+        <f t="shared" ref="AB7:AG7" si="17">120/1000</f>
         <v>0.12</v>
       </c>
-      <c r="AC7" s="62">
-        <f>120/1000</f>
+      <c r="AC7" s="47">
+        <f t="shared" si="17"/>
         <v>0.12</v>
       </c>
-      <c r="AD7" s="62">
-        <f>120/1000</f>
+      <c r="AD7" s="47">
+        <f t="shared" si="17"/>
         <v>0.12</v>
       </c>
-      <c r="AE7" s="62">
-        <f>120/1000</f>
+      <c r="AE7" s="47">
+        <f t="shared" si="17"/>
         <v>0.12</v>
       </c>
-      <c r="AF7" s="62">
-        <f>120/1000</f>
+      <c r="AF7" s="47">
+        <f t="shared" si="17"/>
         <v>0.12</v>
       </c>
-      <c r="AG7" s="63">
-        <f>120/1000</f>
+      <c r="AG7" s="48">
+        <f t="shared" si="17"/>
         <v>0.12</v>
       </c>
     </row>
@@ -1937,15 +1937,15 @@
       <c r="B8" s="22">
         <v>6380.9</v>
       </c>
-      <c r="C8" s="56">
+      <c r="C8" s="41">
         <f t="shared" si="0"/>
         <v>0.33212553300059083</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="41">
         <f t="shared" si="1"/>
         <v>1255.2588165658497</v>
       </c>
-      <c r="E8" s="75">
+      <c r="E8" s="53">
         <f t="shared" si="2"/>
         <v>0.78311562927351874</v>
       </c>
@@ -1955,15 +1955,15 @@
       <c r="G8" s="24">
         <v>3603.6</v>
       </c>
-      <c r="H8" s="71">
+      <c r="H8" s="49">
         <f t="shared" si="3"/>
         <v>0.30844117122104048</v>
       </c>
-      <c r="I8" s="71">
+      <c r="I8" s="49">
         <f t="shared" si="4"/>
         <v>1523.8248697415549</v>
       </c>
-      <c r="J8" s="76">
+      <c r="J8" s="54">
         <f t="shared" si="5"/>
         <v>0.67030440066124086</v>
       </c>
@@ -1973,11 +1973,11 @@
       <c r="L8" s="26">
         <v>3011.7</v>
       </c>
-      <c r="M8" s="72">
+      <c r="M8" s="50">
         <f t="shared" si="6"/>
         <v>0.29893111872472616</v>
       </c>
-      <c r="N8" s="72">
+      <c r="N8" s="50">
         <f t="shared" si="7"/>
         <v>1724.1043359087519</v>
       </c>
@@ -1991,15 +1991,15 @@
       <c r="Q8" s="28">
         <v>1984.6</v>
       </c>
-      <c r="R8" s="73">
+      <c r="R8" s="51">
         <f t="shared" si="9"/>
         <v>0.28131817877930615</v>
       </c>
-      <c r="S8" s="73">
+      <c r="S8" s="51">
         <f t="shared" si="10"/>
         <v>1925.5785462697584</v>
       </c>
-      <c r="T8" s="78">
+      <c r="T8" s="56">
         <f t="shared" si="11"/>
         <v>0.61483460054088024</v>
       </c>
@@ -2009,15 +2009,15 @@
       <c r="V8" s="30">
         <v>1796.7</v>
       </c>
-      <c r="W8" s="74">
+      <c r="W8" s="52">
         <f t="shared" si="12"/>
         <v>0.2787007203737773</v>
       </c>
-      <c r="X8" s="74">
+      <c r="X8" s="52">
         <f t="shared" si="13"/>
         <v>2206.9022764164079</v>
       </c>
-      <c r="Y8" s="77">
+      <c r="Y8" s="55">
         <f t="shared" si="14"/>
         <v>0.65608764955300625</v>
       </c>
@@ -2029,15 +2029,15 @@
       <c r="B9" s="22">
         <v>8897.4</v>
       </c>
-      <c r="C9" s="56">
+      <c r="C9" s="41">
         <f t="shared" si="0"/>
         <v>0.39855063960070897</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="41">
         <f t="shared" si="1"/>
         <v>1506.3105798790193</v>
       </c>
-      <c r="E9" s="75">
+      <c r="E9" s="53">
         <f t="shared" si="2"/>
         <v>0.75830614715381139</v>
       </c>
@@ -2047,15 +2047,15 @@
       <c r="G9" s="24">
         <v>5085.3999999999996</v>
       </c>
-      <c r="H9" s="71">
+      <c r="H9" s="49">
         <f t="shared" si="3"/>
         <v>0.37012940546524853</v>
       </c>
-      <c r="I9" s="71">
+      <c r="I9" s="49">
         <f t="shared" si="4"/>
         <v>1828.5898436898658</v>
       </c>
-      <c r="J9" s="76">
+      <c r="J9" s="54">
         <f t="shared" si="5"/>
         <v>0.65689827131253686</v>
       </c>
@@ -2065,11 +2065,11 @@
       <c r="L9" s="26">
         <v>4188.6000000000004</v>
       </c>
-      <c r="M9" s="72">
+      <c r="M9" s="50">
         <f t="shared" si="6"/>
         <v>0.35871734246967141</v>
       </c>
-      <c r="N9" s="72">
+      <c r="N9" s="50">
         <f t="shared" si="7"/>
         <v>2068.9252030905022</v>
       </c>
@@ -2083,15 +2083,15 @@
       <c r="Q9" s="28">
         <v>2778.9</v>
       </c>
-      <c r="R9" s="73">
+      <c r="R9" s="51">
         <f t="shared" si="9"/>
         <v>0.33758181453516739</v>
       </c>
-      <c r="S9" s="73">
+      <c r="S9" s="51">
         <f t="shared" si="10"/>
         <v>2310.6942555237097</v>
       </c>
-      <c r="T9" s="78">
+      <c r="T9" s="56">
         <f t="shared" si="11"/>
         <v>0.59785482641445109</v>
       </c>
@@ -2101,26 +2101,26 @@
       <c r="V9" s="30">
         <v>2356.6</v>
       </c>
-      <c r="W9" s="74">
+      <c r="W9" s="52">
         <f t="shared" si="12"/>
         <v>0.33444086444853272</v>
       </c>
-      <c r="X9" s="74">
+      <c r="X9" s="52">
         <f t="shared" si="13"/>
         <v>2648.2827316996891</v>
       </c>
-      <c r="Y9" s="77">
+      <c r="Y9" s="55">
         <f t="shared" si="14"/>
         <v>0.59759874389181655</v>
       </c>
-      <c r="AA9" s="90" t="s">
+      <c r="AA9" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="AB9" s="91"/>
-      <c r="AC9" s="91"/>
-      <c r="AD9" s="91"/>
-      <c r="AE9" s="91"/>
-      <c r="AF9" s="92"/>
+      <c r="AB9" s="69"/>
+      <c r="AC9" s="69"/>
+      <c r="AD9" s="69"/>
+      <c r="AE9" s="69"/>
+      <c r="AF9" s="70"/>
     </row>
     <row r="10" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="20">
@@ -2129,15 +2129,15 @@
       <c r="B10" s="22">
         <v>11879</v>
       </c>
-      <c r="C10" s="56">
+      <c r="C10" s="41">
         <f t="shared" si="0"/>
         <v>0.46497574620082721</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="41">
         <f t="shared" si="1"/>
         <v>1757.3623431921894</v>
       </c>
-      <c r="E10" s="75">
+      <c r="E10" s="53">
         <f t="shared" si="2"/>
         <v>0.7438198501315092</v>
       </c>
@@ -2147,15 +2147,15 @@
       <c r="G10" s="24">
         <v>6793.7</v>
       </c>
-      <c r="H10" s="71">
+      <c r="H10" s="49">
         <f t="shared" si="3"/>
         <v>0.43181763970945669</v>
       </c>
-      <c r="I10" s="71">
+      <c r="I10" s="49">
         <f t="shared" si="4"/>
         <v>2133.3548176381769</v>
       </c>
-      <c r="J10" s="76">
+      <c r="J10" s="54">
         <f t="shared" si="5"/>
         <v>0.64474173881281294</v>
       </c>
@@ -2165,11 +2165,11 @@
       <c r="L10" s="26">
         <v>5629.2</v>
       </c>
-      <c r="M10" s="72">
+      <c r="M10" s="50">
         <f t="shared" si="6"/>
         <v>0.41850356621461671</v>
       </c>
-      <c r="N10" s="72">
+      <c r="N10" s="50">
         <f t="shared" si="7"/>
         <v>2413.7460702722528</v>
       </c>
@@ -2183,15 +2183,15 @@
       <c r="Q10" s="28">
         <v>3790.6</v>
       </c>
-      <c r="R10" s="73">
+      <c r="R10" s="51">
         <f t="shared" si="9"/>
         <v>0.39384545029102863</v>
       </c>
-      <c r="S10" s="73">
+      <c r="S10" s="51">
         <f t="shared" si="10"/>
         <v>2695.8099647776617</v>
       </c>
-      <c r="T10" s="78">
+      <c r="T10" s="56">
         <f t="shared" si="11"/>
         <v>0.59915225728164534</v>
       </c>
@@ -2201,28 +2201,28 @@
       <c r="V10" s="30">
         <v>3141</v>
       </c>
-      <c r="W10" s="74">
+      <c r="W10" s="52">
         <f t="shared" si="12"/>
         <v>0.39018100852328824</v>
       </c>
-      <c r="X10" s="74">
+      <c r="X10" s="52">
         <f t="shared" si="13"/>
         <v>3089.6631869829712</v>
       </c>
-      <c r="Y10" s="77">
+      <c r="Y10" s="55">
         <f t="shared" si="14"/>
         <v>0.58519170271517962</v>
       </c>
-      <c r="AA10" s="64" t="s">
+      <c r="AA10" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="AB10" s="65"/>
-      <c r="AC10" s="65"/>
-      <c r="AD10" s="66" t="s">
+      <c r="AB10" s="72"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="AE10" s="66"/>
-      <c r="AF10" s="67"/>
+      <c r="AE10" s="73"/>
+      <c r="AF10" s="74"/>
     </row>
     <row r="11" spans="1:33" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="20">
@@ -2231,15 +2231,15 @@
       <c r="B11" s="22">
         <v>15192</v>
       </c>
-      <c r="C11" s="56">
+      <c r="C11" s="41">
         <f t="shared" si="0"/>
         <v>0.53140085280094529</v>
       </c>
-      <c r="D11" s="56">
+      <c r="D11" s="41">
         <f t="shared" si="1"/>
         <v>2008.4141065053591</v>
       </c>
-      <c r="E11" s="75">
+      <c r="E11" s="53">
         <f t="shared" si="2"/>
         <v>0.72831447169992314</v>
       </c>
@@ -2249,15 +2249,15 @@
       <c r="G11" s="24">
         <v>8540.6</v>
       </c>
-      <c r="H11" s="71">
+      <c r="H11" s="49">
         <f t="shared" si="3"/>
         <v>0.49350587395366474</v>
       </c>
-      <c r="I11" s="71">
+      <c r="I11" s="49">
         <f t="shared" si="4"/>
         <v>2438.1197915864877</v>
       </c>
-      <c r="J11" s="76">
+      <c r="J11" s="54">
         <f t="shared" si="5"/>
         <v>0.62056018680618363</v>
       </c>
@@ -2267,11 +2267,11 @@
       <c r="L11" s="26">
         <v>7165.1</v>
       </c>
-      <c r="M11" s="72">
+      <c r="M11" s="50">
         <f t="shared" si="6"/>
         <v>0.4782897899595619</v>
       </c>
-      <c r="N11" s="72">
+      <c r="N11" s="50">
         <f t="shared" si="7"/>
         <v>2758.566937454003</v>
       </c>
@@ -2285,15 +2285,15 @@
       <c r="Q11" s="28">
         <v>4976.3999999999996</v>
       </c>
-      <c r="R11" s="73">
+      <c r="R11" s="51">
         <f t="shared" si="9"/>
         <v>0.45010908604688987</v>
       </c>
-      <c r="S11" s="73">
+      <c r="S11" s="51">
         <f t="shared" si="10"/>
         <v>3080.9256740316132</v>
       </c>
-      <c r="T11" s="78">
+      <c r="T11" s="56">
         <f t="shared" si="11"/>
         <v>0.60222756359350516</v>
       </c>
@@ -2303,28 +2303,28 @@
       <c r="V11" s="30">
         <v>4176.8999999999996</v>
       </c>
-      <c r="W11" s="74">
+      <c r="W11" s="52">
         <f t="shared" si="12"/>
         <v>0.44592115259804366</v>
       </c>
-      <c r="X11" s="74">
+      <c r="X11" s="52">
         <f t="shared" si="13"/>
         <v>3531.0436422662524</v>
       </c>
-      <c r="Y11" s="77">
+      <c r="Y11" s="55">
         <f t="shared" si="14"/>
         <v>0.59579987429600789</v>
       </c>
-      <c r="AA11" s="68">
+      <c r="AA11" s="65">
         <v>8.5374248628593903E-4</v>
       </c>
-      <c r="AB11" s="69"/>
-      <c r="AC11" s="69"/>
-      <c r="AD11" s="69">
+      <c r="AB11" s="66"/>
+      <c r="AC11" s="66"/>
+      <c r="AD11" s="66">
         <v>996.55</v>
       </c>
-      <c r="AE11" s="69"/>
-      <c r="AF11" s="70"/>
+      <c r="AE11" s="66"/>
+      <c r="AF11" s="67"/>
     </row>
     <row r="12" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20">
@@ -2333,15 +2333,15 @@
       <c r="B12" s="22">
         <v>18796</v>
       </c>
-      <c r="C12" s="56">
+      <c r="C12" s="41">
         <f t="shared" si="0"/>
         <v>0.59782595940106342</v>
       </c>
-      <c r="D12" s="56">
+      <c r="D12" s="41">
         <f t="shared" si="1"/>
         <v>2259.465869818529</v>
       </c>
-      <c r="E12" s="75">
+      <c r="E12" s="53">
         <f t="shared" si="2"/>
         <v>0.71197440160561465</v>
       </c>
@@ -2351,15 +2351,15 @@
       <c r="G12" s="24">
         <v>10801</v>
       </c>
-      <c r="H12" s="71">
+      <c r="H12" s="49">
         <f t="shared" si="3"/>
         <v>0.55519410819787285</v>
       </c>
-      <c r="I12" s="71">
+      <c r="I12" s="49">
         <f t="shared" si="4"/>
         <v>2742.8847655347986</v>
       </c>
-      <c r="J12" s="76">
+      <c r="J12" s="54">
         <f t="shared" si="5"/>
         <v>0.62008960103186106</v>
       </c>
@@ -2369,11 +2369,11 @@
       <c r="L12" s="26">
         <v>9060.1</v>
       </c>
-      <c r="M12" s="72">
+      <c r="M12" s="50">
         <f t="shared" si="6"/>
         <v>0.53807601370450708</v>
       </c>
-      <c r="N12" s="72">
+      <c r="N12" s="50">
         <f t="shared" si="7"/>
         <v>3103.3878046357531</v>
       </c>
@@ -2387,15 +2387,15 @@
       <c r="Q12" s="28">
         <v>6308.9</v>
       </c>
-      <c r="R12" s="73">
+      <c r="R12" s="51">
         <f t="shared" si="9"/>
         <v>0.50637272180275106</v>
       </c>
-      <c r="S12" s="73">
+      <c r="S12" s="51">
         <f t="shared" si="10"/>
         <v>3466.0413832855647</v>
       </c>
-      <c r="T12" s="78">
+      <c r="T12" s="56">
         <f t="shared" si="11"/>
         <v>0.60324529919770498</v>
       </c>
@@ -2405,15 +2405,15 @@
       <c r="V12" s="30">
         <v>5474.6</v>
       </c>
-      <c r="W12" s="74">
+      <c r="W12" s="52">
         <f t="shared" si="12"/>
         <v>0.50166129667279913</v>
       </c>
-      <c r="X12" s="74">
+      <c r="X12" s="52">
         <f t="shared" si="13"/>
         <v>3972.4240975495336</v>
       </c>
-      <c r="Y12" s="77">
+      <c r="Y12" s="55">
         <f t="shared" si="14"/>
         <v>0.61701209526156109</v>
       </c>
@@ -2425,15 +2425,15 @@
       <c r="B13" s="22">
         <v>22872</v>
       </c>
-      <c r="C13" s="56">
+      <c r="C13" s="41">
         <f t="shared" si="0"/>
         <v>0.66425106600118167</v>
       </c>
-      <c r="D13" s="56">
+      <c r="D13" s="41">
         <f t="shared" si="1"/>
         <v>2510.5176331316993</v>
       </c>
-      <c r="E13" s="75">
+      <c r="E13" s="53">
         <f t="shared" si="2"/>
         <v>0.70175918258960035</v>
       </c>
@@ -2443,15 +2443,15 @@
       <c r="G13" s="24">
         <v>12905</v>
       </c>
-      <c r="H13" s="71">
+      <c r="H13" s="49">
         <f t="shared" si="3"/>
         <v>0.61688234244208096</v>
       </c>
-      <c r="I13" s="71">
+      <c r="I13" s="49">
         <f t="shared" si="4"/>
         <v>3047.6497394831099</v>
       </c>
-      <c r="J13" s="76">
+      <c r="J13" s="54">
         <f t="shared" si="5"/>
         <v>0.60011365651940507</v>
       </c>
@@ -2461,11 +2461,11 @@
       <c r="L13" s="26">
         <v>11115</v>
       </c>
-      <c r="M13" s="72">
+      <c r="M13" s="50">
         <f t="shared" si="6"/>
         <v>0.59786223744945233</v>
       </c>
-      <c r="N13" s="72">
+      <c r="N13" s="50">
         <f t="shared" si="7"/>
         <v>3448.2086718175037</v>
       </c>
@@ -2479,15 +2479,15 @@
       <c r="Q13" s="28">
         <v>7529</v>
       </c>
-      <c r="R13" s="73">
+      <c r="R13" s="51">
         <f t="shared" si="9"/>
         <v>0.5626363575586123</v>
       </c>
-      <c r="S13" s="73">
+      <c r="S13" s="51">
         <f t="shared" si="10"/>
         <v>3851.1570925395167</v>
       </c>
-      <c r="T13" s="78">
+      <c r="T13" s="56">
         <f t="shared" si="11"/>
         <v>0.58312628583496517</v>
       </c>
@@ -2497,15 +2497,15 @@
       <c r="V13" s="30">
         <v>6598.4</v>
       </c>
-      <c r="W13" s="74">
+      <c r="W13" s="52">
         <f t="shared" si="12"/>
         <v>0.5574014407475546</v>
       </c>
-      <c r="X13" s="74">
+      <c r="X13" s="52">
         <f t="shared" si="13"/>
         <v>4413.8045528328157</v>
       </c>
-      <c r="Y13" s="77">
+      <c r="Y13" s="55">
         <f t="shared" si="14"/>
         <v>0.60237223059088274</v>
       </c>
@@ -2517,15 +2517,15 @@
       <c r="B14" s="22">
         <v>27197</v>
       </c>
-      <c r="C14" s="56">
+      <c r="C14" s="41">
         <f t="shared" si="0"/>
         <v>0.7306761726012998</v>
       </c>
-      <c r="D14" s="56">
+      <c r="D14" s="41">
         <f t="shared" si="1"/>
         <v>2761.5693964448687</v>
       </c>
-      <c r="E14" s="75">
+      <c r="E14" s="53">
         <f t="shared" si="2"/>
         <v>0.68963547362719158</v>
       </c>
@@ -2535,15 +2535,15 @@
       <c r="G14" s="24">
         <v>15624</v>
       </c>
-      <c r="H14" s="71">
+      <c r="H14" s="49">
         <f t="shared" si="3"/>
         <v>0.67857057668628895</v>
       </c>
-      <c r="I14" s="71">
+      <c r="I14" s="49">
         <f t="shared" si="4"/>
         <v>3352.4147134314208</v>
       </c>
-      <c r="J14" s="76">
+      <c r="J14" s="54">
         <f t="shared" si="5"/>
         <v>0.60045762065822317</v>
       </c>
@@ -2553,11 +2553,11 @@
       <c r="L14" s="26">
         <v>13361</v>
       </c>
-      <c r="M14" s="72">
+      <c r="M14" s="50">
         <f t="shared" si="6"/>
         <v>0.65764846119439757</v>
       </c>
-      <c r="N14" s="72">
+      <c r="N14" s="50">
         <f t="shared" si="7"/>
         <v>3793.0295389992539</v>
       </c>
@@ -2571,15 +2571,15 @@
       <c r="Q14" s="28">
         <v>8956.7999999999993</v>
       </c>
-      <c r="R14" s="73">
+      <c r="R14" s="51">
         <f t="shared" si="9"/>
         <v>0.61889999331447354</v>
       </c>
-      <c r="S14" s="73">
+      <c r="S14" s="51">
         <f t="shared" si="10"/>
         <v>4236.2728017934687</v>
       </c>
-      <c r="T14" s="78">
+      <c r="T14" s="56">
         <f t="shared" si="11"/>
         <v>0.57331437087521819</v>
       </c>
@@ -2589,15 +2589,15 @@
       <c r="V14" s="30">
         <v>7976.5</v>
       </c>
-      <c r="W14" s="74">
+      <c r="W14" s="52">
         <f t="shared" si="12"/>
         <v>0.61314158482230996</v>
       </c>
-      <c r="X14" s="74">
+      <c r="X14" s="52">
         <f t="shared" si="13"/>
         <v>4855.1850081160974</v>
       </c>
-      <c r="Y14" s="77">
+      <c r="Y14" s="55">
         <f t="shared" si="14"/>
         <v>0.60180155085282105</v>
       </c>
@@ -2609,15 +2609,15 @@
       <c r="B15" s="22">
         <v>32070</v>
       </c>
-      <c r="C15" s="56">
+      <c r="C15" s="41">
         <f t="shared" si="0"/>
         <v>0.79710127920141793</v>
       </c>
-      <c r="D15" s="56">
+      <c r="D15" s="41">
         <f t="shared" si="1"/>
         <v>3012.6211597580386</v>
       </c>
-      <c r="E15" s="75">
+      <c r="E15" s="53">
         <f t="shared" si="2"/>
         <v>0.68331417434370523</v>
       </c>
@@ -2627,15 +2627,15 @@
       <c r="G15" s="24">
         <v>18647</v>
       </c>
-      <c r="H15" s="71">
+      <c r="H15" s="49">
         <f t="shared" si="3"/>
         <v>0.74025881093049706</v>
       </c>
-      <c r="I15" s="71">
+      <c r="I15" s="49">
         <f t="shared" si="4"/>
         <v>3657.1796873797316</v>
       </c>
-      <c r="J15" s="76">
+      <c r="J15" s="54">
         <f t="shared" si="5"/>
         <v>0.60217397181956556</v>
       </c>
@@ -2645,11 +2645,11 @@
       <c r="L15" s="26">
         <v>15608</v>
       </c>
-      <c r="M15" s="72">
+      <c r="M15" s="50">
         <f t="shared" si="6"/>
         <v>0.71743468493934281</v>
       </c>
-      <c r="N15" s="72">
+      <c r="N15" s="50">
         <f t="shared" si="7"/>
         <v>4137.8504061810045</v>
       </c>
@@ -2663,15 +2663,15 @@
       <c r="Q15" s="28">
         <v>10396</v>
       </c>
-      <c r="R15" s="73">
+      <c r="R15" s="51">
         <f t="shared" si="9"/>
         <v>0.67516362907033478</v>
       </c>
-      <c r="S15" s="73">
+      <c r="S15" s="51">
         <f t="shared" si="10"/>
         <v>4621.3885110474193</v>
       </c>
-      <c r="T15" s="78">
+      <c r="T15" s="56">
         <f t="shared" si="11"/>
         <v>0.55915099278533176</v>
       </c>
@@ -2681,15 +2681,15 @@
       <c r="V15" s="30">
         <v>9691.4</v>
       </c>
-      <c r="W15" s="74">
+      <c r="W15" s="52">
         <f t="shared" si="12"/>
         <v>0.66888172889706543</v>
       </c>
-      <c r="X15" s="74">
+      <c r="X15" s="52">
         <f t="shared" si="13"/>
         <v>5296.5654633993781</v>
       </c>
-      <c r="Y15" s="77">
+      <c r="Y15" s="55">
         <f t="shared" si="14"/>
         <v>0.61439875950024947</v>
       </c>
@@ -2701,15 +2701,15 @@
       <c r="B16" s="22">
         <v>37098</v>
       </c>
-      <c r="C16" s="56">
+      <c r="C16" s="41">
         <f t="shared" si="0"/>
         <v>0.86352638580153618</v>
       </c>
-      <c r="D16" s="56">
+      <c r="D16" s="41">
         <f t="shared" si="1"/>
         <v>3263.672923071209</v>
       </c>
-      <c r="E16" s="75">
+      <c r="E16" s="53">
         <f t="shared" si="2"/>
         <v>0.67351574690195071</v>
       </c>
@@ -2719,15 +2719,15 @@
       <c r="G16" s="24">
         <v>21763</v>
       </c>
-      <c r="H16" s="71">
+      <c r="H16" s="49">
         <f t="shared" si="3"/>
         <v>0.80194704517470516</v>
       </c>
-      <c r="I16" s="71">
+      <c r="I16" s="49">
         <f t="shared" si="4"/>
         <v>3961.9446613280425</v>
       </c>
-      <c r="J16" s="76">
+      <c r="J16" s="54">
         <f t="shared" si="5"/>
         <v>0.59883552803173934</v>
       </c>
@@ -2737,11 +2737,11 @@
       <c r="L16" s="26">
         <v>18120</v>
       </c>
-      <c r="M16" s="72">
+      <c r="M16" s="50">
         <f t="shared" si="6"/>
         <v>0.77722090868428806</v>
       </c>
-      <c r="N16" s="72">
+      <c r="N16" s="50">
         <f t="shared" si="7"/>
         <v>4482.6712733627555</v>
       </c>
@@ -2755,15 +2755,15 @@
       <c r="Q16" s="28">
         <v>12644</v>
       </c>
-      <c r="R16" s="73">
+      <c r="R16" s="51">
         <f t="shared" si="9"/>
         <v>0.73142726482619602</v>
       </c>
-      <c r="S16" s="73">
+      <c r="S16" s="51">
         <f t="shared" si="10"/>
         <v>5006.5042203013718</v>
       </c>
-      <c r="T16" s="78">
+      <c r="T16" s="56">
         <f t="shared" si="11"/>
         <v>0.57945952243807564</v>
       </c>
@@ -2773,15 +2773,15 @@
       <c r="V16" s="30">
         <v>10295</v>
       </c>
-      <c r="W16" s="74">
+      <c r="W16" s="52">
         <f t="shared" si="12"/>
         <v>0.7246218729718209</v>
       </c>
-      <c r="X16" s="74">
+      <c r="X16" s="52">
         <f t="shared" si="13"/>
         <v>5737.9459186826607</v>
       </c>
-      <c r="Y16" s="77">
+      <c r="Y16" s="55">
         <f t="shared" si="14"/>
         <v>0.55611671629316795</v>
       </c>
@@ -2793,15 +2793,15 @@
       <c r="B17" s="22">
         <v>42477</v>
       </c>
-      <c r="C17" s="56">
+      <c r="C17" s="41">
         <f t="shared" si="0"/>
         <v>0.92995149240165442</v>
       </c>
-      <c r="D17" s="56">
+      <c r="D17" s="41">
         <f t="shared" si="1"/>
         <v>3514.7246863843789</v>
       </c>
-      <c r="E17" s="75">
+      <c r="E17" s="53">
         <f t="shared" si="2"/>
         <v>0.66493887898889037</v>
       </c>
@@ -2811,15 +2811,15 @@
       <c r="G17" s="24">
         <v>24693</v>
       </c>
-      <c r="H17" s="71">
+      <c r="H17" s="49">
         <f t="shared" si="3"/>
         <v>0.86363527941891338</v>
       </c>
-      <c r="I17" s="71">
+      <c r="I17" s="49">
         <f t="shared" si="4"/>
         <v>4266.7096352763538</v>
       </c>
-      <c r="J17" s="76">
+      <c r="J17" s="54">
         <f t="shared" si="5"/>
         <v>0.58585924299368497</v>
       </c>
@@ -2829,11 +2829,11 @@
       <c r="L17" s="26">
         <v>20518</v>
       </c>
-      <c r="M17" s="72">
+      <c r="M17" s="50">
         <f t="shared" si="6"/>
         <v>0.83700713242923341</v>
       </c>
-      <c r="N17" s="72">
+      <c r="N17" s="50">
         <f t="shared" si="7"/>
         <v>4827.4921405445057</v>
       </c>
@@ -2847,15 +2847,15 @@
       <c r="Q17" s="28">
         <v>14368</v>
       </c>
-      <c r="R17" s="73">
+      <c r="R17" s="51">
         <f t="shared" si="9"/>
         <v>0.78769090058205726</v>
       </c>
-      <c r="S17" s="73">
+      <c r="S17" s="51">
         <f t="shared" si="10"/>
         <v>5391.6199295553233</v>
       </c>
-      <c r="T17" s="78">
+      <c r="T17" s="56">
         <f t="shared" si="11"/>
         <v>0.56776101623903075</v>
       </c>
@@ -2865,15 +2865,15 @@
       <c r="V17" s="30">
         <v>12041</v>
       </c>
-      <c r="W17" s="74">
+      <c r="W17" s="52">
         <f t="shared" si="12"/>
         <v>0.78036201704657648</v>
       </c>
-      <c r="X17" s="74">
+      <c r="X17" s="52">
         <f t="shared" si="13"/>
         <v>6179.3263739659424</v>
       </c>
-      <c r="Y17" s="77">
+      <c r="Y17" s="55">
         <f t="shared" si="14"/>
         <v>0.56083200353338725</v>
       </c>
@@ -2885,15 +2885,15 @@
       <c r="B18" s="22">
         <v>48597</v>
       </c>
-      <c r="C18" s="56">
+      <c r="C18" s="41">
         <f t="shared" si="0"/>
         <v>0.99637659900177244</v>
       </c>
-      <c r="D18" s="56">
+      <c r="D18" s="41">
         <f t="shared" si="1"/>
         <v>3765.7764496975483</v>
       </c>
-      <c r="E18" s="75">
+      <c r="E18" s="53">
         <f t="shared" si="2"/>
         <v>0.66269074261215677</v>
       </c>
@@ -2903,15 +2903,15 @@
       <c r="G18" s="24">
         <v>28569</v>
       </c>
-      <c r="H18" s="71">
+      <c r="H18" s="49">
         <f t="shared" si="3"/>
         <v>0.92532351366312138</v>
       </c>
-      <c r="I18" s="71">
+      <c r="I18" s="49">
         <f t="shared" si="4"/>
         <v>4571.4746092246642</v>
       </c>
-      <c r="J18" s="76">
+      <c r="J18" s="54">
         <f t="shared" si="5"/>
         <v>0.59045665515012746</v>
       </c>
@@ -2921,11 +2921,11 @@
       <c r="L18" s="26">
         <v>23114</v>
       </c>
-      <c r="M18" s="72">
+      <c r="M18" s="50">
         <f t="shared" si="6"/>
         <v>0.89679335617417844</v>
       </c>
-      <c r="N18" s="72">
+      <c r="N18" s="50">
         <f t="shared" si="7"/>
         <v>5172.3130077262558</v>
       </c>
@@ -2939,15 +2939,15 @@
       <c r="Q18" s="28">
         <v>16657</v>
       </c>
-      <c r="R18" s="73">
+      <c r="R18" s="51">
         <f t="shared" si="9"/>
         <v>0.84395453633791839</v>
       </c>
-      <c r="S18" s="73">
+      <c r="S18" s="51">
         <f t="shared" si="10"/>
         <v>5776.7356388092749</v>
       </c>
-      <c r="T18" s="78">
+      <c r="T18" s="56">
         <f t="shared" si="11"/>
         <v>0.57337610384457227</v>
       </c>
@@ -2957,15 +2957,15 @@
       <c r="V18" s="30">
         <v>13342</v>
       </c>
-      <c r="W18" s="74">
+      <c r="W18" s="52">
         <f t="shared" si="12"/>
         <v>0.83610216112133184</v>
       </c>
-      <c r="X18" s="74">
+      <c r="X18" s="52">
         <f t="shared" si="13"/>
         <v>6620.7068292492222</v>
       </c>
-      <c r="Y18" s="77">
+      <c r="Y18" s="55">
         <f t="shared" si="14"/>
         <v>0.54133327274918897</v>
       </c>
@@ -2977,15 +2977,15 @@
       <c r="B19" s="22">
         <v>54578</v>
       </c>
-      <c r="C19" s="56">
+      <c r="C19" s="41">
         <f t="shared" si="0"/>
         <v>1.0628017056018906</v>
       </c>
-      <c r="D19" s="56">
+      <c r="D19" s="41">
         <f t="shared" si="1"/>
         <v>4016.8282130107182</v>
       </c>
-      <c r="E19" s="75">
+      <c r="E19" s="53">
         <f t="shared" si="2"/>
         <v>0.65412630391716697</v>
       </c>
@@ -2995,15 +2995,15 @@
       <c r="G19" s="24">
         <v>32655</v>
       </c>
-      <c r="H19" s="71">
+      <c r="H19" s="49">
         <f t="shared" si="3"/>
         <v>0.98701174790732948</v>
       </c>
-      <c r="I19" s="71">
+      <c r="I19" s="49">
         <f t="shared" si="4"/>
         <v>4876.2395831729755</v>
       </c>
-      <c r="J19" s="76">
+      <c r="J19" s="54">
         <f t="shared" si="5"/>
         <v>0.59317825738694963</v>
       </c>
@@ -3013,11 +3013,11 @@
       <c r="L19" s="26">
         <v>26036</v>
       </c>
-      <c r="M19" s="72">
+      <c r="M19" s="50">
         <f t="shared" si="6"/>
         <v>0.95657957991912379</v>
       </c>
-      <c r="N19" s="72">
+      <c r="N19" s="50">
         <f t="shared" si="7"/>
         <v>5517.133874908006</v>
       </c>
@@ -3031,15 +3031,15 @@
       <c r="Q19" s="28">
         <v>18557</v>
       </c>
-      <c r="R19" s="73">
+      <c r="R19" s="51">
         <f t="shared" si="9"/>
         <v>0.90021817209377974</v>
       </c>
-      <c r="S19" s="73">
+      <c r="S19" s="51">
         <f t="shared" si="10"/>
         <v>6161.8513480632264</v>
       </c>
-      <c r="T19" s="78">
+      <c r="T19" s="56">
         <f t="shared" si="11"/>
         <v>0.56142677927842788</v>
       </c>
@@ -3049,15 +3049,15 @@
       <c r="V19" s="30">
         <v>15873</v>
       </c>
-      <c r="W19" s="74">
+      <c r="W19" s="52">
         <f t="shared" si="12"/>
         <v>0.89184230519608731</v>
       </c>
-      <c r="X19" s="74">
+      <c r="X19" s="52">
         <f t="shared" si="13"/>
         <v>7062.0872845325048</v>
       </c>
-      <c r="Y19" s="77">
+      <c r="Y19" s="55">
         <f t="shared" si="14"/>
         <v>0.5660376957013894</v>
       </c>
@@ -3069,15 +3069,15 @@
       <c r="B20" s="22">
         <v>60916</v>
       </c>
-      <c r="C20" s="56">
+      <c r="C20" s="41">
         <f t="shared" si="0"/>
         <v>1.1292268122020088</v>
       </c>
-      <c r="D20" s="56">
+      <c r="D20" s="41">
         <f t="shared" si="1"/>
         <v>4267.8799763238885</v>
       </c>
-      <c r="E20" s="75">
+      <c r="E20" s="53">
         <f t="shared" si="2"/>
         <v>0.64672179468811686</v>
       </c>
@@ -3087,15 +3087,15 @@
       <c r="G20" s="24">
         <v>36428</v>
       </c>
-      <c r="H20" s="71">
+      <c r="H20" s="49">
         <f t="shared" si="3"/>
         <v>1.0486999821515377</v>
       </c>
-      <c r="I20" s="71">
+      <c r="I20" s="49">
         <f t="shared" si="4"/>
         <v>5181.0045571212868</v>
       </c>
-      <c r="J20" s="76">
+      <c r="J20" s="54">
         <f t="shared" si="5"/>
         <v>0.58615569136956092</v>
       </c>
@@ -3105,11 +3105,11 @@
       <c r="L20" s="26">
         <v>28882</v>
       </c>
-      <c r="M20" s="72">
+      <c r="M20" s="50">
         <f t="shared" si="6"/>
         <v>1.016365803664069</v>
       </c>
-      <c r="N20" s="72">
+      <c r="N20" s="50">
         <f t="shared" si="7"/>
         <v>5861.954742089757</v>
       </c>
@@ -3123,15 +3123,15 @@
       <c r="Q20" s="28">
         <v>21038</v>
       </c>
-      <c r="R20" s="73">
+      <c r="R20" s="51">
         <f t="shared" si="9"/>
         <v>0.95648180784964099</v>
       </c>
-      <c r="S20" s="73">
+      <c r="S20" s="51">
         <f t="shared" si="10"/>
         <v>6546.9670573171788</v>
       </c>
-      <c r="T20" s="78">
+      <c r="T20" s="56">
         <f t="shared" si="11"/>
         <v>0.56380890321649002</v>
       </c>
@@ -3141,15 +3141,15 @@
       <c r="V20" s="30">
         <v>18007</v>
       </c>
-      <c r="W20" s="74">
+      <c r="W20" s="52">
         <f t="shared" si="12"/>
         <v>0.94758244927084279</v>
       </c>
-      <c r="X20" s="74">
+      <c r="X20" s="52">
         <f t="shared" si="13"/>
         <v>7503.4677398157864</v>
       </c>
-      <c r="Y20" s="77">
+      <c r="Y20" s="55">
         <f t="shared" si="14"/>
         <v>0.56881340827565763</v>
       </c>
@@ -3161,15 +3161,15 @@
       <c r="B21" s="22">
         <v>68097</v>
       </c>
-      <c r="C21" s="56">
+      <c r="C21" s="41">
         <f t="shared" si="0"/>
         <v>1.1956519188021268</v>
       </c>
-      <c r="D21" s="56">
+      <c r="D21" s="41">
         <f t="shared" si="1"/>
         <v>4518.9317396370579</v>
       </c>
-      <c r="E21" s="75">
+      <c r="E21" s="53">
         <f t="shared" si="2"/>
         <v>0.64486221571261892</v>
       </c>
@@ -3179,15 +3179,15 @@
       <c r="G21" s="24">
         <v>40094</v>
       </c>
-      <c r="H21" s="71">
+      <c r="H21" s="49">
         <f t="shared" si="3"/>
         <v>1.1103882163957457</v>
       </c>
-      <c r="I21" s="71">
+      <c r="I21" s="49">
         <f t="shared" si="4"/>
         <v>5485.7695310695972</v>
       </c>
-      <c r="J21" s="76">
+      <c r="J21" s="54">
         <f t="shared" si="5"/>
         <v>0.57545302434430701</v>
       </c>
@@ -3197,11 +3197,11 @@
       <c r="L21" s="26">
         <v>32752</v>
       </c>
-      <c r="M21" s="72">
+      <c r="M21" s="50">
         <f t="shared" si="6"/>
         <v>1.0761520274090142</v>
       </c>
-      <c r="N21" s="72">
+      <c r="N21" s="50">
         <f t="shared" si="7"/>
         <v>6206.7756092715063</v>
       </c>
@@ -3215,15 +3215,15 @@
       <c r="Q21" s="28">
         <v>23238</v>
       </c>
-      <c r="R21" s="73">
+      <c r="R21" s="51">
         <f t="shared" si="9"/>
         <v>1.0127454436055021</v>
       </c>
-      <c r="S21" s="73">
+      <c r="S21" s="51">
         <f t="shared" si="10"/>
         <v>6932.0827665711295</v>
       </c>
-      <c r="T21" s="78">
+      <c r="T21" s="56">
         <f t="shared" si="11"/>
         <v>0.5554935988348314</v>
       </c>
@@ -3233,15 +3233,15 @@
       <c r="V21" s="30">
         <v>19940</v>
       </c>
-      <c r="W21" s="74">
+      <c r="W21" s="52">
         <f t="shared" si="12"/>
         <v>1.0033225933455983</v>
       </c>
-      <c r="X21" s="74">
+      <c r="X21" s="52">
         <f t="shared" si="13"/>
         <v>7944.8481950990672</v>
       </c>
-      <c r="Y21" s="77">
+      <c r="Y21" s="55">
         <f t="shared" si="14"/>
         <v>0.56183196852352357</v>
       </c>
@@ -3253,15 +3253,15 @@
       <c r="B22" s="22">
         <v>75318</v>
       </c>
-      <c r="C22" s="56">
+      <c r="C22" s="41">
         <f t="shared" si="0"/>
         <v>1.2620770254022451</v>
       </c>
-      <c r="D22" s="56">
+      <c r="D22" s="41">
         <f t="shared" si="1"/>
         <v>4769.9835029502283</v>
       </c>
-      <c r="E22" s="75">
+      <c r="E22" s="53">
         <f t="shared" si="2"/>
         <v>0.64014084543105276</v>
       </c>
@@ -3271,15 +3271,15 @@
       <c r="G22" s="24">
         <v>43330</v>
       </c>
-      <c r="H22" s="71">
+      <c r="H22" s="49">
         <f t="shared" si="3"/>
         <v>1.1720764506399537</v>
       </c>
-      <c r="I22" s="71">
+      <c r="I22" s="49">
         <f t="shared" si="4"/>
         <v>5790.5345050179085</v>
       </c>
-      <c r="J22" s="76">
+      <c r="J22" s="54">
         <f t="shared" si="5"/>
         <v>0.55815778713152764</v>
       </c>
@@ -3289,11 +3289,11 @@
       <c r="L22" s="26">
         <v>36205</v>
       </c>
-      <c r="M22" s="72">
+      <c r="M22" s="50">
         <f t="shared" si="6"/>
         <v>1.1359382511539595</v>
       </c>
-      <c r="N22" s="72">
+      <c r="N22" s="50">
         <f t="shared" si="7"/>
         <v>6551.5964764532573</v>
       </c>
@@ -3307,15 +3307,15 @@
       <c r="Q22" s="28">
         <v>26618</v>
       </c>
-      <c r="R22" s="73">
+      <c r="R22" s="51">
         <f t="shared" si="9"/>
         <v>1.0690090793613634</v>
       </c>
-      <c r="S22" s="73">
+      <c r="S22" s="51">
         <f t="shared" si="10"/>
         <v>7317.198475825081</v>
       </c>
-      <c r="T22" s="78">
+      <c r="T22" s="56">
         <f t="shared" si="11"/>
         <v>0.57107551544388857</v>
       </c>
@@ -3325,67 +3325,67 @@
       <c r="V22" s="30">
         <v>22249</v>
       </c>
-      <c r="W22" s="74">
+      <c r="W22" s="52">
         <f t="shared" si="12"/>
         <v>1.0590627374203536</v>
       </c>
-      <c r="X22" s="74">
+      <c r="X22" s="52">
         <f t="shared" si="13"/>
         <v>8386.2286503823489</v>
       </c>
-      <c r="Y22" s="77">
+      <c r="Y22" s="55">
         <f t="shared" si="14"/>
         <v>0.56263869552261769</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="34">
+      <c r="A23" s="31">
         <v>0.2</v>
       </c>
-      <c r="B23" s="35">
+      <c r="B23" s="32">
         <v>82608</v>
       </c>
-      <c r="C23" s="56">
+      <c r="C23" s="41">
         <f t="shared" si="0"/>
         <v>1.3285021320023633</v>
       </c>
-      <c r="D23" s="56">
+      <c r="D23" s="41">
         <f>(A23*$AC$6)/($AA$11*$AC$5)</f>
         <v>5021.0352662633986</v>
       </c>
-      <c r="E23" s="75">
+      <c r="E23" s="53">
         <f t="shared" si="2"/>
         <v>0.63364509613677966</v>
       </c>
-      <c r="F23" s="39">
+      <c r="F23" s="33">
         <v>0.2</v>
       </c>
-      <c r="G23" s="40">
+      <c r="G23" s="34">
         <v>48144</v>
       </c>
-      <c r="H23" s="71">
+      <c r="H23" s="49">
         <f t="shared" si="3"/>
         <v>1.2337646848841619</v>
       </c>
-      <c r="I23" s="71">
+      <c r="I23" s="49">
         <f t="shared" si="4"/>
         <v>6095.2994789662198</v>
       </c>
-      <c r="J23" s="76">
+      <c r="J23" s="54">
         <f t="shared" si="5"/>
         <v>0.559703058494193</v>
       </c>
-      <c r="K23" s="44">
+      <c r="K23" s="35">
         <v>0.2</v>
       </c>
-      <c r="L23" s="45">
+      <c r="L23" s="36">
         <v>39878</v>
       </c>
-      <c r="M23" s="72">
+      <c r="M23" s="50">
         <f t="shared" si="6"/>
         <v>1.1957244748989047</v>
       </c>
-      <c r="N23" s="72">
+      <c r="N23" s="50">
         <f t="shared" si="7"/>
         <v>6896.4173436350075</v>
       </c>
@@ -3393,108 +3393,108 @@
         <f t="shared" si="8"/>
         <v>0.5762102956658397</v>
       </c>
-      <c r="P23" s="49">
+      <c r="P23" s="37">
         <v>0.2</v>
       </c>
-      <c r="Q23" s="50">
+      <c r="Q23" s="38">
         <v>29065</v>
       </c>
-      <c r="R23" s="73">
+      <c r="R23" s="51">
         <f t="shared" si="9"/>
         <v>1.1252727151172246</v>
       </c>
-      <c r="S23" s="73">
+      <c r="S23" s="51">
         <f t="shared" si="10"/>
         <v>7702.3141850790335</v>
       </c>
-      <c r="T23" s="78">
+      <c r="T23" s="56">
         <f t="shared" si="11"/>
         <v>0.56277611561273944</v>
       </c>
-      <c r="U23" s="54">
+      <c r="U23" s="39">
         <v>0.2</v>
       </c>
-      <c r="V23" s="55">
+      <c r="V23" s="40">
         <v>24289</v>
       </c>
-      <c r="W23" s="74">
+      <c r="W23" s="52">
         <f t="shared" si="12"/>
         <v>1.1148028814951092</v>
       </c>
-      <c r="X23" s="74">
+      <c r="X23" s="52">
         <f t="shared" si="13"/>
         <v>8827.6091056656314</v>
       </c>
-      <c r="Y23" s="77">
+      <c r="Y23" s="55">
         <f t="shared" si="14"/>
         <v>0.55433965464438162</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="85"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="85"/>
-      <c r="S24" s="85"/>
-      <c r="T24" s="85"/>
-      <c r="U24" s="85"/>
-      <c r="V24" s="85"/>
-      <c r="W24" s="85"/>
-      <c r="X24" s="85"/>
-      <c r="Y24" s="86"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="79"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="79"/>
+      <c r="W24" s="79"/>
+      <c r="X24" s="79"/>
+      <c r="Y24" s="80"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="36" t="s">
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="41" t="s">
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="46" t="s">
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="85"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="51" t="s">
+      <c r="Q25" s="88"/>
+      <c r="R25" s="88"/>
+      <c r="S25" s="88"/>
+      <c r="T25" s="89"/>
+      <c r="U25" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="V25" s="52"/>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="53"/>
+      <c r="V25" s="91"/>
+      <c r="W25" s="91"/>
+      <c r="X25" s="91"/>
+      <c r="Y25" s="92"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
@@ -3581,7 +3581,7 @@
         <f>0.048027*100000</f>
         <v>4802.7</v>
       </c>
-      <c r="C27" s="56">
+      <c r="C27" s="41">
         <f>(A27)/($AD$11*$AC$5)</f>
         <v>0.29144945472294248</v>
       </c>
@@ -3589,63 +3589,63 @@
         <f>(A27*$AC$6)/($AA$11*$AC$5)</f>
         <v>1101.5247587833969</v>
       </c>
-      <c r="E27" s="75">
+      <c r="E27" s="53">
         <f>(B27*$AC$6)/(2*$AC$7*$AD$11*(C27^2))</f>
         <v>0.7654334670393137</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="71">
+      <c r="H27" s="49">
         <f>(F27)/($AD$11*$AD$5)</f>
         <v>0</v>
       </c>
-      <c r="I27" s="71">
+      <c r="I27" s="49">
         <f>(F27*$AD$6)/($AA$11*$AD$5)</f>
         <v>0</v>
       </c>
-      <c r="J27" s="76" t="e">
+      <c r="J27" s="54" t="e">
         <f>(G27*$AD$6)/(2*$AD$7*$AD$11*(H27^2))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K27" s="6"/>
       <c r="L27" s="26"/>
-      <c r="M27" s="72">
+      <c r="M27" s="50">
         <f>(K27)/($AD$11*$AE$5)</f>
         <v>0</v>
       </c>
-      <c r="N27" s="72">
+      <c r="N27" s="50">
         <f>(K27*$AE$6)/($AA$11*$AE$5)</f>
         <v>0</v>
       </c>
-      <c r="O27" s="79" t="e">
+      <c r="O27" s="57" t="e">
         <f>(L27*$AE$6)/(2*$AE$7*$AD$11*(M27^2))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P27" s="8"/>
       <c r="Q27" s="28"/>
-      <c r="R27" s="73">
+      <c r="R27" s="51">
         <f>(P27)/($AD$11*$AF$5)</f>
         <v>0</v>
       </c>
-      <c r="S27" s="73">
+      <c r="S27" s="51">
         <f>(P27*$AF$6)/($AA$11*$AF$5)</f>
         <v>0</v>
       </c>
-      <c r="T27" s="78" t="e">
+      <c r="T27" s="56" t="e">
         <f>(Q27*$AF$6)/(2*$AF$7*$AD$11*(R27^2))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U27" s="9"/>
       <c r="V27" s="30"/>
-      <c r="W27" s="74">
+      <c r="W27" s="52">
         <f>(U27)/($AD$11*$AG$5)</f>
         <v>0</v>
       </c>
-      <c r="X27" s="74">
+      <c r="X27" s="52">
         <f>(U27*$AG$6)/($AA$11*$AG$5)</f>
         <v>0</v>
       </c>
-      <c r="Y27" s="77" t="e">
+      <c r="Y27" s="55" t="e">
         <f>(V27*$AG$6)/(2*$AG$7*$AD$11*(W27^2))</f>
         <v>#DIV/0!</v>
       </c>
@@ -3658,72 +3658,72 @@
         <f>0.0841976*100000</f>
         <v>8419.76</v>
       </c>
-      <c r="C28" s="56">
-        <f t="shared" ref="C28:C36" si="15">(A28)/($AD$11*$AC$5)</f>
+      <c r="C28" s="41">
+        <f t="shared" ref="C28:C36" si="18">(A28)/($AD$11*$AC$5)</f>
         <v>0.39251392591289042</v>
       </c>
       <c r="D28" s="22">
-        <f t="shared" ref="D28:D36" si="16">(A28*$AC$6)/($AA$11*$AC$5)</f>
+        <f t="shared" ref="D28:D36" si="19">(A28*$AC$6)/($AA$11*$AC$5)</f>
         <v>1483.4949956291193</v>
       </c>
-      <c r="E28" s="75">
-        <f t="shared" ref="E28:E36" si="17">(B28*$AC$6)/(2*$AC$7*$AD$11*(C28^2))</f>
+      <c r="E28" s="53">
+        <f t="shared" ref="E28:E36" si="20">(B28*$AC$6)/(2*$AC$7*$AD$11*(C28^2))</f>
         <v>0.7398404207866599</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="24"/>
-      <c r="H28" s="71">
-        <f t="shared" ref="H28:H36" si="18">(F28)/($AD$11*$AD$5)</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="71">
-        <f t="shared" ref="I28:I36" si="19">(F28*$AD$6)/($AA$11*$AD$5)</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="76" t="e">
-        <f t="shared" ref="J28:J36" si="20">(G28*$AD$6)/(2*$AD$7*$AD$11*(H28^2))</f>
+      <c r="H28" s="49">
+        <f t="shared" ref="H28:H36" si="21">(F28)/($AD$11*$AD$5)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="49">
+        <f t="shared" ref="I28:I36" si="22">(F28*$AD$6)/($AA$11*$AD$5)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="54" t="e">
+        <f t="shared" ref="J28:J36" si="23">(G28*$AD$6)/(2*$AD$7*$AD$11*(H28^2))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="26"/>
-      <c r="M28" s="72">
-        <f t="shared" ref="M28:M36" si="21">(K28)/($AD$11*$AE$5)</f>
-        <v>0</v>
-      </c>
-      <c r="N28" s="72">
-        <f t="shared" ref="N28:N36" si="22">(K28*$AE$6)/($AA$11*$AE$5)</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="79" t="e">
-        <f t="shared" ref="O28:O36" si="23">(L28*$AE$6)/(2*$AE$7*$AD$11*(M28^2))</f>
+      <c r="M28" s="50">
+        <f t="shared" ref="M28:M36" si="24">(K28)/($AD$11*$AE$5)</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="50">
+        <f t="shared" ref="N28:N36" si="25">(K28*$AE$6)/($AA$11*$AE$5)</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="57" t="e">
+        <f t="shared" ref="O28:O36" si="26">(L28*$AE$6)/(2*$AE$7*$AD$11*(M28^2))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P28" s="8"/>
       <c r="Q28" s="28"/>
-      <c r="R28" s="73">
-        <f t="shared" ref="R28:R36" si="24">(P28)/($AD$11*$AF$5)</f>
-        <v>0</v>
-      </c>
-      <c r="S28" s="73">
-        <f t="shared" ref="S28:S36" si="25">(P28*$AF$6)/($AA$11*$AF$5)</f>
-        <v>0</v>
-      </c>
-      <c r="T28" s="78" t="e">
-        <f t="shared" ref="T28:T36" si="26">(Q28*$AF$6)/(2*$AF$7*$AD$11*(R28^2))</f>
+      <c r="R28" s="51">
+        <f t="shared" ref="R28:R36" si="27">(P28)/($AD$11*$AF$5)</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="51">
+        <f t="shared" ref="S28:S36" si="28">(P28*$AF$6)/($AA$11*$AF$5)</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="56" t="e">
+        <f t="shared" ref="T28:T36" si="29">(Q28*$AF$6)/(2*$AF$7*$AD$11*(R28^2))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U28" s="9"/>
       <c r="V28" s="30"/>
-      <c r="W28" s="74">
-        <f t="shared" ref="W28:W36" si="27">(U28)/($AD$11*$AG$5)</f>
-        <v>0</v>
-      </c>
-      <c r="X28" s="74">
-        <f t="shared" ref="X28:X36" si="28">(U28*$AG$6)/($AA$11*$AG$5)</f>
-        <v>0</v>
-      </c>
-      <c r="Y28" s="77" t="e">
-        <f t="shared" ref="Y28:Y36" si="29">(V28*$AG$6)/(2*$AG$7*$AD$11*(W28^2))</f>
+      <c r="W28" s="52">
+        <f t="shared" ref="W28:W36" si="30">(U28)/($AD$11*$AG$5)</f>
+        <v>0</v>
+      </c>
+      <c r="X28" s="52">
+        <f t="shared" ref="X28:X36" si="31">(U28*$AG$6)/($AA$11*$AG$5)</f>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="55" t="e">
+        <f t="shared" ref="Y28:Y36" si="32">(V28*$AG$6)/(2*$AG$7*$AD$11*(W28^2))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3735,72 +3735,72 @@
         <f>0.1301556*100000</f>
         <v>13015.560000000001</v>
       </c>
-      <c r="C29" s="56">
-        <f t="shared" si="15"/>
+      <c r="C29" s="41">
+        <f t="shared" si="18"/>
         <v>0.49596571543404644</v>
       </c>
       <c r="D29" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>1874.4880328483164</v>
       </c>
-      <c r="E29" s="75">
-        <f t="shared" si="17"/>
+      <c r="E29" s="53">
+        <f t="shared" si="20"/>
         <v>0.71632156886738718</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="24"/>
-      <c r="H29" s="71">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="71">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="76" t="e">
-        <f t="shared" si="20"/>
+      <c r="H29" s="49">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="49">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="54" t="e">
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="26"/>
-      <c r="M29" s="72">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N29" s="72">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="O29" s="79" t="e">
-        <f t="shared" si="23"/>
+      <c r="M29" s="50">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="50">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="57" t="e">
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P29" s="8"/>
       <c r="Q29" s="28"/>
-      <c r="R29" s="73">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="S29" s="73">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="T29" s="78" t="e">
-        <f t="shared" si="26"/>
+      <c r="R29" s="51">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="51">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="56" t="e">
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U29" s="9"/>
       <c r="V29" s="30"/>
-      <c r="W29" s="74">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="X29" s="74">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="Y29" s="77" t="e">
-        <f t="shared" si="29"/>
+      <c r="W29" s="52">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="X29" s="52">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="55" t="e">
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3812,72 +3812,72 @@
         <f>0.1861208*100000</f>
         <v>18612.080000000002</v>
       </c>
-      <c r="C30" s="56">
-        <f t="shared" si="15"/>
+      <c r="C30" s="41">
+        <f t="shared" si="18"/>
         <v>0.60130796348904192</v>
       </c>
       <c r="D30" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2272.626003251406</v>
       </c>
-      <c r="E30" s="75">
-        <f t="shared" si="17"/>
+      <c r="E30" s="53">
+        <f t="shared" si="20"/>
         <v>0.69686632985683461</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="24"/>
-      <c r="H30" s="71">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="71">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="76" t="e">
-        <f t="shared" si="20"/>
+      <c r="H30" s="49">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="49">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="54" t="e">
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="26"/>
-      <c r="M30" s="72">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N30" s="72">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="79" t="e">
-        <f t="shared" si="23"/>
+      <c r="M30" s="50">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="50">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="57" t="e">
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P30" s="8"/>
       <c r="Q30" s="28"/>
-      <c r="R30" s="73">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="S30" s="73">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="T30" s="78" t="e">
-        <f t="shared" si="26"/>
+      <c r="R30" s="51">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="51">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="56" t="e">
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U30" s="9"/>
       <c r="V30" s="30"/>
-      <c r="W30" s="74">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="X30" s="74">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="Y30" s="77" t="e">
-        <f t="shared" si="29"/>
+      <c r="W30" s="52">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="X30" s="52">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="55" t="e">
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3889,72 +3889,72 @@
         <f>0.2510066*100000</f>
         <v>25100.660000000003</v>
       </c>
-      <c r="C31" s="56">
-        <f t="shared" si="15"/>
+      <c r="C31" s="41">
+        <f t="shared" si="18"/>
         <v>0.70474381098461358</v>
       </c>
       <c r="D31" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2663.5587880474072</v>
       </c>
-      <c r="E31" s="75">
-        <f t="shared" si="17"/>
+      <c r="E31" s="53">
+        <f t="shared" si="20"/>
         <v>0.68418111374121449</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="24"/>
-      <c r="H31" s="71">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="71">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="76" t="e">
-        <f t="shared" si="20"/>
+      <c r="H31" s="49">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="49">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="54" t="e">
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K31" s="6"/>
       <c r="L31" s="26"/>
-      <c r="M31" s="72">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="72">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="79" t="e">
-        <f t="shared" si="23"/>
+      <c r="M31" s="50">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="50">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="57" t="e">
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="28"/>
-      <c r="R31" s="73">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="S31" s="73">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="T31" s="78" t="e">
-        <f t="shared" si="26"/>
+      <c r="R31" s="51">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="51">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="56" t="e">
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U31" s="9"/>
       <c r="V31" s="30"/>
-      <c r="W31" s="74">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="X31" s="74">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="Y31" s="77" t="e">
-        <f t="shared" si="29"/>
+      <c r="W31" s="52">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="X31" s="52">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="55" t="e">
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3966,72 +3966,72 @@
         <f>0.3245052*100000</f>
         <v>32450.52</v>
       </c>
-      <c r="C32" s="56">
-        <f t="shared" si="15"/>
+      <c r="C32" s="41">
+        <f t="shared" si="18"/>
         <v>0.8079139580537853</v>
       </c>
       <c r="D32" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3053.4873657901571</v>
       </c>
-      <c r="E32" s="75">
-        <f t="shared" si="17"/>
+      <c r="E32" s="53">
+        <f t="shared" si="20"/>
         <v>0.67303851808139969</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="24"/>
-      <c r="H32" s="71">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="71">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="76" t="e">
-        <f t="shared" si="20"/>
+      <c r="H32" s="49">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="49">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="54" t="e">
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="26"/>
-      <c r="M32" s="72">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="72">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="79" t="e">
-        <f t="shared" si="23"/>
+      <c r="M32" s="50">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="50">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="57" t="e">
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P32" s="8"/>
       <c r="Q32" s="28"/>
-      <c r="R32" s="73">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="S32" s="73">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="T32" s="78" t="e">
-        <f t="shared" si="26"/>
+      <c r="R32" s="51">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="51">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="56" t="e">
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U32" s="9"/>
       <c r="V32" s="30"/>
-      <c r="W32" s="74">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="X32" s="74">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="Y32" s="77" t="e">
-        <f t="shared" si="29"/>
+      <c r="W32" s="52">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="X32" s="52">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="55" t="e">
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4043,72 +4043,72 @@
         <f>0.4063314*100000</f>
         <v>40633.14</v>
       </c>
-      <c r="C33" s="56">
-        <f t="shared" si="15"/>
+      <c r="C33" s="41">
+        <f t="shared" si="18"/>
         <v>0.91683253384813068</v>
       </c>
       <c r="D33" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3465.1419631300269</v>
       </c>
-      <c r="E33" s="75">
-        <f t="shared" si="17"/>
+      <c r="E33" s="53">
+        <f t="shared" si="20"/>
         <v>0.65440835383918772</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="24"/>
-      <c r="H33" s="71">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="71">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="76" t="e">
-        <f t="shared" si="20"/>
+      <c r="H33" s="49">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="49">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="54" t="e">
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="26"/>
-      <c r="M33" s="72">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N33" s="72">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="O33" s="79" t="e">
-        <f t="shared" si="23"/>
+      <c r="M33" s="50">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="50">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="57" t="e">
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P33" s="8"/>
       <c r="Q33" s="28"/>
-      <c r="R33" s="73">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="S33" s="73">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="T33" s="78" t="e">
-        <f t="shared" si="26"/>
+      <c r="R33" s="51">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="51">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="56" t="e">
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U33" s="9"/>
       <c r="V33" s="30"/>
-      <c r="W33" s="74">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="X33" s="74">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="Y33" s="77" t="e">
-        <f t="shared" si="29"/>
+      <c r="W33" s="52">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="X33" s="52">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="55" t="e">
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4120,149 +4120,149 @@
         <f>0.4966924*100000</f>
         <v>49669.24</v>
       </c>
-      <c r="C34" s="56">
-        <f t="shared" si="15"/>
+      <c r="C34" s="41">
+        <f t="shared" si="18"/>
         <v>1.0253578730114039</v>
       </c>
       <c r="D34" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>3875.310334031084</v>
       </c>
-      <c r="E34" s="75">
-        <f t="shared" si="17"/>
+      <c r="E34" s="53">
+        <f t="shared" si="20"/>
         <v>0.63956554011543876</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="24"/>
-      <c r="H34" s="71">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="71">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="76" t="e">
-        <f t="shared" si="20"/>
+      <c r="H34" s="49">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="49">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="54" t="e">
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="26"/>
-      <c r="M34" s="72">
+      <c r="M34" s="50">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="50">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="57" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="51">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="51">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="56" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U34" s="9"/>
+      <c r="V34" s="30"/>
+      <c r="W34" s="52">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="X34" s="52">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="55" t="e">
+        <f t="shared" si="32"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A35" s="58">
+        <v>0.17038119999999993</v>
+      </c>
+      <c r="B35" s="59">
+        <f>0.5959892*100000</f>
+        <v>59598.92</v>
+      </c>
+      <c r="C35" s="60">
+        <f t="shared" si="18"/>
+        <v>1.1317589372656049</v>
+      </c>
+      <c r="D35" s="59">
+        <f t="shared" si="19"/>
+        <v>4277.4500695413844</v>
+      </c>
+      <c r="E35" s="61">
+        <f t="shared" si="20"/>
+        <v>0.62991073013443866</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="49">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="N34" s="72">
+      <c r="I35" s="49">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="O34" s="79" t="e">
+      <c r="J35" s="54" t="e">
         <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="73">
+      <c r="K35" s="6"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="50">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="S34" s="73">
+      <c r="N35" s="50">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="T34" s="78" t="e">
+      <c r="O35" s="57" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U34" s="9"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="74">
+      <c r="P35" s="8"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="51">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="X34" s="74">
+      <c r="S35" s="51">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="Y34" s="77" t="e">
+      <c r="T35" s="56" t="e">
         <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A35" s="80">
-        <v>0.17038119999999993</v>
-      </c>
-      <c r="B35" s="81">
-        <f>0.5959892*100000</f>
-        <v>59598.92</v>
-      </c>
-      <c r="C35" s="82">
-        <f t="shared" si="15"/>
-        <v>1.1317589372656049</v>
-      </c>
-      <c r="D35" s="81">
-        <f t="shared" si="16"/>
-        <v>4277.4500695413844</v>
-      </c>
-      <c r="E35" s="83">
-        <f t="shared" si="17"/>
-        <v>0.62991073013443866</v>
-      </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="71">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="71">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="76" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K35" s="6"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="72">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N35" s="72">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="79" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="73">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="S35" s="73">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="T35" s="78" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="U35" s="9"/>
       <c r="V35" s="30"/>
-      <c r="W35" s="74">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="X35" s="74">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="Y35" s="77" t="e">
-        <f t="shared" si="29"/>
+      <c r="W35" s="52">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="X35" s="52">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="55" t="e">
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4274,83 +4274,77 @@
         <f>0.6588914*100000</f>
         <v>65889.14</v>
       </c>
-      <c r="C36" s="56">
-        <f t="shared" si="15"/>
+      <c r="C36" s="41">
+        <f t="shared" si="18"/>
         <v>1.1971757107475338</v>
       </c>
       <c r="D36" s="22">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>4524.6908670874627</v>
       </c>
-      <c r="E36" s="75">
-        <f t="shared" si="17"/>
+      <c r="E36" s="53">
+        <f t="shared" si="20"/>
         <v>0.62236695732821268</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="24"/>
-      <c r="H36" s="71">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="71">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="76" t="e">
-        <f t="shared" si="20"/>
+      <c r="H36" s="49">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="49">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="54" t="e">
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K36" s="6"/>
       <c r="L36" s="26"/>
-      <c r="M36" s="72">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N36" s="72">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="O36" s="79" t="e">
-        <f t="shared" si="23"/>
+      <c r="M36" s="50">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="50">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="57" t="e">
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P36" s="8"/>
       <c r="Q36" s="28"/>
-      <c r="R36" s="73">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="S36" s="73">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="T36" s="78" t="e">
-        <f t="shared" si="26"/>
+      <c r="R36" s="51">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="51">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="56" t="e">
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U36" s="9"/>
       <c r="V36" s="30"/>
-      <c r="W36" s="74">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="X36" s="74">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="Y36" s="77" t="e">
-        <f t="shared" si="29"/>
+      <c r="W36" s="52">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="X36" s="52">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Y36" s="55" t="e">
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AA1:AG1"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="AD11:AF11"/>
-    <mergeCell ref="AA9:AF9"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AD10:AF10"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A1:Y1"/>
     <mergeCell ref="A24:Y24"/>
@@ -4363,6 +4357,12 @@
     <mergeCell ref="P2:T2"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="F2:J2"/>
+    <mergeCell ref="AA1:AG1"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="AD11:AF11"/>
+    <mergeCell ref="AA9:AF9"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="AD10:AF10"/>
   </mergeCells>
   <conditionalFormatting sqref="AG16">
     <cfRule type="colorScale" priority="1">

--- a/Compiled_Data.xlsx
+++ b/Compiled_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T2F\Documents\GitHub\Artificial-Neural-Network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71265F81-3553-4A50-A82E-E2288DCC9A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADB8C32-5884-4AC3-BBEC-EFE62B4D5F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1320" windowWidth="23175" windowHeight="14160" tabRatio="774" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2565" yWindow="1020" windowWidth="23175" windowHeight="14160" tabRatio="774" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EXP vs NUM" sheetId="15" r:id="rId1"/>

--- a/Compiled_Data.xlsx
+++ b/Compiled_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T2F\Documents\GitHub\Artificial-Neural-Network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADB8C32-5884-4AC3-BBEC-EFE62B4D5F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF309539-D3A9-49B5-80A5-2BBA60572EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2565" yWindow="1020" windowWidth="23175" windowHeight="14160" tabRatio="774" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="405" windowWidth="26595" windowHeight="14160" tabRatio="774" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EXP vs NUM" sheetId="15" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="129">
   <si>
     <t>CS4</t>
   </si>
@@ -431,6 +431,12 @@
   </si>
   <si>
     <t xml:space="preserve">cs8 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>''''''</t>
   </si>
 </sst>
 </file>
@@ -1150,7 +1156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1619,6 +1625,36 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="17" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="11" fontId="5" fillId="18" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1679,49 +1715,13 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="17" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="17" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="4" fillId="18" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="4" fillId="18" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="4" fillId="18" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="8" fillId="22" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="8" fillId="22" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1739,6 +1739,18 @@
     <xf numFmtId="0" fontId="2" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1749,12 +1761,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="8" fillId="25" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1835,8 +1841,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="2" fillId="17" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2659,49 +2666,48 @@
                   </a:ln>
                 </c:spPr>
                 <c:xVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:strRef>
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Results_V3!$D$4:$D$13</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0</c:formatCode>
+                    <c:strCache>
                       <c:ptCount val="10"/>
                       <c:pt idx="0">
-                        <c:v>1097.1213108548836</c:v>
+                        <c:v>1097</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1347.4701292307768</c:v>
+                        <c:v>1347</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1582.37926416291</c:v>
+                        <c:v>1582</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1814.6523555802548</c:v>
+                        <c:v>1815</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>2048.8585455751113</c:v>
+                        <c:v>2049</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>2277.9683847747096</c:v>
+                        <c:v>2278</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>2521.5639107174788</c:v>
+                        <c:v>''''''</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>2787.9800419454145</c:v>
+                        <c:v>2788</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>3027.4332137935162</c:v>
+                        <c:v>3027</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>3252.3504885457846</c:v>
+                        <c:v>3252</c:v>
                       </c:pt>
-                    </c:numCache>
-                  </c:numRef>
+                    </c:strCache>
+                  </c:strRef>
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
@@ -2734,7 +2740,7 @@
                         <c:v>0.68663945399951865</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>0.6721736687880524</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="7">
                         <c:v>0.66342376109147894</c:v>
@@ -4470,43 +4476,42 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
+            <c:strRef>
               <c:f>Results_V3!$D$4:$D$13</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1097.1213108548836</c:v>
+                  <c:v>1097</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1347.4701292307768</c:v>
+                  <c:v>1347</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1582.37926416291</c:v>
+                  <c:v>1582</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1814.6523555802548</c:v>
+                  <c:v>1815</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2048.8585455751113</c:v>
+                  <c:v>2049</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2277.9683847747096</c:v>
+                  <c:v>2278</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2521.5639107174788</c:v>
+                  <c:v>''''''</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2787.9800419454145</c:v>
+                  <c:v>2788</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3027.4332137935162</c:v>
+                  <c:v>3027</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3252.3504885457846</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>3252</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -4533,7 +4538,7 @@
                   <c:v>0.68663945399951865</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6721736687880524</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.66342376109147894</c:v>
@@ -15833,7 +15838,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{97D5D023-B05B-4053-B6B1-39955E7712A0}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="103" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -15844,7 +15849,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1037F0A7-FF6F-41BC-8665-91E4034C4FD4}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="103" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -15855,7 +15860,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9646081" cy="6013665"/>
+    <xdr:ext cx="9645218" cy="6020170"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -15888,7 +15893,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9646081" cy="6013665"/>
+    <xdr:ext cx="9645218" cy="6020170"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -16818,15 +16823,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>94976</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>130160</xdr:rowOff>
+      <xdr:colOff>388052</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>126858</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>14454</xdr:rowOff>
+      <xdr:colOff>419934</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>168320</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17078,7 +17083,7 @@
       <sheetName val="Planilha13"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1048576">
           <cell r="J1048576">
@@ -17528,115 +17533,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="196" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="187"/>
-      <c r="O1" s="187"/>
-      <c r="P1" s="187"/>
-      <c r="Q1" s="187"/>
-      <c r="R1" s="187"/>
-      <c r="S1" s="187"/>
-      <c r="T1" s="187"/>
-      <c r="U1" s="187"/>
-      <c r="V1" s="187"/>
-      <c r="W1" s="187"/>
-      <c r="X1" s="187"/>
-      <c r="Y1" s="187"/>
-      <c r="Z1" s="187"/>
-      <c r="AA1" s="187"/>
-      <c r="AB1" s="187"/>
-      <c r="AC1" s="187"/>
-      <c r="AD1" s="187"/>
-      <c r="AE1" s="187"/>
-      <c r="AF1" s="187"/>
-      <c r="AG1" s="187"/>
-      <c r="AH1" s="187"/>
-      <c r="AI1" s="187"/>
-      <c r="AJ1" s="187"/>
-      <c r="AK1" s="187"/>
-      <c r="AL1" s="187"/>
-      <c r="AM1" s="187"/>
-      <c r="AN1" s="187"/>
-      <c r="AP1" s="168" t="s">
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="197"/>
+      <c r="P1" s="197"/>
+      <c r="Q1" s="197"/>
+      <c r="R1" s="197"/>
+      <c r="S1" s="197"/>
+      <c r="T1" s="197"/>
+      <c r="U1" s="197"/>
+      <c r="V1" s="197"/>
+      <c r="W1" s="197"/>
+      <c r="X1" s="197"/>
+      <c r="Y1" s="197"/>
+      <c r="Z1" s="197"/>
+      <c r="AA1" s="197"/>
+      <c r="AB1" s="197"/>
+      <c r="AC1" s="197"/>
+      <c r="AD1" s="197"/>
+      <c r="AE1" s="197"/>
+      <c r="AF1" s="197"/>
+      <c r="AG1" s="197"/>
+      <c r="AH1" s="197"/>
+      <c r="AI1" s="197"/>
+      <c r="AJ1" s="197"/>
+      <c r="AK1" s="197"/>
+      <c r="AL1" s="197"/>
+      <c r="AM1" s="197"/>
+      <c r="AN1" s="197"/>
+      <c r="AP1" s="178" t="s">
         <v>70</v>
       </c>
-      <c r="AQ1" s="169"/>
-      <c r="AR1" s="169"/>
-      <c r="AS1" s="169"/>
-      <c r="AT1" s="169"/>
-      <c r="AU1" s="169"/>
-      <c r="AV1" s="170"/>
+      <c r="AQ1" s="179"/>
+      <c r="AR1" s="179"/>
+      <c r="AS1" s="179"/>
+      <c r="AT1" s="179"/>
+      <c r="AU1" s="179"/>
+      <c r="AV1" s="180"/>
     </row>
     <row r="2" spans="1:48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="181" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="171" t="s">
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="174" t="s">
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="184" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="176"/>
-      <c r="P2" s="177" t="s">
+      <c r="L2" s="185"/>
+      <c r="M2" s="185"/>
+      <c r="N2" s="185"/>
+      <c r="O2" s="186"/>
+      <c r="P2" s="187" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="178"/>
-      <c r="R2" s="178"/>
-      <c r="S2" s="178"/>
-      <c r="T2" s="179"/>
-      <c r="U2" s="180" t="s">
+      <c r="Q2" s="188"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="188"/>
+      <c r="T2" s="189"/>
+      <c r="U2" s="190" t="s">
         <v>93</v>
       </c>
-      <c r="V2" s="181"/>
-      <c r="W2" s="181"/>
-      <c r="X2" s="181"/>
-      <c r="Y2" s="182"/>
-      <c r="Z2" s="180" t="s">
+      <c r="V2" s="191"/>
+      <c r="W2" s="191"/>
+      <c r="X2" s="191"/>
+      <c r="Y2" s="192"/>
+      <c r="Z2" s="190" t="s">
         <v>56</v>
       </c>
-      <c r="AA2" s="181"/>
-      <c r="AB2" s="181"/>
-      <c r="AC2" s="181"/>
-      <c r="AD2" s="182"/>
-      <c r="AE2" s="183" t="s">
+      <c r="AA2" s="191"/>
+      <c r="AB2" s="191"/>
+      <c r="AC2" s="191"/>
+      <c r="AD2" s="192"/>
+      <c r="AE2" s="193" t="s">
         <v>74</v>
       </c>
-      <c r="AF2" s="184"/>
-      <c r="AG2" s="184"/>
-      <c r="AH2" s="184"/>
-      <c r="AI2" s="185"/>
-      <c r="AJ2" s="183" t="s">
+      <c r="AF2" s="194"/>
+      <c r="AG2" s="194"/>
+      <c r="AH2" s="194"/>
+      <c r="AI2" s="195"/>
+      <c r="AJ2" s="193" t="s">
         <v>73</v>
       </c>
-      <c r="AK2" s="184"/>
-      <c r="AL2" s="184"/>
-      <c r="AM2" s="184"/>
-      <c r="AN2" s="185"/>
+      <c r="AK2" s="194"/>
+      <c r="AL2" s="194"/>
+      <c r="AM2" s="194"/>
+      <c r="AN2" s="195"/>
       <c r="AP2" s="31" t="s">
         <v>63</v>
       </c>
@@ -18585,14 +18590,14 @@
       <c r="AL9" s="99"/>
       <c r="AM9" s="99"/>
       <c r="AN9" s="99"/>
-      <c r="AP9" s="195" t="s">
+      <c r="AP9" s="175" t="s">
         <v>25</v>
       </c>
-      <c r="AQ9" s="196"/>
-      <c r="AR9" s="196"/>
-      <c r="AS9" s="196"/>
-      <c r="AT9" s="196"/>
-      <c r="AU9" s="197"/>
+      <c r="AQ9" s="176"/>
+      <c r="AR9" s="176"/>
+      <c r="AS9" s="176"/>
+      <c r="AT9" s="176"/>
+      <c r="AU9" s="177"/>
     </row>
     <row r="10" spans="1:48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="105">
@@ -18711,16 +18716,16 @@
       <c r="AL10" s="99"/>
       <c r="AM10" s="99"/>
       <c r="AN10" s="99"/>
-      <c r="AP10" s="188" t="s">
+      <c r="AP10" s="168" t="s">
         <v>23</v>
       </c>
-      <c r="AQ10" s="189"/>
-      <c r="AR10" s="189"/>
-      <c r="AS10" s="190" t="s">
+      <c r="AQ10" s="169"/>
+      <c r="AR10" s="169"/>
+      <c r="AS10" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="AT10" s="190"/>
-      <c r="AU10" s="191"/>
+      <c r="AT10" s="170"/>
+      <c r="AU10" s="171"/>
     </row>
     <row r="11" spans="1:48" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="105">
@@ -18839,16 +18844,16 @@
       <c r="AL11" s="99"/>
       <c r="AM11" s="99"/>
       <c r="AN11" s="99"/>
-      <c r="AP11" s="192">
+      <c r="AP11" s="172">
         <v>8.5374248628593903E-4</v>
       </c>
-      <c r="AQ11" s="193"/>
-      <c r="AR11" s="193"/>
-      <c r="AS11" s="193">
+      <c r="AQ11" s="173"/>
+      <c r="AR11" s="173"/>
+      <c r="AS11" s="173">
         <v>996.55</v>
       </c>
-      <c r="AT11" s="193"/>
-      <c r="AU11" s="194"/>
+      <c r="AT11" s="173"/>
+      <c r="AU11" s="174"/>
     </row>
     <row r="12" spans="1:48" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="105"/>
@@ -19053,14 +19058,14 @@
       <c r="AL13" s="99"/>
       <c r="AM13" s="99"/>
       <c r="AN13" s="99"/>
-      <c r="AP13" s="195" t="s">
+      <c r="AP13" s="175" t="s">
         <v>45</v>
       </c>
-      <c r="AQ13" s="196"/>
-      <c r="AR13" s="196"/>
-      <c r="AS13" s="196"/>
-      <c r="AT13" s="196"/>
-      <c r="AU13" s="197"/>
+      <c r="AQ13" s="176"/>
+      <c r="AR13" s="176"/>
+      <c r="AS13" s="176"/>
+      <c r="AT13" s="176"/>
+      <c r="AU13" s="177"/>
     </row>
     <row r="14" spans="1:48" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="105"/>
@@ -20243,16 +20248,16 @@
       <c r="AL24" s="99"/>
       <c r="AM24" s="99"/>
       <c r="AN24" s="99"/>
-      <c r="AP24" s="188" t="s">
+      <c r="AP24" s="168" t="s">
         <v>23</v>
       </c>
-      <c r="AQ24" s="189"/>
-      <c r="AR24" s="189"/>
-      <c r="AS24" s="190" t="s">
+      <c r="AQ24" s="169"/>
+      <c r="AR24" s="169"/>
+      <c r="AS24" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="AT24" s="190"/>
-      <c r="AU24" s="191"/>
+      <c r="AT24" s="170"/>
+      <c r="AU24" s="171"/>
     </row>
     <row r="25" spans="1:47" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="105"/>
@@ -20355,12 +20360,12 @@
       <c r="AL25" s="99"/>
       <c r="AM25" s="99"/>
       <c r="AN25" s="99"/>
-      <c r="AP25" s="192"/>
-      <c r="AQ25" s="193"/>
-      <c r="AR25" s="193"/>
-      <c r="AS25" s="193"/>
-      <c r="AT25" s="193"/>
-      <c r="AU25" s="194"/>
+      <c r="AP25" s="172"/>
+      <c r="AQ25" s="173"/>
+      <c r="AR25" s="173"/>
+      <c r="AS25" s="173"/>
+      <c r="AT25" s="173"/>
+      <c r="AU25" s="174"/>
     </row>
     <row r="26" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="105"/>
@@ -21283,6 +21288,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AP1:AV1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="AE2:AI2"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="A1:AN1"/>
     <mergeCell ref="AP24:AR24"/>
     <mergeCell ref="AS24:AU24"/>
     <mergeCell ref="AP25:AR25"/>
@@ -21293,16 +21308,6 @@
     <mergeCell ref="AP11:AR11"/>
     <mergeCell ref="AS11:AU11"/>
     <mergeCell ref="AP13:AU13"/>
-    <mergeCell ref="AP1:AV1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="AE2:AI2"/>
-    <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="A1:AN1"/>
   </mergeCells>
   <conditionalFormatting sqref="AV26">
     <cfRule type="colorScale" priority="1">
@@ -24919,8 +24924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:CX50"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B17"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CP32" sqref="CP32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24957,224 +24962,224 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:102" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="186" t="s">
+      <c r="A1" s="196" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="187"/>
-      <c r="O1" s="187"/>
-      <c r="P1" s="187"/>
-      <c r="Q1" s="187"/>
-      <c r="R1" s="187"/>
-      <c r="S1" s="187"/>
-      <c r="T1" s="187"/>
-      <c r="U1" s="187"/>
-      <c r="V1" s="187"/>
-      <c r="W1" s="187"/>
-      <c r="X1" s="187"/>
-      <c r="Y1" s="187"/>
-      <c r="Z1" s="187"/>
-      <c r="AA1" s="187"/>
-      <c r="AB1" s="187"/>
-      <c r="AC1" s="187"/>
-      <c r="AD1" s="187"/>
-      <c r="AE1" s="187"/>
-      <c r="AF1" s="187"/>
-      <c r="AG1" s="187"/>
-      <c r="AH1" s="187"/>
-      <c r="AI1" s="187"/>
-      <c r="AJ1" s="187"/>
-      <c r="AK1" s="187"/>
-      <c r="AL1" s="187"/>
-      <c r="AM1" s="187"/>
-      <c r="AN1" s="187"/>
-      <c r="AO1" s="187"/>
-      <c r="AP1" s="187"/>
-      <c r="AQ1" s="187"/>
-      <c r="AR1" s="187"/>
-      <c r="AS1" s="187"/>
-      <c r="AT1" s="187"/>
-      <c r="AU1" s="187"/>
-      <c r="AV1" s="187"/>
-      <c r="AW1" s="187"/>
-      <c r="AX1" s="187"/>
-      <c r="AY1" s="187"/>
-      <c r="AZ1" s="187"/>
-      <c r="BA1" s="187"/>
-      <c r="BB1" s="187"/>
-      <c r="BC1" s="187"/>
-      <c r="BD1" s="187"/>
-      <c r="BE1" s="187"/>
-      <c r="BF1" s="187"/>
-      <c r="BG1" s="187"/>
-      <c r="BH1" s="187"/>
-      <c r="BI1" s="187"/>
-      <c r="BJ1" s="187"/>
-      <c r="BK1" s="187"/>
-      <c r="BL1" s="187"/>
-      <c r="BM1" s="187"/>
-      <c r="BN1" s="187"/>
-      <c r="BO1" s="187"/>
-      <c r="BP1" s="187"/>
-      <c r="BQ1" s="187"/>
-      <c r="BR1" s="187"/>
-      <c r="BS1" s="187"/>
-      <c r="BT1" s="187"/>
-      <c r="BU1" s="187"/>
-      <c r="BV1" s="187"/>
-      <c r="BW1" s="187"/>
-      <c r="BX1" s="187"/>
-      <c r="BY1" s="187"/>
-      <c r="BZ1" s="187"/>
-      <c r="CA1" s="187"/>
-      <c r="CB1" s="187"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="197"/>
+      <c r="P1" s="197"/>
+      <c r="Q1" s="197"/>
+      <c r="R1" s="197"/>
+      <c r="S1" s="197"/>
+      <c r="T1" s="197"/>
+      <c r="U1" s="197"/>
+      <c r="V1" s="197"/>
+      <c r="W1" s="197"/>
+      <c r="X1" s="197"/>
+      <c r="Y1" s="197"/>
+      <c r="Z1" s="197"/>
+      <c r="AA1" s="197"/>
+      <c r="AB1" s="197"/>
+      <c r="AC1" s="197"/>
+      <c r="AD1" s="197"/>
+      <c r="AE1" s="197"/>
+      <c r="AF1" s="197"/>
+      <c r="AG1" s="197"/>
+      <c r="AH1" s="197"/>
+      <c r="AI1" s="197"/>
+      <c r="AJ1" s="197"/>
+      <c r="AK1" s="197"/>
+      <c r="AL1" s="197"/>
+      <c r="AM1" s="197"/>
+      <c r="AN1" s="197"/>
+      <c r="AO1" s="197"/>
+      <c r="AP1" s="197"/>
+      <c r="AQ1" s="197"/>
+      <c r="AR1" s="197"/>
+      <c r="AS1" s="197"/>
+      <c r="AT1" s="197"/>
+      <c r="AU1" s="197"/>
+      <c r="AV1" s="197"/>
+      <c r="AW1" s="197"/>
+      <c r="AX1" s="197"/>
+      <c r="AY1" s="197"/>
+      <c r="AZ1" s="197"/>
+      <c r="BA1" s="197"/>
+      <c r="BB1" s="197"/>
+      <c r="BC1" s="197"/>
+      <c r="BD1" s="197"/>
+      <c r="BE1" s="197"/>
+      <c r="BF1" s="197"/>
+      <c r="BG1" s="197"/>
+      <c r="BH1" s="197"/>
+      <c r="BI1" s="197"/>
+      <c r="BJ1" s="197"/>
+      <c r="BK1" s="197"/>
+      <c r="BL1" s="197"/>
+      <c r="BM1" s="197"/>
+      <c r="BN1" s="197"/>
+      <c r="BO1" s="197"/>
+      <c r="BP1" s="197"/>
+      <c r="BQ1" s="197"/>
+      <c r="BR1" s="197"/>
+      <c r="BS1" s="197"/>
+      <c r="BT1" s="197"/>
+      <c r="BU1" s="197"/>
+      <c r="BV1" s="197"/>
+      <c r="BW1" s="197"/>
+      <c r="BX1" s="197"/>
+      <c r="BY1" s="197"/>
+      <c r="BZ1" s="197"/>
+      <c r="CA1" s="197"/>
+      <c r="CB1" s="197"/>
       <c r="CC1" s="116"/>
       <c r="CD1" s="116"/>
       <c r="CE1" s="116"/>
       <c r="CF1" s="116"/>
       <c r="CG1" s="116"/>
       <c r="CH1" s="116"/>
-      <c r="CJ1" s="168" t="s">
+      <c r="CJ1" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="CK1" s="169"/>
-      <c r="CL1" s="169"/>
-      <c r="CM1" s="169"/>
-      <c r="CN1" s="169"/>
-      <c r="CO1" s="169"/>
-      <c r="CP1" s="170"/>
+      <c r="CK1" s="179"/>
+      <c r="CL1" s="179"/>
+      <c r="CM1" s="179"/>
+      <c r="CN1" s="179"/>
+      <c r="CO1" s="179"/>
+      <c r="CP1" s="180"/>
     </row>
     <row r="2" spans="1:102" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="181" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="171" t="s">
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="205" t="s">
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="203" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="206"/>
-      <c r="M2" s="206"/>
-      <c r="N2" s="206"/>
-      <c r="O2" s="207"/>
-      <c r="P2" s="174" t="s">
+      <c r="L2" s="204"/>
+      <c r="M2" s="204"/>
+      <c r="N2" s="204"/>
+      <c r="O2" s="205"/>
+      <c r="P2" s="184" t="s">
         <v>81</v>
       </c>
-      <c r="Q2" s="175"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="175"/>
-      <c r="T2" s="176"/>
-      <c r="U2" s="177" t="s">
+      <c r="Q2" s="185"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="185"/>
+      <c r="T2" s="186"/>
+      <c r="U2" s="187" t="s">
         <v>55</v>
       </c>
-      <c r="V2" s="178"/>
-      <c r="W2" s="178"/>
-      <c r="X2" s="178"/>
-      <c r="Y2" s="179"/>
-      <c r="Z2" s="177" t="s">
+      <c r="V2" s="188"/>
+      <c r="W2" s="188"/>
+      <c r="X2" s="188"/>
+      <c r="Y2" s="189"/>
+      <c r="Z2" s="187" t="s">
         <v>58</v>
       </c>
-      <c r="AA2" s="178"/>
-      <c r="AB2" s="178"/>
-      <c r="AC2" s="178"/>
-      <c r="AD2" s="179"/>
-      <c r="AE2" s="177" t="s">
+      <c r="AA2" s="188"/>
+      <c r="AB2" s="188"/>
+      <c r="AC2" s="188"/>
+      <c r="AD2" s="189"/>
+      <c r="AE2" s="187" t="s">
         <v>59</v>
       </c>
-      <c r="AF2" s="178"/>
-      <c r="AG2" s="178"/>
-      <c r="AH2" s="178"/>
-      <c r="AI2" s="179"/>
-      <c r="AJ2" s="177" t="s">
+      <c r="AF2" s="188"/>
+      <c r="AG2" s="188"/>
+      <c r="AH2" s="188"/>
+      <c r="AI2" s="189"/>
+      <c r="AJ2" s="187" t="s">
         <v>60</v>
       </c>
-      <c r="AK2" s="178"/>
-      <c r="AL2" s="178"/>
-      <c r="AM2" s="178"/>
-      <c r="AN2" s="179"/>
-      <c r="AO2" s="177" t="s">
+      <c r="AK2" s="188"/>
+      <c r="AL2" s="188"/>
+      <c r="AM2" s="188"/>
+      <c r="AN2" s="189"/>
+      <c r="AO2" s="187" t="s">
         <v>61</v>
       </c>
-      <c r="AP2" s="178"/>
-      <c r="AQ2" s="178"/>
-      <c r="AR2" s="178"/>
-      <c r="AS2" s="179"/>
-      <c r="AT2" s="180" t="s">
+      <c r="AP2" s="188"/>
+      <c r="AQ2" s="188"/>
+      <c r="AR2" s="188"/>
+      <c r="AS2" s="189"/>
+      <c r="AT2" s="190" t="s">
         <v>79</v>
       </c>
-      <c r="AU2" s="181"/>
-      <c r="AV2" s="181"/>
-      <c r="AW2" s="181"/>
-      <c r="AX2" s="182"/>
-      <c r="AY2" s="180" t="s">
+      <c r="AU2" s="191"/>
+      <c r="AV2" s="191"/>
+      <c r="AW2" s="191"/>
+      <c r="AX2" s="192"/>
+      <c r="AY2" s="190" t="s">
         <v>56</v>
       </c>
-      <c r="AZ2" s="181"/>
-      <c r="BA2" s="181"/>
-      <c r="BB2" s="181"/>
-      <c r="BC2" s="182"/>
-      <c r="BD2" s="180" t="s">
+      <c r="AZ2" s="191"/>
+      <c r="BA2" s="191"/>
+      <c r="BB2" s="191"/>
+      <c r="BC2" s="192"/>
+      <c r="BD2" s="190" t="s">
         <v>15</v>
       </c>
-      <c r="BE2" s="181"/>
-      <c r="BF2" s="181"/>
-      <c r="BG2" s="181"/>
-      <c r="BH2" s="182"/>
-      <c r="BI2" s="183" t="s">
+      <c r="BE2" s="191"/>
+      <c r="BF2" s="191"/>
+      <c r="BG2" s="191"/>
+      <c r="BH2" s="192"/>
+      <c r="BI2" s="193" t="s">
         <v>80</v>
       </c>
-      <c r="BJ2" s="184"/>
-      <c r="BK2" s="184"/>
-      <c r="BL2" s="184"/>
-      <c r="BM2" s="185"/>
-      <c r="BN2" s="183" t="s">
+      <c r="BJ2" s="194"/>
+      <c r="BK2" s="194"/>
+      <c r="BL2" s="194"/>
+      <c r="BM2" s="195"/>
+      <c r="BN2" s="193" t="s">
         <v>57</v>
       </c>
-      <c r="BO2" s="184"/>
-      <c r="BP2" s="184"/>
-      <c r="BQ2" s="184"/>
-      <c r="BR2" s="185"/>
-      <c r="BS2" s="183" t="s">
+      <c r="BO2" s="194"/>
+      <c r="BP2" s="194"/>
+      <c r="BQ2" s="194"/>
+      <c r="BR2" s="195"/>
+      <c r="BS2" s="193" t="s">
         <v>16</v>
       </c>
-      <c r="BT2" s="184"/>
-      <c r="BU2" s="184"/>
-      <c r="BV2" s="184"/>
-      <c r="BW2" s="185"/>
-      <c r="BX2" s="198" t="s">
+      <c r="BT2" s="194"/>
+      <c r="BU2" s="194"/>
+      <c r="BV2" s="194"/>
+      <c r="BW2" s="195"/>
+      <c r="BX2" s="200" t="s">
         <v>46</v>
       </c>
-      <c r="BY2" s="203"/>
-      <c r="BZ2" s="203"/>
-      <c r="CA2" s="203"/>
-      <c r="CB2" s="204"/>
-      <c r="CC2" s="198" t="s">
+      <c r="BY2" s="201"/>
+      <c r="BZ2" s="201"/>
+      <c r="CA2" s="201"/>
+      <c r="CB2" s="202"/>
+      <c r="CC2" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="CD2" s="199"/>
-      <c r="CE2" s="199"/>
-      <c r="CF2" s="199"/>
-      <c r="CG2" s="200"/>
+      <c r="CD2" s="206"/>
+      <c r="CE2" s="206"/>
+      <c r="CF2" s="206"/>
+      <c r="CG2" s="207"/>
       <c r="CH2" s="117"/>
       <c r="CJ2" s="31" t="s">
         <v>10</v>
@@ -25692,9 +25697,18 @@
       <c r="BO4" s="99">
         <v>2.5873879</v>
       </c>
-      <c r="BP4" s="99"/>
-      <c r="BQ4" s="99"/>
-      <c r="BR4" s="99"/>
+      <c r="BP4" s="99">
+        <f t="shared" ref="BP4" si="33">(BN4)/($CM$11*$CO$5)</f>
+        <v>5.6263635755861227E-3</v>
+      </c>
+      <c r="BQ4" s="99">
+        <f t="shared" ref="BQ4" si="34">(BN4*$CO$6)/($CJ$11*$CO$5)</f>
+        <v>38.511570925395162</v>
+      </c>
+      <c r="BR4" s="99">
+        <f t="shared" ref="BR4" si="35">(BO4*$CO$6)/(2*$CO$7*$CM$11*(BP4^2))</f>
+        <v>2.003949921824054</v>
+      </c>
       <c r="BS4" s="99"/>
       <c r="BT4" s="99"/>
       <c r="BU4" s="99"/>
@@ -25799,15 +25813,15 @@
         <v>27.734165999999998</v>
       </c>
       <c r="H5" s="112">
-        <f t="shared" ref="H5:H32" si="33">(F5)/($CM$11*$CL$5)</f>
+        <f t="shared" ref="H5:H32" si="36">(F5)/($CM$11*$CL$5)</f>
         <v>1.3285021320023634E-2</v>
       </c>
       <c r="I5" s="108">
-        <f t="shared" ref="I5:I32" si="34">(F5*$CL$6)/($CJ$11*$CL$5)</f>
+        <f t="shared" ref="I5:I32" si="37">(F5*$CL$6)/($CJ$11*$CL$5)</f>
         <v>50.21035266263398</v>
       </c>
       <c r="J5" s="112">
-        <f t="shared" ref="J5:J32" si="35">(G5*$CL$6)/(2*$CL$7*$CM$11*(H5^2))</f>
+        <f t="shared" ref="J5:J32" si="38">(G5*$CL$6)/(2*$CL$7*$CM$11*(H5^2))</f>
         <v>2.1273506538523392</v>
       </c>
       <c r="K5" s="128"/>
@@ -25858,15 +25872,15 @@
         <v>15.098254000000001</v>
       </c>
       <c r="AB5" s="38">
-        <f t="shared" ref="AB5:AB32" si="36">(Z5)/($CM$11*$CM$5)</f>
+        <f t="shared" ref="AB5:AB32" si="39">(Z5)/($CM$11*$CM$5)</f>
         <v>1.2337646848841618E-2</v>
       </c>
       <c r="AC5" s="38">
-        <f t="shared" ref="AC5:AC32" si="37">(Z5*$CM$6)/($CJ$11*$CM$5)</f>
+        <f t="shared" ref="AC5:AC32" si="40">(Z5*$CM$6)/($CJ$11*$CM$5)</f>
         <v>60.952994789662199</v>
       </c>
       <c r="AD5" s="136">
-        <f t="shared" ref="AD5:AD32" si="38">(AA5*$CM$6)/(2*$CM$7*$CM$11*(AB5^2))</f>
+        <f t="shared" ref="AD5:AD32" si="41">(AA5*$CM$6)/(2*$CM$7*$CM$11*(AB5^2))</f>
         <v>1.7552631567219561</v>
       </c>
       <c r="AE5" s="135">
@@ -25876,15 +25890,15 @@
         <v>16.508285000000001</v>
       </c>
       <c r="AG5" s="38">
-        <f t="shared" ref="AG5:AG32" si="39">(AE5)/($CM$11*$CM$5)</f>
+        <f t="shared" ref="AG5:AG32" si="42">(AE5)/($CM$11*$CM$5)</f>
         <v>1.2337646848841618E-2</v>
       </c>
       <c r="AH5" s="38">
-        <f t="shared" ref="AH5:AH32" si="40">(AE5*$CM$6)/($CJ$11*$CM$5)</f>
+        <f t="shared" ref="AH5:AH32" si="43">(AE5*$CM$6)/($CJ$11*$CM$5)</f>
         <v>60.952994789662199</v>
       </c>
       <c r="AI5" s="136">
-        <f t="shared" ref="AI5:AI32" si="41">(AF5*$CM$6)/(2*$CM$7*$CM$11*(AG5^2))</f>
+        <f t="shared" ref="AI5:AI32" si="44">(AF5*$CM$6)/(2*$CM$7*$CM$11*(AG5^2))</f>
         <v>1.919187771060529</v>
       </c>
       <c r="AJ5" s="135">
@@ -25894,15 +25908,15 @@
         <v>16.266539999999999</v>
       </c>
       <c r="AL5" s="38">
-        <f t="shared" ref="AL5:AL32" si="42">(AJ5)/($CM$11*$CM$5)</f>
+        <f t="shared" ref="AL5:AL32" si="45">(AJ5)/($CM$11*$CM$5)</f>
         <v>1.2337646848841618E-2</v>
       </c>
       <c r="AM5" s="38">
-        <f t="shared" ref="AM5:AM32" si="43">(AJ5*$CM$6)/($CJ$11*$CM$5)</f>
+        <f t="shared" ref="AM5:AM32" si="46">(AJ5*$CM$6)/($CJ$11*$CM$5)</f>
         <v>60.952994789662199</v>
       </c>
       <c r="AN5" s="136">
-        <f t="shared" ref="AN5:AN32" si="44">(AK5*$CM$6)/(2*$CM$7*$CM$11*(AL5^2))</f>
+        <f t="shared" ref="AN5:AN32" si="47">(AK5*$CM$6)/(2*$CM$7*$CM$11*(AL5^2))</f>
         <v>1.8910834556991796</v>
       </c>
       <c r="AO5" s="135">
@@ -25912,15 +25926,15 @@
         <v>15.096449</v>
       </c>
       <c r="AQ5" s="38">
-        <f t="shared" ref="AQ5:AQ32" si="45">(AO5)/($CM$11*$CM$5)</f>
+        <f t="shared" ref="AQ5:AQ32" si="48">(AO5)/($CM$11*$CM$5)</f>
         <v>1.2337646848841618E-2</v>
       </c>
       <c r="AR5" s="38">
-        <f t="shared" ref="AR5:AR32" si="46">(AO5*$CM$6)/($CJ$11*$CM$5)</f>
+        <f t="shared" ref="AR5:AR32" si="49">(AO5*$CM$6)/($CJ$11*$CM$5)</f>
         <v>60.952994789662199</v>
       </c>
       <c r="AS5" s="136">
-        <f t="shared" ref="AS5:AS32" si="47">(AP5*$CM$6)/(2*$CM$7*$CM$11*(AQ5^2))</f>
+        <f t="shared" ref="AS5:AS32" si="50">(AP5*$CM$6)/(2*$CM$7*$CM$11*(AQ5^2))</f>
         <v>1.7550533145774347</v>
       </c>
       <c r="AT5" s="6">
@@ -25948,15 +25962,15 @@
         <v>10.387665999999999</v>
       </c>
       <c r="BA5" s="114">
-        <f t="shared" ref="BA5:BA33" si="48">(AY5)/($CM$11*$CN$5)</f>
+        <f t="shared" ref="BA5:BA33" si="51">(AY5)/($CM$11*$CN$5)</f>
         <v>1.1957244748989047E-2</v>
       </c>
       <c r="BB5" s="114">
-        <f t="shared" ref="BB5:BB33" si="49">(AY5*$CN$6)/($CJ$11*$CN$5)</f>
+        <f t="shared" ref="BB5:BB33" si="52">(AY5*$CN$6)/($CJ$11*$CN$5)</f>
         <v>68.96417343635008</v>
       </c>
       <c r="BC5" s="114">
-        <f t="shared" ref="BC5:BC33" si="50">(AZ5*$CN$6)/(2*$CN$7*$CM$11*(BA5^2))</f>
+        <f t="shared" ref="BC5:BC33" si="53">(AZ5*$CN$6)/(2*$CN$7*$CM$11*(BA5^2))</f>
         <v>1.5009479154265484</v>
       </c>
       <c r="BD5" s="114"/>
@@ -25988,9 +26002,18 @@
       <c r="BO5" s="99">
         <v>7.2038326000000001</v>
       </c>
-      <c r="BP5" s="99"/>
-      <c r="BQ5" s="99"/>
-      <c r="BR5" s="99"/>
+      <c r="BP5" s="99">
+        <f t="shared" ref="BP5:BP32" si="54">(BN5)/($CM$11*$CO$5)</f>
+        <v>1.1252727151172245E-2</v>
+      </c>
+      <c r="BQ5" s="99">
+        <f t="shared" ref="BQ5:BQ32" si="55">(BN5*$CO$6)/($CJ$11*$CO$5)</f>
+        <v>77.023141850790324</v>
+      </c>
+      <c r="BR5" s="99">
+        <f t="shared" ref="BR5:BR32" si="56">(BO5*$CO$6)/(2*$CO$7*$CM$11*(BP5^2))</f>
+        <v>1.3948546114407097</v>
+      </c>
       <c r="BS5" s="99"/>
       <c r="BT5" s="99"/>
       <c r="BU5" s="99"/>
@@ -26003,29 +26026,29 @@
         <v>2596.030303030303</v>
       </c>
       <c r="BZ5" s="41">
-        <f t="shared" ref="BZ5:BZ33" si="51">(BX5)/($CM$11*$CP$5)</f>
+        <f t="shared" ref="BZ5:BZ33" si="57">(BX5)/($CM$11*$CP$5)</f>
         <v>0.34789113012329881</v>
       </c>
       <c r="CA5" s="56">
-        <f t="shared" ref="CA5:CA33" si="52">(BX5*$CP$6)/($CJ$11*$CP$5)</f>
+        <f t="shared" ref="CA5:CA33" si="58">(BX5*$CP$6)/($CJ$11*$CP$5)</f>
         <v>2754.7891730760771</v>
       </c>
       <c r="CB5" s="51">
-        <f t="shared" ref="CB5:CB33" si="53">(BY5*$CP$6)/(2*$CP$7*$CM$11*(BZ5^2))</f>
+        <f t="shared" ref="CB5:CB33" si="59">(BY5*$CP$6)/(2*$CP$7*$CM$11*(BZ5^2))</f>
         <v>0.60839484099168306</v>
       </c>
       <c r="CC5" s="8"/>
       <c r="CD5" s="22"/>
       <c r="CE5" s="41">
-        <f t="shared" ref="CE5:CE33" si="54">(CC5)/($CM$11*$CP$5)</f>
+        <f t="shared" ref="CE5:CE33" si="60">(CC5)/($CM$11*$CP$5)</f>
         <v>0</v>
       </c>
       <c r="CF5" s="56">
-        <f t="shared" ref="CF5:CF33" si="55">(CC5*$CP$6)/($CJ$11*$CP$5)</f>
+        <f t="shared" ref="CF5:CF33" si="61">(CC5*$CP$6)/($CJ$11*$CP$5)</f>
         <v>0</v>
       </c>
       <c r="CG5" s="51" t="e">
-        <f t="shared" ref="CG5:CG33" si="56">(CD5*$CP$6)/(2*$CP$7*$CM$11*(CE5^2))</f>
+        <f t="shared" ref="CG5:CG33" si="62">(CD5*$CP$6)/(2*$CP$7*$CM$11*(CE5^2))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="CH5" s="119"/>
@@ -26033,27 +26056,27 @@
         <v>8</v>
       </c>
       <c r="CK5" s="2">
-        <f t="shared" ref="CK5:CP5" si="57">(CK3/CK7)</f>
+        <f t="shared" ref="CK5:CP5" si="63">(CK3/CK7)</f>
         <v>1.2350833333333333E-4</v>
       </c>
       <c r="CL5" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>1.5106666666666666E-4</v>
       </c>
       <c r="CM5" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>1.6266666666666667E-4</v>
       </c>
       <c r="CN5" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>1.6784166666666668E-4</v>
       </c>
       <c r="CO5" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>1.7835E-4</v>
       </c>
       <c r="CP5" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>1.80025E-4</v>
       </c>
       <c r="CS5" s="76" t="s">
@@ -26071,7 +26094,7 @@
       <c r="CW5" s="71">
         <v>3.36341135090538E-3</v>
       </c>
-      <c r="CX5" s="201">
+      <c r="CX5" s="198">
         <v>0.12</v>
       </c>
     </row>
@@ -26101,15 +26124,15 @@
         <v>50.751215999999999</v>
       </c>
       <c r="H6" s="112">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1.992753198003545E-2</v>
       </c>
       <c r="I6" s="108">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>75.315528993950977</v>
       </c>
       <c r="J6" s="112">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.7301665236285146</v>
       </c>
       <c r="K6" s="128"/>
@@ -26160,15 +26183,15 @@
         <v>28.145869000000001</v>
       </c>
       <c r="AB6" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>1.8506470273262427E-2</v>
       </c>
       <c r="AC6" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>91.429492184493284</v>
       </c>
       <c r="AD6" s="136">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.4542787344703756</v>
       </c>
       <c r="AE6" s="135">
@@ -26178,15 +26201,15 @@
         <v>30.796748999999998</v>
       </c>
       <c r="AG6" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1.8506470273262427E-2</v>
       </c>
       <c r="AH6" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>91.429492184493284</v>
       </c>
       <c r="AI6" s="136">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>1.5912479789315368</v>
       </c>
       <c r="AJ6" s="135">
@@ -26196,15 +26219,15 @@
         <v>30.541485000000002</v>
       </c>
       <c r="AL6" s="38">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>1.8506470273262427E-2</v>
       </c>
       <c r="AM6" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>91.429492184493284</v>
       </c>
       <c r="AN6" s="136">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>1.5780586541721613</v>
       </c>
       <c r="AO6" s="135">
@@ -26214,15 +26237,15 @@
         <v>28.138327</v>
       </c>
       <c r="AQ6" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>1.8506470273262427E-2</v>
       </c>
       <c r="AR6" s="38">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>91.429492184493284</v>
       </c>
       <c r="AS6" s="136">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>1.4538890442385559</v>
       </c>
       <c r="AT6" s="6">
@@ -26250,15 +26273,15 @@
         <v>19.495747999999999</v>
       </c>
       <c r="BA6" s="114">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>1.7935867123483572E-2</v>
       </c>
       <c r="BB6" s="114">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>103.44626015452512</v>
       </c>
       <c r="BC6" s="114">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>1.2520020194155175</v>
       </c>
       <c r="BD6" s="114"/>
@@ -26290,9 +26313,18 @@
       <c r="BO6" s="99">
         <v>13.389817000000001</v>
       </c>
-      <c r="BP6" s="99"/>
-      <c r="BQ6" s="99"/>
-      <c r="BR6" s="99"/>
+      <c r="BP6" s="99">
+        <f t="shared" si="54"/>
+        <v>1.6879090726758368E-2</v>
+      </c>
+      <c r="BQ6" s="99">
+        <f t="shared" si="55"/>
+        <v>115.53471277618549</v>
+      </c>
+      <c r="BR6" s="99">
+        <f t="shared" si="56"/>
+        <v>1.1522784869201868</v>
+      </c>
       <c r="BS6" s="99"/>
       <c r="BT6" s="99"/>
       <c r="BU6" s="99"/>
@@ -26305,29 +26337,29 @@
         <v>3925.6363636363631</v>
       </c>
       <c r="BZ6" s="41">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0.44528943096519641</v>
       </c>
       <c r="CA6" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>3526.0413304397084</v>
       </c>
       <c r="CB6" s="51">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>0.56154914555513069</v>
       </c>
       <c r="CC6" s="8"/>
       <c r="CD6" s="22"/>
       <c r="CE6" s="41">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="CF6" s="56">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="CG6" s="51" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CH6" s="119"/>
@@ -26335,27 +26367,27 @@
         <v>9</v>
       </c>
       <c r="CK6" s="2">
-        <f t="shared" ref="CK6:CP6" si="58">(4*CK3)/CK4</f>
+        <f t="shared" ref="CK6:CP6" si="64">(4*CK3)/CK4</f>
         <v>2.0548334546462857E-3</v>
       </c>
       <c r="CL6" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>3.2378655949988834E-3</v>
       </c>
       <c r="CM6" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>4.2324371205550741E-3</v>
       </c>
       <c r="CN6" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>4.941061024225697E-3</v>
       </c>
       <c r="CO6" s="2">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>5.8639632851565171E-3</v>
       </c>
       <c r="CP6" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>6.7837965143664625E-3</v>
       </c>
       <c r="CS6" s="76" t="s">
@@ -26373,7 +26405,7 @@
       <c r="CW6" s="71">
         <v>3.2378655949988834E-3</v>
       </c>
-      <c r="CX6" s="201"/>
+      <c r="CX6" s="198"/>
     </row>
     <row r="7" spans="1:102" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="105">
@@ -26401,15 +26433,15 @@
         <v>79.056381000000002</v>
       </c>
       <c r="H7" s="112">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>2.6570042640047267E-2</v>
       </c>
       <c r="I7" s="108">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>100.42070532526796</v>
       </c>
       <c r="J7" s="112">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.5160059600453615</v>
       </c>
       <c r="K7" s="128"/>
@@ -26460,15 +26492,15 @@
         <v>44.774661999999999</v>
       </c>
       <c r="AB7" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>2.4675293697683235E-2</v>
       </c>
       <c r="AC7" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>121.9059895793244</v>
       </c>
       <c r="AD7" s="136">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.3013311764936297</v>
       </c>
       <c r="AE7" s="135">
@@ -26478,15 +26510,15 @@
         <v>48.420834999999997</v>
       </c>
       <c r="AG7" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>2.4675293697683235E-2</v>
       </c>
       <c r="AH7" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>121.9059895793244</v>
       </c>
       <c r="AI7" s="136">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>1.4073035811493992</v>
       </c>
       <c r="AJ7" s="135">
@@ -26496,15 +26528,15 @@
         <v>48.27722</v>
       </c>
       <c r="AL7" s="38">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>2.4675293697683235E-2</v>
       </c>
       <c r="AM7" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>121.9059895793244</v>
       </c>
       <c r="AN7" s="136">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>1.4031295535059938</v>
       </c>
       <c r="AO7" s="135">
@@ -26514,15 +26546,15 @@
         <v>44.785584999999998</v>
       </c>
       <c r="AQ7" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>2.4675293697683235E-2</v>
       </c>
       <c r="AR7" s="38">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>121.9059895793244</v>
       </c>
       <c r="AS7" s="136">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>1.3016486426632423</v>
       </c>
       <c r="AT7" s="6">
@@ -26550,15 +26582,15 @@
         <v>30.558305000000001</v>
       </c>
       <c r="BA7" s="114">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>2.3914489497978093E-2</v>
       </c>
       <c r="BB7" s="114">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>137.92834687270016</v>
       </c>
       <c r="BC7" s="114">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>1.1038674180686661</v>
       </c>
       <c r="BD7" s="114"/>
@@ -26590,9 +26622,18 @@
       <c r="BO7" s="99">
         <v>20.939304</v>
       </c>
-      <c r="BP7" s="99"/>
-      <c r="BQ7" s="99"/>
-      <c r="BR7" s="99"/>
+      <c r="BP7" s="99">
+        <f t="shared" si="54"/>
+        <v>2.2505454302344491E-2</v>
+      </c>
+      <c r="BQ7" s="99">
+        <f t="shared" si="55"/>
+        <v>154.04628370158065</v>
+      </c>
+      <c r="BR7" s="99">
+        <f t="shared" si="56"/>
+        <v>1.0136022852876569</v>
+      </c>
       <c r="BS7" s="99"/>
       <c r="BT7" s="99"/>
       <c r="BU7" s="99"/>
@@ -26605,29 +26646,29 @@
         <v>5510.5757575757589</v>
       </c>
       <c r="BZ7" s="41">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0.54376875278308945</v>
       </c>
       <c r="CA7" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>4305.8535936027747</v>
       </c>
       <c r="CB7" s="51">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>0.52860462582876655</v>
       </c>
       <c r="CC7" s="8"/>
       <c r="CD7" s="22"/>
       <c r="CE7" s="41">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="CF7" s="56">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="CG7" s="51" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CH7" s="119"/>
@@ -26635,27 +26676,27 @@
         <v>11</v>
       </c>
       <c r="CK7" s="36">
-        <f t="shared" ref="CK7:CP7" si="59">120/1000</f>
+        <f t="shared" ref="CK7:CP7" si="65">120/1000</f>
         <v>0.12</v>
       </c>
       <c r="CL7" s="36">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>0.12</v>
       </c>
       <c r="CM7" s="36">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>0.12</v>
       </c>
       <c r="CN7" s="36">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>0.12</v>
       </c>
       <c r="CO7" s="36">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>0.12</v>
       </c>
       <c r="CP7" s="37">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>0.12</v>
       </c>
       <c r="CS7" s="76" t="s">
@@ -26673,7 +26714,7 @@
       <c r="CW7" s="71">
         <v>3.0917662135566846E-3</v>
       </c>
-      <c r="CX7" s="201"/>
+      <c r="CX7" s="198"/>
     </row>
     <row r="8" spans="1:102" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="105">
@@ -26701,15 +26742,15 @@
         <v>112.41076</v>
       </c>
       <c r="H8" s="112">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>3.3212553300059081E-2</v>
       </c>
       <c r="I8" s="108">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>125.52588165658494</v>
       </c>
       <c r="J8" s="112">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.3795957161923007</v>
       </c>
       <c r="K8" s="128"/>
@@ -26760,15 +26801,15 @@
         <v>64.754914999999997</v>
       </c>
       <c r="AB8" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>3.0844117122104046E-2</v>
       </c>
       <c r="AC8" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>152.38248697415548</v>
       </c>
       <c r="AD8" s="136">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.2045039540721667</v>
       </c>
       <c r="AE8" s="135">
@@ -26778,15 +26819,15 @@
         <v>69.134467000000001</v>
       </c>
       <c r="AG8" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>3.0844117122104046E-2</v>
       </c>
       <c r="AH8" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>152.38248697415548</v>
       </c>
       <c r="AI8" s="136">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>1.2859678506901249</v>
       </c>
       <c r="AJ8" s="135">
@@ -26796,15 +26837,15 @@
         <v>69.325237000000001</v>
       </c>
       <c r="AL8" s="38">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>3.0844117122104046E-2</v>
       </c>
       <c r="AM8" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>152.38248697415548</v>
       </c>
       <c r="AN8" s="136">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>1.2895163569203987</v>
       </c>
       <c r="AO8" s="135">
@@ -26814,15 +26855,15 @@
         <v>64.757851000000002</v>
       </c>
       <c r="AQ8" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>3.0844117122104046E-2</v>
       </c>
       <c r="AR8" s="38">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>152.38248697415548</v>
       </c>
       <c r="AS8" s="136">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>1.2045585665075185</v>
       </c>
       <c r="AT8" s="6">
@@ -26850,15 +26891,15 @@
         <v>43.198756000000003</v>
       </c>
       <c r="BA8" s="114">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>2.9893111872472618E-2</v>
       </c>
       <c r="BB8" s="114">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>172.41043359087519</v>
       </c>
       <c r="BC8" s="114">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.99870878046668199</v>
       </c>
       <c r="BD8" s="114"/>
@@ -26890,9 +26931,18 @@
       <c r="BO8" s="99">
         <v>29.942796000000001</v>
       </c>
-      <c r="BP8" s="99"/>
-      <c r="BQ8" s="99"/>
-      <c r="BR8" s="99"/>
+      <c r="BP8" s="99">
+        <f t="shared" si="54"/>
+        <v>2.8131817877930617E-2</v>
+      </c>
+      <c r="BQ8" s="99">
+        <f t="shared" si="55"/>
+        <v>192.55785462697582</v>
+      </c>
+      <c r="BR8" s="99">
+        <f t="shared" si="56"/>
+        <v>0.92763614923597015</v>
+      </c>
       <c r="BS8" s="99"/>
       <c r="BT8" s="99"/>
       <c r="BU8" s="99"/>
@@ -26905,29 +26955,29 @@
         <v>7255.6363636363612</v>
       </c>
       <c r="BZ8" s="41">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0.63868070538019794</v>
       </c>
       <c r="CA8" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>5057.4175076277097</v>
       </c>
       <c r="CB8" s="51">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>0.50451071386289259</v>
       </c>
       <c r="CC8" s="8"/>
       <c r="CD8" s="22"/>
       <c r="CE8" s="41">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="CF8" s="56">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="CG8" s="51" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CH8" s="119"/>
@@ -26946,7 +26996,7 @@
       <c r="CW8" s="72">
         <v>4.3558635394456294E-3</v>
       </c>
-      <c r="CX8" s="201"/>
+      <c r="CX8" s="198"/>
     </row>
     <row r="9" spans="1:102" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="105">
@@ -26974,15 +27024,15 @@
         <v>150.70535000000001</v>
       </c>
       <c r="H9" s="112">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>3.9855063960070901E-2</v>
       </c>
       <c r="I9" s="108">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>150.63105798790195</v>
       </c>
       <c r="J9" s="112">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.2844290839342576</v>
       </c>
       <c r="K9" s="128"/>
@@ -27033,15 +27083,15 @@
         <v>88.484067999999994</v>
       </c>
       <c r="AB9" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>3.7012940546524854E-2</v>
       </c>
       <c r="AC9" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>182.85898436898657</v>
       </c>
       <c r="AD9" s="136">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.1429785524816327</v>
       </c>
       <c r="AE9" s="135">
@@ -27051,15 +27101,15 @@
         <v>92.907283000000007</v>
       </c>
       <c r="AG9" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>3.7012940546524854E-2</v>
       </c>
       <c r="AH9" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>182.85898436898657</v>
       </c>
       <c r="AI9" s="136">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>1.2001147126095222</v>
       </c>
       <c r="AJ9" s="135">
@@ -27069,15 +27119,15 @@
         <v>93.686419000000001</v>
       </c>
       <c r="AL9" s="38">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>3.7012940546524854E-2</v>
       </c>
       <c r="AM9" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>182.85898436898657</v>
       </c>
       <c r="AN9" s="136">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>1.210179075128053</v>
       </c>
       <c r="AO9" s="135">
@@ -27087,15 +27137,15 @@
         <v>88.474378000000002</v>
       </c>
       <c r="AQ9" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>3.7012940546524854E-2</v>
       </c>
       <c r="AR9" s="38">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>182.85898436898657</v>
       </c>
       <c r="AS9" s="136">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>1.1428533834831465</v>
       </c>
       <c r="AT9" s="6">
@@ -27123,15 +27173,15 @@
         <v>60.016209000000003</v>
       </c>
       <c r="BA9" s="114">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>3.5871734246967144E-2</v>
       </c>
       <c r="BB9" s="114">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>206.89252030905024</v>
       </c>
       <c r="BC9" s="114">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.96354875516527694</v>
       </c>
       <c r="BD9" s="114"/>
@@ -27163,9 +27213,18 @@
       <c r="BO9" s="99">
         <v>40.927132</v>
       </c>
-      <c r="BP9" s="99"/>
-      <c r="BQ9" s="99"/>
-      <c r="BR9" s="99"/>
+      <c r="BP9" s="99">
+        <f t="shared" si="54"/>
+        <v>3.3758181453516736E-2</v>
+      </c>
+      <c r="BQ9" s="99">
+        <f t="shared" si="55"/>
+        <v>231.06942555237097</v>
+      </c>
+      <c r="BR9" s="99">
+        <f t="shared" si="56"/>
+        <v>0.88050967640078193</v>
+      </c>
       <c r="BS9" s="99"/>
       <c r="BT9" s="99"/>
       <c r="BU9" s="99"/>
@@ -27178,40 +27237,40 @@
         <v>9288.6363636363658</v>
       </c>
       <c r="BZ9" s="41">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0.73684754457221746</v>
       </c>
       <c r="CA9" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>5834.7553652081278</v>
       </c>
       <c r="CB9" s="51">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>0.48524286379124681</v>
       </c>
       <c r="CC9" s="8"/>
       <c r="CD9" s="22"/>
       <c r="CE9" s="41">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="CF9" s="56">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="CG9" s="51" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CH9" s="119"/>
-      <c r="CJ9" s="195" t="s">
+      <c r="CJ9" s="175" t="s">
         <v>25</v>
       </c>
-      <c r="CK9" s="196"/>
-      <c r="CL9" s="196"/>
-      <c r="CM9" s="196"/>
-      <c r="CN9" s="196"/>
-      <c r="CO9" s="197"/>
+      <c r="CK9" s="176"/>
+      <c r="CL9" s="176"/>
+      <c r="CM9" s="176"/>
+      <c r="CN9" s="176"/>
+      <c r="CO9" s="177"/>
       <c r="CS9" s="77" t="s">
         <v>35</v>
       </c>
@@ -27227,7 +27286,7 @@
       <c r="CW9" s="72">
         <v>4.2324371205550741E-3</v>
       </c>
-      <c r="CX9" s="201"/>
+      <c r="CX9" s="198"/>
     </row>
     <row r="10" spans="1:102" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="105">
@@ -27236,17 +27295,15 @@
       <c r="B10" s="106">
         <v>22100.95</v>
       </c>
-      <c r="C10" s="107">
-        <f t="shared" si="0"/>
-        <v>0.6671737706915869</v>
-      </c>
-      <c r="D10" s="108">
-        <f t="shared" si="1"/>
-        <v>2521.5639107174788</v>
-      </c>
-      <c r="E10" s="109">
+      <c r="C10" s="107" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="240" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="109" t="e">
         <f t="shared" si="2"/>
-        <v>0.6721736687880524</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F10" s="112">
         <v>7.0000000000000001E-3</v>
@@ -27255,15 +27312,15 @@
         <v>194.05213000000001</v>
       </c>
       <c r="H10" s="112">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>4.6497574620082714E-2</v>
       </c>
       <c r="I10" s="108">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>175.73623431921894</v>
       </c>
       <c r="J10" s="112">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.2150839822737618</v>
       </c>
       <c r="K10" s="128"/>
@@ -27314,15 +27371,15 @@
         <v>115.57080000000001</v>
       </c>
       <c r="AB10" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>4.3181763970945662E-2</v>
       </c>
       <c r="AC10" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>213.33548176381768</v>
       </c>
       <c r="AD10" s="136">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.096800249466239</v>
       </c>
       <c r="AE10" s="135">
@@ -27332,15 +27389,15 @@
         <v>119.81815</v>
       </c>
       <c r="AG10" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>4.3181763970945662E-2</v>
       </c>
       <c r="AH10" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>213.33548176381768</v>
       </c>
       <c r="AI10" s="136">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>1.1371088268886538</v>
       </c>
       <c r="AJ10" s="135">
@@ -27350,15 +27407,15 @@
         <v>121.03297999999999</v>
       </c>
       <c r="AL10" s="38">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>4.3181763970945662E-2</v>
       </c>
       <c r="AM10" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>213.33548176381768</v>
       </c>
       <c r="AN10" s="136">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>1.1486379142278353</v>
       </c>
       <c r="AO10" s="135">
@@ -27368,15 +27425,15 @@
         <v>115.16921000000001</v>
       </c>
       <c r="AQ10" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>4.3181763970945662E-2</v>
       </c>
       <c r="AR10" s="38">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>213.33548176381768</v>
       </c>
       <c r="AS10" s="136">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>1.0929890444543922</v>
       </c>
       <c r="AT10" s="6">
@@ -27404,15 +27461,15 @@
         <v>78.265320000000003</v>
       </c>
       <c r="BA10" s="114">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>4.1850356621461665E-2</v>
       </c>
       <c r="BB10" s="114">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>241.37460702722527</v>
       </c>
       <c r="BC10" s="114">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.92316838147332136</v>
       </c>
       <c r="BD10" s="114"/>
@@ -27444,9 +27501,18 @@
       <c r="BO10" s="99">
         <v>53.630094</v>
       </c>
-      <c r="BP10" s="99"/>
-      <c r="BQ10" s="99"/>
-      <c r="BR10" s="99"/>
+      <c r="BP10" s="99">
+        <f t="shared" si="54"/>
+        <v>3.9384545029102859E-2</v>
+      </c>
+      <c r="BQ10" s="99">
+        <f t="shared" si="55"/>
+        <v>269.58099647776612</v>
+      </c>
+      <c r="BR10" s="99">
+        <f t="shared" si="56"/>
+        <v>0.84769144405441954</v>
+      </c>
       <c r="BS10" s="99"/>
       <c r="BT10" s="99"/>
       <c r="BU10" s="99"/>
@@ -27459,42 +27525,42 @@
         <v>11521.515151515152</v>
       </c>
       <c r="BZ10" s="41">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0.83458197537383871</v>
       </c>
       <c r="CA10" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>6608.6691804687716</v>
       </c>
       <c r="CB10" s="51">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>0.4691741443637984</v>
       </c>
       <c r="CC10" s="8"/>
       <c r="CD10" s="22"/>
       <c r="CE10" s="41">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="CF10" s="56">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="CG10" s="51" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CH10" s="119"/>
-      <c r="CJ10" s="188" t="s">
+      <c r="CJ10" s="168" t="s">
         <v>23</v>
       </c>
-      <c r="CK10" s="189"/>
-      <c r="CL10" s="189"/>
-      <c r="CM10" s="190" t="s">
+      <c r="CK10" s="169"/>
+      <c r="CL10" s="169"/>
+      <c r="CM10" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="CN10" s="190"/>
-      <c r="CO10" s="191"/>
+      <c r="CN10" s="170"/>
+      <c r="CO10" s="171"/>
       <c r="CS10" s="77" t="s">
         <v>27</v>
       </c>
@@ -27510,7 +27576,7 @@
       <c r="CW10" s="72">
         <v>4.0937396853339206E-3</v>
       </c>
-      <c r="CX10" s="201"/>
+      <c r="CX10" s="198"/>
     </row>
     <row r="11" spans="1:102" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="105">
@@ -27538,15 +27604,15 @@
         <v>242.85937000000001</v>
       </c>
       <c r="H11" s="112">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>5.3140085280094534E-2</v>
       </c>
       <c r="I11" s="108">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>200.84141065053592</v>
       </c>
       <c r="J11" s="112">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.1642837925153113</v>
       </c>
       <c r="K11" s="128"/>
@@ -27597,15 +27663,15 @@
         <v>145.79306</v>
       </c>
       <c r="AB11" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>4.935058739536647E-2</v>
       </c>
       <c r="AC11" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>243.8119791586488</v>
       </c>
       <c r="AD11" s="136">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.0593326996773662</v>
       </c>
       <c r="AE11" s="135">
@@ -27615,15 +27681,15 @@
         <v>149.43593000000001</v>
       </c>
       <c r="AG11" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>4.935058739536647E-2</v>
       </c>
       <c r="AH11" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>243.8119791586488</v>
       </c>
       <c r="AI11" s="136">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>1.0858018012359296</v>
       </c>
       <c r="AJ11" s="135">
@@ -27633,15 +27699,15 @@
         <v>151.0076</v>
       </c>
       <c r="AL11" s="38">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>4.935058739536647E-2</v>
       </c>
       <c r="AM11" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>243.8119791586488</v>
       </c>
       <c r="AN11" s="136">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>1.0972215589672092</v>
       </c>
       <c r="AO11" s="135">
@@ -27651,15 +27717,15 @@
         <v>145.45944</v>
       </c>
       <c r="AQ11" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>4.935058739536647E-2</v>
       </c>
       <c r="AR11" s="38">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>243.8119791586488</v>
       </c>
       <c r="AS11" s="136">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>1.0569086160120233</v>
       </c>
       <c r="AT11" s="6">
@@ -27687,15 +27753,15 @@
         <v>100.14637999999999</v>
       </c>
       <c r="BA11" s="114">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>4.7828978995956187E-2</v>
       </c>
       <c r="BB11" s="114">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>275.85669374540032</v>
       </c>
       <c r="BC11" s="114">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.90440492297857722</v>
       </c>
       <c r="BD11" s="114"/>
@@ -27727,9 +27793,18 @@
       <c r="BO11" s="99">
         <v>67.724592000000001</v>
       </c>
-      <c r="BP11" s="99"/>
-      <c r="BQ11" s="99"/>
-      <c r="BR11" s="99"/>
+      <c r="BP11" s="99">
+        <f t="shared" si="54"/>
+        <v>4.5010908604688982E-2</v>
+      </c>
+      <c r="BQ11" s="99">
+        <f t="shared" si="55"/>
+        <v>308.0925674031613</v>
+      </c>
+      <c r="BR11" s="99">
+        <f t="shared" si="56"/>
+        <v>0.81958074181183593</v>
+      </c>
       <c r="BS11" s="99"/>
       <c r="BT11" s="99"/>
       <c r="BU11" s="99"/>
@@ -27742,42 +27817,42 @@
         <v>14013.848484848482</v>
       </c>
       <c r="BZ11" s="41">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0.9330173807145814</v>
       </c>
       <c r="CA11" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>7388.1336893337311</v>
       </c>
       <c r="CB11" s="51">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>0.45660475174041765</v>
       </c>
       <c r="CC11" s="8"/>
       <c r="CD11" s="22"/>
       <c r="CE11" s="41">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="CF11" s="56">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="CG11" s="51" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CH11" s="119"/>
-      <c r="CJ11" s="192">
+      <c r="CJ11" s="172">
         <v>8.5374248628593903E-4</v>
       </c>
-      <c r="CK11" s="193"/>
-      <c r="CL11" s="193"/>
-      <c r="CM11" s="193">
+      <c r="CK11" s="173"/>
+      <c r="CL11" s="173"/>
+      <c r="CM11" s="173">
         <v>996.55</v>
       </c>
-      <c r="CN11" s="193"/>
-      <c r="CO11" s="194"/>
+      <c r="CN11" s="173"/>
+      <c r="CO11" s="174"/>
       <c r="CS11" s="78" t="s">
         <v>31</v>
       </c>
@@ -27793,7 +27868,7 @@
       <c r="CW11" s="73">
         <v>5.0540589624069251E-3</v>
       </c>
-      <c r="CX11" s="201"/>
+      <c r="CX11" s="198"/>
     </row>
     <row r="12" spans="1:102" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="105">
@@ -27821,15 +27896,15 @@
         <v>297.69573000000003</v>
       </c>
       <c r="H12" s="112">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>5.9782595940106348E-2</v>
       </c>
       <c r="I12" s="108">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>225.9465869818529</v>
       </c>
       <c r="J12" s="112">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.1276427922286478</v>
       </c>
       <c r="K12" s="128"/>
@@ -27880,15 +27955,15 @@
         <v>176.80177</v>
       </c>
       <c r="AB12" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>5.5519410819787278E-2</v>
       </c>
       <c r="AC12" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>274.28847655347982</v>
       </c>
       <c r="AD12" s="136">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>1.015025821877853</v>
       </c>
       <c r="AE12" s="135">
@@ -27898,15 +27973,15 @@
         <v>181.57817</v>
       </c>
       <c r="AG12" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>5.5519410819787278E-2</v>
       </c>
       <c r="AH12" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>274.28847655347982</v>
       </c>
       <c r="AI12" s="136">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>1.0424473196129569</v>
       </c>
       <c r="AJ12" s="135">
@@ -27916,15 +27991,15 @@
         <v>183.50209000000001</v>
       </c>
       <c r="AL12" s="38">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>5.5519410819787278E-2</v>
       </c>
       <c r="AM12" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>274.28847655347982</v>
       </c>
       <c r="AN12" s="136">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>1.0534926189853968</v>
       </c>
       <c r="AO12" s="135">
@@ -27934,15 +28009,15 @@
         <v>177.74529000000001</v>
       </c>
       <c r="AQ12" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>5.5519410819787278E-2</v>
       </c>
       <c r="AR12" s="38">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>274.28847655347982</v>
       </c>
       <c r="AS12" s="136">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>1.0204426068085592</v>
       </c>
       <c r="AT12" s="6">
@@ -27970,15 +28045,15 @@
         <v>122.49321</v>
       </c>
       <c r="BA12" s="114">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>5.3807601370450708E-2</v>
       </c>
       <c r="BB12" s="114">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>310.33878046357529</v>
       </c>
       <c r="BC12" s="114">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.87404669118784895</v>
       </c>
       <c r="BD12" s="114"/>
@@ -28010,9 +28085,18 @@
       <c r="BO12" s="99">
         <v>83.558577999999997</v>
       </c>
-      <c r="BP12" s="99"/>
-      <c r="BQ12" s="99"/>
-      <c r="BR12" s="99"/>
+      <c r="BP12" s="99">
+        <f t="shared" si="54"/>
+        <v>5.0637272180275104E-2</v>
+      </c>
+      <c r="BQ12" s="99">
+        <f t="shared" si="55"/>
+        <v>346.60413832855642</v>
+      </c>
+      <c r="BR12" s="99">
+        <f t="shared" si="56"/>
+        <v>0.7989716018029257</v>
+      </c>
       <c r="BS12" s="99"/>
       <c r="BT12" s="99"/>
       <c r="BU12" s="99"/>
@@ -28025,29 +28109,29 @@
         <v>16747.939393939396</v>
       </c>
       <c r="BZ12" s="41">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1.0320439694015724</v>
       </c>
       <c r="CA12" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>8172.2795060577637</v>
       </c>
       <c r="CB12" s="51">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>0.44599239880780833</v>
       </c>
       <c r="CC12" s="8"/>
       <c r="CD12" s="22"/>
       <c r="CE12" s="41">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="CF12" s="56">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="CG12" s="51" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CH12" s="119"/>
@@ -28066,7 +28150,7 @@
       <c r="CW12" s="73">
         <v>4.941061024225697E-3</v>
       </c>
-      <c r="CX12" s="201"/>
+      <c r="CX12" s="198"/>
     </row>
     <row r="13" spans="1:102" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="105">
@@ -28094,15 +28178,15 @@
         <v>357.64589000000001</v>
       </c>
       <c r="H13" s="112">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>6.6425106600118161E-2</v>
       </c>
       <c r="I13" s="108">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>251.05176331316989</v>
       </c>
       <c r="J13" s="112">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>1.0973298680610799</v>
       </c>
       <c r="K13" s="128"/>
@@ -28153,15 +28237,15 @@
         <v>214.11434</v>
       </c>
       <c r="AB13" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>6.1688234244208093E-2</v>
       </c>
       <c r="AC13" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>304.76497394831097</v>
       </c>
       <c r="AD13" s="136">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.99568337458844736</v>
       </c>
       <c r="AE13" s="135">
@@ -28171,15 +28255,15 @@
         <v>216.17213000000001</v>
       </c>
       <c r="AG13" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>6.1688234244208093E-2</v>
       </c>
       <c r="AH13" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>304.76497394831097</v>
       </c>
       <c r="AI13" s="136">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>1.0052525949003348</v>
       </c>
       <c r="AJ13" s="135">
@@ -28189,15 +28273,15 @@
         <v>218.48670000000001</v>
       </c>
       <c r="AL13" s="38">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>6.1688234244208093E-2</v>
       </c>
       <c r="AM13" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>304.76497394831097</v>
       </c>
       <c r="AN13" s="136">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>1.0160159042065737</v>
       </c>
       <c r="AO13" s="135">
@@ -28207,15 +28291,15 @@
         <v>213.35254</v>
       </c>
       <c r="AQ13" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>6.1688234244208093E-2</v>
       </c>
       <c r="AR13" s="38">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>304.76497394831097</v>
       </c>
       <c r="AS13" s="136">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.99214082066720388</v>
       </c>
       <c r="AT13" s="6">
@@ -28243,15 +28327,15 @@
         <v>149.13704000000001</v>
       </c>
       <c r="BA13" s="114">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>5.9786223744945237E-2</v>
       </c>
       <c r="BB13" s="114">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>344.82086718175037</v>
       </c>
       <c r="BC13" s="114">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.86197199371210342</v>
       </c>
       <c r="BD13" s="114"/>
@@ -28283,9 +28367,18 @@
       <c r="BO13" s="99">
         <v>103.42985</v>
       </c>
-      <c r="BP13" s="99"/>
-      <c r="BQ13" s="99"/>
-      <c r="BR13" s="99"/>
+      <c r="BP13" s="99">
+        <f t="shared" si="54"/>
+        <v>5.6263635755861234E-2</v>
+      </c>
+      <c r="BQ13" s="99">
+        <f t="shared" si="55"/>
+        <v>385.11570925395165</v>
+      </c>
+      <c r="BR13" s="99">
+        <f t="shared" si="56"/>
+        <v>0.80107138099306097</v>
+      </c>
       <c r="BS13" s="99"/>
       <c r="BT13" s="99"/>
       <c r="BU13" s="99"/>
@@ -28298,40 +28391,40 @@
         <v>18766.121212121208</v>
       </c>
       <c r="BZ13" s="41">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1.0959120399395919</v>
       </c>
       <c r="CA13" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>8678.0212568205334</v>
       </c>
       <c r="CB13" s="51">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>0.44318555622170491</v>
       </c>
       <c r="CC13" s="8"/>
       <c r="CD13" s="22"/>
       <c r="CE13" s="41">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="CF13" s="56">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="CG13" s="51" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CH13" s="119"/>
-      <c r="CJ13" s="195" t="s">
+      <c r="CJ13" s="175" t="s">
         <v>45</v>
       </c>
-      <c r="CK13" s="196"/>
-      <c r="CL13" s="196"/>
-      <c r="CM13" s="196"/>
-      <c r="CN13" s="196"/>
-      <c r="CO13" s="197"/>
+      <c r="CK13" s="176"/>
+      <c r="CL13" s="176"/>
+      <c r="CM13" s="176"/>
+      <c r="CN13" s="176"/>
+      <c r="CO13" s="177"/>
       <c r="CS13" s="78" t="s">
         <v>28</v>
       </c>
@@ -28347,7 +28440,7 @@
       <c r="CW13" s="73">
         <v>4.8327628057509174E-3</v>
       </c>
-      <c r="CX13" s="201"/>
+      <c r="CX13" s="198"/>
     </row>
     <row r="14" spans="1:102" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="105">
@@ -28357,15 +28450,15 @@
         <v>39419.440000000002</v>
       </c>
       <c r="C14" s="107">
-        <f t="shared" ref="C14:C17" si="60">(A14)/($CM$11*$CL$5)</f>
+        <f t="shared" ref="C14:C17" si="66">(A14)/($CM$11*$CL$5)</f>
         <v>0.91975523853853625</v>
       </c>
       <c r="D14" s="108">
-        <f t="shared" ref="D14:D17" si="61">(A14*$CL$6)/($CJ$11*$CL$5)</f>
+        <f t="shared" ref="D14:D17" si="67">(A14*$CL$6)/($CJ$11*$CL$5)</f>
         <v>3476.1882407158073</v>
       </c>
       <c r="E14" s="109">
-        <f t="shared" ref="E14:E17" si="62">(B14*$CL$6)/(2*$CL$7*$CM$11*(C14^2))</f>
+        <f t="shared" ref="E14:E17" si="68">(B14*$CL$6)/(2*$CL$7*$CM$11*(C14^2))</f>
         <v>0.6308329826894109</v>
       </c>
       <c r="F14" s="112">
@@ -28375,15 +28468,15 @@
         <v>1216.4213</v>
       </c>
       <c r="H14" s="112">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.13285021320023632</v>
       </c>
       <c r="I14" s="108">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>502.10352662633977</v>
       </c>
       <c r="J14" s="112">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.93305659449608602</v>
       </c>
       <c r="K14" s="128"/>
@@ -28398,15 +28491,15 @@
         <v>22955.95</v>
       </c>
       <c r="R14" s="38">
-        <f t="shared" ref="R14:R17" si="63">(P14)/($CM$11*$CM$5)</f>
+        <f t="shared" ref="R14:R17" si="69">(P14)/($CM$11*$CM$5)</f>
         <v>0.89761315884062309</v>
       </c>
       <c r="S14" s="60">
-        <f t="shared" ref="S14:S17" si="64">(P14*$CM$6)/($CJ$11*$CM$5)</f>
+        <f t="shared" ref="S14:S17" si="70">(P14*$CM$6)/($CJ$11*$CM$5)</f>
         <v>4434.5741829270828</v>
       </c>
       <c r="T14" s="45">
-        <f t="shared" ref="T14:T17" si="65">(Q14*$CM$6)/(2*$CM$7*$CM$11*(R14^2))</f>
+        <f t="shared" ref="T14:T17" si="71">(Q14*$CM$6)/(2*$CM$7*$CM$11*(R14^2))</f>
         <v>0.5041932514235844</v>
       </c>
       <c r="U14" s="135">
@@ -28416,15 +28509,15 @@
         <v>718.88823000000002</v>
       </c>
       <c r="W14" s="38">
-        <f t="shared" ref="W14:W32" si="66">(U14)/($CM$11*$CM$5)</f>
+        <f t="shared" ref="W14:W32" si="72">(U14)/($CM$11*$CM$5)</f>
         <v>0.12337646848841619</v>
       </c>
       <c r="X14" s="38">
-        <f t="shared" ref="X14:X32" si="67">(U14*$CM$6)/($CJ$11*$CM$5)</f>
+        <f t="shared" ref="X14:X32" si="73">(U14*$CM$6)/($CJ$11*$CM$5)</f>
         <v>609.52994789662193</v>
       </c>
       <c r="Y14" s="136">
-        <f t="shared" ref="Y14:Y32" si="68">(V14*$CM$6)/(2*$CM$7*$CM$11*(W14^2))</f>
+        <f t="shared" ref="Y14:Y32" si="74">(V14*$CM$6)/(2*$CM$7*$CM$11*(W14^2))</f>
         <v>0.83575095764057172</v>
       </c>
       <c r="Z14" s="139">
@@ -28434,15 +28527,15 @@
         <v>713.91364999999996</v>
       </c>
       <c r="AB14" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.12337646848841619</v>
       </c>
       <c r="AC14" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>609.52994789662193</v>
       </c>
       <c r="AD14" s="136">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.82996770813757226</v>
       </c>
       <c r="AE14" s="135">
@@ -28452,15 +28545,15 @@
         <v>691.34551999999996</v>
       </c>
       <c r="AG14" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.12337646848841619</v>
       </c>
       <c r="AH14" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>609.52994789662193</v>
       </c>
       <c r="AI14" s="136">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.80373089485763183</v>
       </c>
       <c r="AJ14" s="135">
@@ -28470,15 +28563,15 @@
         <v>695.86755000000005</v>
       </c>
       <c r="AL14" s="38">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0.12337646848841619</v>
       </c>
       <c r="AM14" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>609.52994789662193</v>
       </c>
       <c r="AN14" s="136">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.80898802767086408</v>
       </c>
       <c r="AO14" s="135">
@@ -28488,15 +28581,15 @@
         <v>717.59706000000006</v>
       </c>
       <c r="AQ14" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.12337646848841619</v>
       </c>
       <c r="AR14" s="38">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>609.52994789662193</v>
       </c>
       <c r="AS14" s="136">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.83424989458383381</v>
       </c>
       <c r="AT14" s="6">
@@ -28506,15 +28599,15 @@
         <v>17992.12</v>
       </c>
       <c r="AV14" s="39">
-        <f t="shared" ref="AV14:AV17" si="69">(AT14)/($CM$11*$CN$5)</f>
+        <f t="shared" ref="AV14:AV17" si="75">(AT14)/($CM$11*$CN$5)</f>
         <v>0.88429205678911049</v>
       </c>
       <c r="AW14" s="53">
-        <f t="shared" ref="AW14:AW17" si="70">(AT14*$CN$6)/($CJ$11*$CN$5)</f>
+        <f t="shared" ref="AW14:AW17" si="76">(AT14*$CN$6)/($CJ$11*$CN$5)</f>
         <v>5100.2109643985523</v>
       </c>
       <c r="AX14" s="47">
-        <f t="shared" ref="AX14:AX17" si="71">(AU14*$CN$6)/(2*$CN$7*$CM$11*(AV14^2))</f>
+        <f t="shared" ref="AX14:AX17" si="77">(AU14*$CN$6)/(2*$CN$7*$CM$11*(AV14^2))</f>
         <v>0.47533607258869409</v>
       </c>
       <c r="AY14" s="114">
@@ -28524,15 +28617,15 @@
         <v>538.22425999999996</v>
       </c>
       <c r="BA14" s="114">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.11957244748989047</v>
       </c>
       <c r="BB14" s="114">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>689.64173436350075</v>
       </c>
       <c r="BC14" s="114">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.77769787850225114</v>
       </c>
       <c r="BD14" s="114"/>
@@ -28547,15 +28640,15 @@
         <v>12062.43</v>
       </c>
       <c r="BK14" s="40">
-        <f t="shared" ref="BK14:BK17" si="72">(BI14)/($CM$11*$CO$5)</f>
+        <f t="shared" ref="BK14:BK17" si="78">(BI14)/($CM$11*$CO$5)</f>
         <v>0.8536206289607754</v>
       </c>
       <c r="BL14" s="58">
-        <f t="shared" ref="BL14:BL17" si="73">(BI14*$CO$6)/($CJ$11*$CO$5)</f>
+        <f t="shared" ref="BL14:BL17" si="79">(BI14*$CO$6)/($CJ$11*$CO$5)</f>
         <v>5842.8985176591032</v>
       </c>
       <c r="BM14" s="49">
-        <f t="shared" ref="BM14:BM17" si="74">(BJ14*$CO$6)/(2*$CO$7*$CM$11*(BK14^2))</f>
+        <f t="shared" ref="BM14:BM17" si="80">(BJ14*$CO$6)/(2*$CO$7*$CM$11*(BK14^2))</f>
         <v>0.40586902628951477</v>
       </c>
       <c r="BN14" s="99">
@@ -28564,9 +28657,18 @@
       <c r="BO14" s="99">
         <v>356.02294999999998</v>
       </c>
-      <c r="BP14" s="99"/>
-      <c r="BQ14" s="99"/>
-      <c r="BR14" s="99"/>
+      <c r="BP14" s="99">
+        <f t="shared" si="54"/>
+        <v>0.11252727151172247</v>
+      </c>
+      <c r="BQ14" s="99">
+        <f t="shared" si="55"/>
+        <v>770.2314185079033</v>
+      </c>
+      <c r="BR14" s="99">
+        <f t="shared" si="56"/>
+        <v>0.68935562659552219</v>
+      </c>
       <c r="BS14" s="99"/>
       <c r="BT14" s="99"/>
       <c r="BU14" s="99"/>
@@ -28594,7 +28696,7 @@
       <c r="CU14" s="73"/>
       <c r="CV14" s="73"/>
       <c r="CW14" s="73"/>
-      <c r="CX14" s="201"/>
+      <c r="CX14" s="198"/>
     </row>
     <row r="15" spans="1:102" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="105">
@@ -28604,15 +28706,15 @@
         <v>44170.61</v>
       </c>
       <c r="C15" s="107">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>0.98314471776702894</v>
       </c>
       <c r="D15" s="108">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>3715.7669384455653</v>
       </c>
       <c r="E15" s="109">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>0.61865279370688864</v>
       </c>
       <c r="F15" s="112">
@@ -28622,15 +28724,15 @@
         <v>2515.0484000000001</v>
       </c>
       <c r="H15" s="112">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.19927531980035448</v>
       </c>
       <c r="I15" s="108">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>753.15528993950966</v>
       </c>
       <c r="J15" s="112">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.85740852928242328</v>
       </c>
       <c r="K15" s="128"/>
@@ -28645,15 +28747,15 @@
         <v>25546.12</v>
       </c>
       <c r="R15" s="38">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>0.95801210898912714</v>
       </c>
       <c r="S15" s="60">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>4732.9695689198743</v>
       </c>
       <c r="T15" s="45">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>0.4925645252002438</v>
       </c>
       <c r="U15" s="135">
@@ -28663,15 +28765,15 @@
         <v>1463.0621000000001</v>
       </c>
       <c r="W15" s="38">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>0.18506470273262426</v>
       </c>
       <c r="X15" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>914.2949218449329</v>
       </c>
       <c r="Y15" s="136">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>0.75595466575914583</v>
       </c>
       <c r="Z15" s="139">
@@ -28681,15 +28783,15 @@
         <v>1495.2443000000001</v>
       </c>
       <c r="AB15" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.18506470273262426</v>
       </c>
       <c r="AC15" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>914.2949218449329</v>
       </c>
       <c r="AD15" s="136">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.77258299906392769</v>
       </c>
       <c r="AE15" s="135">
@@ -28699,15 +28801,15 @@
         <v>1370.5921000000001</v>
       </c>
       <c r="AG15" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.18506470273262426</v>
       </c>
       <c r="AH15" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>914.2949218449329</v>
       </c>
       <c r="AI15" s="136">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.70817601853511603</v>
       </c>
       <c r="AJ15" s="135">
@@ -28717,15 +28819,15 @@
         <v>1390.6565000000001</v>
       </c>
       <c r="AL15" s="38">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0.18506470273262426</v>
       </c>
       <c r="AM15" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>914.2949218449329</v>
       </c>
       <c r="AN15" s="136">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.71854316344007785</v>
       </c>
       <c r="AO15" s="135">
@@ -28735,15 +28837,15 @@
         <v>1497.0468000000001</v>
       </c>
       <c r="AQ15" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.18506470273262426</v>
       </c>
       <c r="AR15" s="38">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>914.2949218449329</v>
       </c>
       <c r="AS15" s="136">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.77351433908362388</v>
       </c>
       <c r="AT15" s="6">
@@ -28753,15 +28855,15 @@
         <v>20091.830000000002</v>
       </c>
       <c r="AV15" s="39">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>0.94438916889752933</v>
       </c>
       <c r="AW15" s="53">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>5446.8249000896467</v>
       </c>
       <c r="AX15" s="47">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>0.46540107511827272</v>
       </c>
       <c r="AY15" s="114">
@@ -28771,15 +28873,15 @@
         <v>1102.5408</v>
       </c>
       <c r="BA15" s="114">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.1793586712348357</v>
       </c>
       <c r="BB15" s="114">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>1034.4626015452511</v>
       </c>
       <c r="BC15" s="114">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.70804326568439446</v>
       </c>
       <c r="BD15" s="114"/>
@@ -28794,15 +28896,15 @@
         <v>13569.24</v>
       </c>
       <c r="BK15" s="40">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>0.9097323529000958</v>
       </c>
       <c r="BL15" s="58">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>6226.9744144980696</v>
       </c>
       <c r="BM15" s="49">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>0.40198435556327783</v>
       </c>
       <c r="BN15" s="99">
@@ -28811,9 +28913,18 @@
       <c r="BO15" s="99">
         <v>754.94809999999995</v>
       </c>
-      <c r="BP15" s="99"/>
-      <c r="BQ15" s="99"/>
-      <c r="BR15" s="99"/>
+      <c r="BP15" s="99">
+        <f t="shared" si="54"/>
+        <v>0.1687909072675837</v>
+      </c>
+      <c r="BQ15" s="99">
+        <f t="shared" si="55"/>
+        <v>1155.3471277618548</v>
+      </c>
+      <c r="BR15" s="99">
+        <f t="shared" si="56"/>
+        <v>0.64968061503101182</v>
+      </c>
       <c r="BS15" s="99"/>
       <c r="BT15" s="99"/>
       <c r="BU15" s="99"/>
@@ -28841,7 +28952,7 @@
       <c r="CU15" s="73"/>
       <c r="CV15" s="73"/>
       <c r="CW15" s="73"/>
-      <c r="CX15" s="201"/>
+      <c r="CX15" s="198"/>
     </row>
     <row r="16" spans="1:102" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="105">
@@ -28851,15 +28962,15 @@
         <v>48794.49</v>
       </c>
       <c r="C16" s="107">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>1.0432062991548559</v>
       </c>
       <c r="D16" s="108">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>3942.7679428333336</v>
       </c>
       <c r="E16" s="109">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>0.60698626435480818</v>
       </c>
       <c r="F16" s="112">
@@ -28869,15 +28980,15 @@
         <v>4219.9023999999999</v>
       </c>
       <c r="H16" s="112">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.26570042640047264</v>
       </c>
       <c r="I16" s="108">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>1004.2070532526795</v>
       </c>
       <c r="J16" s="112">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.80921958585603937</v>
       </c>
       <c r="K16" s="128"/>
@@ -28892,15 +29003,15 @@
         <v>28153.49</v>
       </c>
       <c r="R16" s="38">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>1.0168935285752239</v>
       </c>
       <c r="S16" s="60">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>5023.8677365535368</v>
       </c>
       <c r="T16" s="45">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>0.48179407137119268</v>
       </c>
       <c r="U16" s="135">
@@ -28910,15 +29021,15 @@
         <v>2432.1702</v>
       </c>
       <c r="W16" s="38">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>0.24675293697683237</v>
       </c>
       <c r="X16" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>1219.0598957932439</v>
       </c>
       <c r="Y16" s="136">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>0.70688616427718565</v>
       </c>
       <c r="Z16" s="139">
@@ -28928,15 +29039,15 @@
         <v>2425.3843999999999</v>
       </c>
       <c r="AB16" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.24675293697683237</v>
       </c>
       <c r="AC16" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1219.0598957932439</v>
       </c>
       <c r="AD16" s="136">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.70491393875877739</v>
       </c>
       <c r="AE16" s="135">
@@ -28946,15 +29057,15 @@
         <v>2264.1886</v>
       </c>
       <c r="AG16" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.24675293697683237</v>
       </c>
       <c r="AH16" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>1219.0598957932439</v>
       </c>
       <c r="AI16" s="136">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.65806397704162767</v>
       </c>
       <c r="AJ16" s="135">
@@ -28964,15 +29075,15 @@
         <v>2336.9378000000002</v>
       </c>
       <c r="AL16" s="38">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0.24675293697683237</v>
       </c>
       <c r="AM16" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>1219.0598957932439</v>
       </c>
       <c r="AN16" s="136">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.67920781103080896</v>
       </c>
       <c r="AO16" s="135">
@@ -28982,15 +29093,15 @@
         <v>2444.3471</v>
       </c>
       <c r="AQ16" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.24675293697683237</v>
       </c>
       <c r="AR16" s="38">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>1219.0598957932439</v>
       </c>
       <c r="AS16" s="136">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.71042525958136571</v>
       </c>
       <c r="AT16" s="6">
@@ -29000,15 +29111,15 @@
         <v>22214.31</v>
       </c>
       <c r="AV16" s="39">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>1.0011561883433548</v>
       </c>
       <c r="AW16" s="53">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>5774.2323134787193</v>
       </c>
       <c r="AX16" s="47">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>0.4578666780831116</v>
       </c>
       <c r="AY16" s="114">
@@ -29018,15 +29129,15 @@
         <v>1949.2659000000001</v>
       </c>
       <c r="BA16" s="114">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.23914489497978095</v>
       </c>
       <c r="BB16" s="114">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>1379.2834687270015</v>
       </c>
       <c r="BC16" s="114">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.70413955098697212</v>
       </c>
       <c r="BD16" s="114"/>
@@ -29041,15 +29152,15 @@
         <v>15230.65</v>
       </c>
       <c r="BK16" s="40">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>0.96442623321836862</v>
       </c>
       <c r="BL16" s="58">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>6601.3453954638353</v>
       </c>
       <c r="BM16" s="49">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>0.40147759634409308</v>
       </c>
       <c r="BN16" s="99">
@@ -29058,9 +29169,18 @@
       <c r="BO16" s="99">
         <v>1377.7919999999999</v>
       </c>
-      <c r="BP16" s="99"/>
-      <c r="BQ16" s="99"/>
-      <c r="BR16" s="99"/>
+      <c r="BP16" s="99">
+        <f t="shared" si="54"/>
+        <v>0.22505454302344494</v>
+      </c>
+      <c r="BQ16" s="99">
+        <f t="shared" si="55"/>
+        <v>1540.4628370158066</v>
+      </c>
+      <c r="BR16" s="99">
+        <f t="shared" si="56"/>
+        <v>0.66694342842104537</v>
+      </c>
       <c r="BS16" s="99"/>
       <c r="BT16" s="99"/>
       <c r="BU16" s="99"/>
@@ -29088,7 +29208,7 @@
       <c r="CU16" s="73"/>
       <c r="CV16" s="73"/>
       <c r="CW16" s="73"/>
-      <c r="CX16" s="201"/>
+      <c r="CX16" s="198"/>
     </row>
     <row r="17" spans="1:102" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="105">
@@ -29098,15 +29218,15 @@
         <v>53711.02</v>
       </c>
       <c r="C17" s="107">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>1.1035070109264431</v>
       </c>
       <c r="D17" s="108">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>4170.6727335690293</v>
       </c>
       <c r="E17" s="109">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>0.59712009712597691</v>
       </c>
       <c r="F17" s="112">
@@ -29116,15 +29236,15 @@
         <v>6251.9993999999997</v>
       </c>
       <c r="H17" s="112">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.33212553300059083</v>
       </c>
       <c r="I17" s="108">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>1255.2588165658497</v>
       </c>
       <c r="J17" s="112">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.7672959056478964</v>
       </c>
       <c r="K17" s="128"/>
@@ -29139,15 +29259,15 @@
         <v>30792.19</v>
       </c>
       <c r="R17" s="38">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>1.0750963775846341</v>
       </c>
       <c r="S17" s="60">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>5311.4134894737681</v>
       </c>
       <c r="T17" s="45">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>0.4714394921661077</v>
       </c>
       <c r="U17" s="135">
@@ -29157,15 +29277,15 @@
         <v>3544.5752000000002</v>
       </c>
       <c r="W17" s="38">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>0.30844117122104048</v>
       </c>
       <c r="X17" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>1523.8248697415549</v>
       </c>
       <c r="Y17" s="136">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>0.65932521784734666</v>
       </c>
       <c r="Z17" s="139">
@@ -29175,15 +29295,15 @@
         <v>3577.9371000000001</v>
       </c>
       <c r="AB17" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.30844117122104048</v>
       </c>
       <c r="AC17" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1523.8248697415549</v>
       </c>
       <c r="AD17" s="136">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.66553085342965879</v>
       </c>
       <c r="AE17" s="135">
@@ -29193,15 +29313,15 @@
         <v>3326.6034</v>
       </c>
       <c r="AG17" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.30844117122104048</v>
       </c>
       <c r="AH17" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>1523.8248697415549</v>
       </c>
       <c r="AI17" s="136">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.61878035805157239</v>
       </c>
       <c r="AJ17" s="135">
@@ -29211,15 +29331,15 @@
         <v>3365.1833999999999</v>
       </c>
       <c r="AL17" s="38">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0.30844117122104048</v>
       </c>
       <c r="AM17" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>1523.8248697415549</v>
       </c>
       <c r="AN17" s="136">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.6259566106260841</v>
       </c>
       <c r="AO17" s="135">
@@ -29229,15 +29349,15 @@
         <v>3633.4823999999999</v>
       </c>
       <c r="AQ17" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.30844117122104048</v>
       </c>
       <c r="AR17" s="38">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>1523.8248697415549</v>
       </c>
       <c r="AS17" s="136">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.67586281564134942</v>
       </c>
       <c r="AT17" s="6">
@@ -29247,15 +29367,15 @@
         <v>24338.62</v>
       </c>
       <c r="AV17" s="39">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>1.0577797208521926</v>
       </c>
       <c r="AW17" s="53">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>6100.8121567865546</v>
       </c>
       <c r="AX17" s="47">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>0.44938167544928515</v>
       </c>
       <c r="AY17" s="114">
@@ -29265,15 +29385,15 @@
         <v>2994.0488</v>
       </c>
       <c r="BA17" s="114">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.29893111872472616</v>
       </c>
       <c r="BB17" s="114">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>1724.1043359087519</v>
       </c>
       <c r="BC17" s="114">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.69219188295740108</v>
       </c>
       <c r="BD17" s="114"/>
@@ -29288,15 +29408,15 @@
         <v>16762.25</v>
       </c>
       <c r="BK17" s="40">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>1.0181692580923671</v>
       </c>
       <c r="BL17" s="58">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>6969.2079209432113</v>
       </c>
       <c r="BM17" s="49">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>0.39643615993681353</v>
       </c>
       <c r="BN17" s="99">
@@ -29305,9 +29425,18 @@
       <c r="BO17" s="99">
         <v>1923.6285</v>
       </c>
-      <c r="BP17" s="99"/>
-      <c r="BQ17" s="99"/>
-      <c r="BR17" s="99"/>
+      <c r="BP17" s="99">
+        <f t="shared" si="54"/>
+        <v>0.28131817877930615</v>
+      </c>
+      <c r="BQ17" s="99">
+        <f t="shared" si="55"/>
+        <v>1925.5785462697584</v>
+      </c>
+      <c r="BR17" s="99">
+        <f t="shared" si="56"/>
+        <v>0.59594546023710204</v>
+      </c>
       <c r="BS17" s="99"/>
       <c r="BT17" s="99"/>
       <c r="BU17" s="99"/>
@@ -29335,7 +29464,7 @@
       <c r="CU17" s="73"/>
       <c r="CV17" s="73"/>
       <c r="CW17" s="73"/>
-      <c r="CX17" s="201"/>
+      <c r="CX17" s="198"/>
     </row>
     <row r="18" spans="1:102" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="105"/>
@@ -29350,15 +29479,15 @@
         <v>8786.4305000000004</v>
       </c>
       <c r="H18" s="112">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.39855063960070897</v>
       </c>
       <c r="I18" s="108">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>1506.3105798790193</v>
       </c>
       <c r="J18" s="112">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.74884845681769252</v>
       </c>
       <c r="K18" s="128"/>
@@ -29369,15 +29498,15 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="16"/>
       <c r="R18" s="38">
-        <f t="shared" ref="R18" si="75">(P18)/($CM$11*$CM$5)</f>
+        <f t="shared" ref="R18" si="81">(P18)/($CM$11*$CM$5)</f>
         <v>0</v>
       </c>
       <c r="S18" s="60">
-        <f t="shared" ref="S18:S20" si="76">(P18*$CM$6)/($CJ$11*$CM$5)</f>
+        <f t="shared" ref="S18:S20" si="82">(P18*$CM$6)/($CJ$11*$CM$5)</f>
         <v>0</v>
       </c>
       <c r="T18" s="45" t="e">
-        <f t="shared" ref="T18:T20" si="77">(Q18*$CM$6)/(2*$CM$7*$CM$11*(R18^2))</f>
+        <f t="shared" ref="T18:T20" si="83">(Q18*$CM$6)/(2*$CM$7*$CM$11*(R18^2))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U18" s="135">
@@ -29387,15 +29516,15 @@
         <v>4845.17</v>
       </c>
       <c r="W18" s="38">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>0.37012940546524853</v>
       </c>
       <c r="X18" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>1828.5898436898658</v>
       </c>
       <c r="Y18" s="136">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>0.62586695190454322</v>
       </c>
       <c r="Z18" s="139">
@@ -29405,15 +29534,15 @@
         <v>4887.5787</v>
       </c>
       <c r="AB18" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.37012940546524853</v>
       </c>
       <c r="AC18" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>1828.5898436898658</v>
       </c>
       <c r="AD18" s="136">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.63134502673024273</v>
       </c>
       <c r="AE18" s="135">
@@ -29423,15 +29552,15 @@
         <v>4548.8347999999996</v>
       </c>
       <c r="AG18" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.37012940546524853</v>
       </c>
       <c r="AH18" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>1828.5898436898658</v>
       </c>
       <c r="AI18" s="136">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.58758833456685988</v>
       </c>
       <c r="AJ18" s="135">
@@ -29441,15 +29570,15 @@
         <v>4662.2896000000001</v>
       </c>
       <c r="AL18" s="38">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0.37012940546524853</v>
       </c>
       <c r="AM18" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>1828.5898436898658</v>
       </c>
       <c r="AN18" s="136">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.60224367377166377</v>
       </c>
       <c r="AO18" s="135">
@@ -29459,15 +29588,15 @@
         <v>4900.4692999999997</v>
       </c>
       <c r="AQ18" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.37012940546524853</v>
       </c>
       <c r="AR18" s="38">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>1828.5898436898658</v>
       </c>
       <c r="AS18" s="136">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.63301014901289132</v>
       </c>
       <c r="AT18" s="6"/>
@@ -29482,15 +29611,15 @@
         <v>4260.3788000000004</v>
       </c>
       <c r="BA18" s="114">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.35871734246967141</v>
       </c>
       <c r="BB18" s="114">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>2068.9252030905022</v>
       </c>
       <c r="BC18" s="114">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.68399566678270829</v>
       </c>
       <c r="BD18" s="114"/>
@@ -29509,9 +29638,18 @@
       <c r="BO18" s="99">
         <v>2853.4288999999999</v>
       </c>
-      <c r="BP18" s="99"/>
-      <c r="BQ18" s="99"/>
-      <c r="BR18" s="99"/>
+      <c r="BP18" s="99">
+        <f t="shared" si="54"/>
+        <v>0.33758181453516739</v>
+      </c>
+      <c r="BQ18" s="99">
+        <f t="shared" si="55"/>
+        <v>2310.6942555237097</v>
+      </c>
+      <c r="BR18" s="99">
+        <f t="shared" si="56"/>
+        <v>0.61388903512018356</v>
+      </c>
       <c r="BS18" s="99"/>
       <c r="BT18" s="99"/>
       <c r="BU18" s="99"/>
@@ -29539,7 +29677,7 @@
       <c r="CU18" s="73"/>
       <c r="CV18" s="73"/>
       <c r="CW18" s="73"/>
-      <c r="CX18" s="201"/>
+      <c r="CX18" s="198"/>
     </row>
     <row r="19" spans="1:102" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="105"/>
@@ -29554,15 +29692,15 @@
         <v>11684.112999999999</v>
       </c>
       <c r="H19" s="112">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.46497574620082721</v>
       </c>
       <c r="I19" s="108">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>1757.3623431921894</v>
       </c>
       <c r="J19" s="112">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.73161673378058911</v>
       </c>
       <c r="K19" s="128"/>
@@ -29577,11 +29715,11 @@
         <v>0</v>
       </c>
       <c r="S19" s="38">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="T19" s="136" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U19" s="135">
@@ -29591,15 +29729,15 @@
         <v>6382.7713000000003</v>
       </c>
       <c r="W19" s="38">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>0.43181763970945669</v>
       </c>
       <c r="X19" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>2133.3548176381769</v>
       </c>
       <c r="Y19" s="136">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>0.60574341910983986</v>
       </c>
       <c r="Z19" s="139">
@@ -29609,15 +29747,15 @@
         <v>6360.8864000000003</v>
       </c>
       <c r="AB19" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.43181763970945669</v>
       </c>
       <c r="AC19" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>2133.3548176381769</v>
       </c>
       <c r="AD19" s="136">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.60366647893294889</v>
       </c>
       <c r="AE19" s="135">
@@ -29627,15 +29765,15 @@
         <v>6020.1418999999996</v>
       </c>
       <c r="AG19" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.43181763970945669</v>
       </c>
       <c r="AH19" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>2133.3548176381769</v>
       </c>
       <c r="AI19" s="136">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.57132884238424886</v>
       </c>
       <c r="AJ19" s="135">
@@ -29645,15 +29783,15 @@
         <v>6081.1619000000001</v>
       </c>
       <c r="AL19" s="38">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0.43181763970945669</v>
       </c>
       <c r="AM19" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>2133.3548176381769</v>
       </c>
       <c r="AN19" s="136">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.57711981650768052</v>
       </c>
       <c r="AO19" s="135">
@@ -29663,15 +29801,15 @@
         <v>6319.7497999999996</v>
       </c>
       <c r="AQ19" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.43181763970945669</v>
       </c>
       <c r="AR19" s="38">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>2133.3548176381769</v>
       </c>
       <c r="AS19" s="136">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.5997624968594325</v>
       </c>
       <c r="AT19" s="6"/>
@@ -29686,15 +29824,15 @@
         <v>5545.2565000000004</v>
       </c>
       <c r="BA19" s="114">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.41850356621461671</v>
       </c>
       <c r="BB19" s="114">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>2413.7460702722528</v>
       </c>
       <c r="BC19" s="114">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.65408350313515784</v>
       </c>
       <c r="BD19" s="114"/>
@@ -29713,9 +29851,18 @@
       <c r="BO19" s="99">
         <v>3880.1055000000001</v>
       </c>
-      <c r="BP19" s="99"/>
-      <c r="BQ19" s="99"/>
-      <c r="BR19" s="99"/>
+      <c r="BP19" s="99">
+        <f t="shared" si="54"/>
+        <v>0.39384545029102863</v>
+      </c>
+      <c r="BQ19" s="99">
+        <f t="shared" si="55"/>
+        <v>2695.8099647776617</v>
+      </c>
+      <c r="BR19" s="99">
+        <f t="shared" si="56"/>
+        <v>0.61329973323904585</v>
+      </c>
       <c r="BS19" s="99"/>
       <c r="BT19" s="99"/>
       <c r="BU19" s="99"/>
@@ -29743,7 +29890,7 @@
       <c r="CU19" s="73"/>
       <c r="CV19" s="73"/>
       <c r="CW19" s="73"/>
-      <c r="CX19" s="201"/>
+      <c r="CX19" s="198"/>
     </row>
     <row r="20" spans="1:102" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="105"/>
@@ -29758,15 +29905,15 @@
         <v>14877.423000000001</v>
       </c>
       <c r="H20" s="112">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.53140085280094529</v>
       </c>
       <c r="I20" s="108">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>2008.4141065053591</v>
       </c>
       <c r="J20" s="112">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.71323344342425521</v>
       </c>
       <c r="K20" s="128"/>
@@ -29781,11 +29928,11 @@
         <v>0</v>
       </c>
       <c r="S20" s="60">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="T20" s="45" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U20" s="135">
@@ -29795,15 +29942,15 @@
         <v>7921.5661</v>
       </c>
       <c r="W20" s="38">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>0.49350587395366474</v>
       </c>
       <c r="X20" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>2438.1197915864877</v>
       </c>
       <c r="Y20" s="136">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>0.57558116980230101</v>
       </c>
       <c r="Z20" s="139">
@@ -29813,15 +29960,15 @@
         <v>8003.6729999999998</v>
       </c>
       <c r="AB20" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.49350587395366474</v>
       </c>
       <c r="AC20" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>2438.1197915864877</v>
       </c>
       <c r="AD20" s="136">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.5815470589906574</v>
       </c>
       <c r="AE20" s="135">
@@ -29831,15 +29978,15 @@
         <v>7330.6875</v>
       </c>
       <c r="AG20" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.49350587395366474</v>
       </c>
       <c r="AH20" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>2438.1197915864877</v>
       </c>
       <c r="AI20" s="136">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.53264791752543794</v>
       </c>
       <c r="AJ20" s="135">
@@ -29849,15 +29996,15 @@
         <v>7465.1455999999998</v>
       </c>
       <c r="AL20" s="38">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0.49350587395366474</v>
       </c>
       <c r="AM20" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>2438.1197915864877</v>
       </c>
       <c r="AN20" s="136">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.54241764607537646</v>
       </c>
       <c r="AO20" s="135">
@@ -29867,15 +30014,15 @@
         <v>8006.4866000000002</v>
       </c>
       <c r="AQ20" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.49350587395366474</v>
       </c>
       <c r="AR20" s="38">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>2438.1197915864877</v>
       </c>
       <c r="AS20" s="136">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.58175149522951619</v>
       </c>
       <c r="AT20" s="6"/>
@@ -29890,15 +30037,15 @@
         <v>6945.8042999999998</v>
       </c>
       <c r="BA20" s="114">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.4782897899595619</v>
       </c>
       <c r="BB20" s="114">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>2758.566937454003</v>
       </c>
       <c r="BC20" s="114">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.62726377158772695</v>
       </c>
       <c r="BD20" s="114"/>
@@ -29917,9 +30064,18 @@
       <c r="BO20" s="99">
         <v>5127.3957</v>
       </c>
-      <c r="BP20" s="99"/>
-      <c r="BQ20" s="99"/>
-      <c r="BR20" s="99"/>
+      <c r="BP20" s="99">
+        <f t="shared" si="54"/>
+        <v>0.45010908604688987</v>
+      </c>
+      <c r="BQ20" s="99">
+        <f t="shared" si="55"/>
+        <v>3080.9256740316132</v>
+      </c>
+      <c r="BR20" s="99">
+        <f t="shared" si="56"/>
+        <v>0.62050056667285891</v>
+      </c>
       <c r="BS20" s="99"/>
       <c r="BT20" s="99"/>
       <c r="BU20" s="99"/>
@@ -29947,7 +30103,7 @@
       <c r="CU20" s="73"/>
       <c r="CV20" s="73"/>
       <c r="CW20" s="73"/>
-      <c r="CX20" s="201"/>
+      <c r="CX20" s="198"/>
     </row>
     <row r="21" spans="1:102" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="105"/>
@@ -29962,15 +30118,15 @@
         <v>18638.074000000001</v>
       </c>
       <c r="H21" s="112">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.59782595940106342</v>
       </c>
       <c r="I21" s="108">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>2259.465869818529</v>
       </c>
       <c r="J21" s="112">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.70599231662221562</v>
       </c>
       <c r="K21" s="128"/>
@@ -29981,15 +30137,15 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="16"/>
       <c r="R21" s="38">
-        <f t="shared" ref="R21:R23" si="78">(P21)/($CM$11*$CM$5)</f>
+        <f t="shared" ref="R21:R23" si="84">(P21)/($CM$11*$CM$5)</f>
         <v>0</v>
       </c>
       <c r="S21" s="60">
-        <f t="shared" ref="S21:S23" si="79">(P21*$CM$6)/($CJ$11*$CM$5)</f>
+        <f t="shared" ref="S21:S23" si="85">(P21*$CM$6)/($CJ$11*$CM$5)</f>
         <v>0</v>
       </c>
       <c r="T21" s="45" t="e">
-        <f t="shared" ref="T21:T23" si="80">(Q21*$CM$6)/(2*$CM$7*$CM$11*(R21^2))</f>
+        <f t="shared" ref="T21:T23" si="86">(Q21*$CM$6)/(2*$CM$7*$CM$11*(R21^2))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U21" s="135">
@@ -29999,15 +30155,15 @@
         <v>9337.0537999999997</v>
       </c>
       <c r="W21" s="38">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>0.55519410819787285</v>
       </c>
       <c r="X21" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>2742.8847655347986</v>
       </c>
       <c r="Y21" s="136">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>0.53604388164568306</v>
       </c>
       <c r="Z21" s="139">
@@ -30017,15 +30173,15 @@
         <v>9501.7317999999996</v>
       </c>
       <c r="AB21" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.55519410819787285</v>
       </c>
       <c r="AC21" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>2742.8847655347986</v>
       </c>
       <c r="AD21" s="136">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.54549810952446509</v>
       </c>
       <c r="AE21" s="135">
@@ -30035,15 +30191,15 @@
         <v>9141.2484999999997</v>
       </c>
       <c r="AG21" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.55519410819787285</v>
       </c>
       <c r="AH21" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>2742.8847655347986</v>
       </c>
       <c r="AI21" s="136">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.52480262339580586</v>
       </c>
       <c r="AJ21" s="135">
@@ -30053,15 +30209,15 @@
         <v>9255.2684000000008</v>
       </c>
       <c r="AL21" s="38">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0.55519410819787285</v>
       </c>
       <c r="AM21" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>2742.8847655347986</v>
       </c>
       <c r="AN21" s="136">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.53134855009710136</v>
       </c>
       <c r="AO21" s="135">
@@ -30071,15 +30227,15 @@
         <v>9671.4979999999996</v>
       </c>
       <c r="AQ21" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.55519410819787285</v>
       </c>
       <c r="AR21" s="38">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>2742.8847655347986</v>
       </c>
       <c r="AS21" s="136">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.55524445293958358</v>
       </c>
       <c r="AT21" s="6"/>
@@ -30094,15 +30250,15 @@
         <v>8981.3819000000003</v>
       </c>
       <c r="BA21" s="114">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.53807601370450708</v>
       </c>
       <c r="BB21" s="114">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>3103.3878046357531</v>
       </c>
       <c r="BC21" s="114">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.6408638594734708</v>
       </c>
       <c r="BD21" s="114"/>
@@ -30121,9 +30277,18 @@
       <c r="BO21" s="99">
         <v>6561.4432999999999</v>
       </c>
-      <c r="BP21" s="99"/>
-      <c r="BQ21" s="99"/>
-      <c r="BR21" s="99"/>
+      <c r="BP21" s="99">
+        <f t="shared" si="54"/>
+        <v>0.50637272180275106</v>
+      </c>
+      <c r="BQ21" s="99">
+        <f t="shared" si="55"/>
+        <v>3466.0413832855647</v>
+      </c>
+      <c r="BR21" s="99">
+        <f t="shared" si="56"/>
+        <v>0.62739302044370282</v>
+      </c>
       <c r="BS21" s="99"/>
       <c r="BT21" s="99"/>
       <c r="BU21" s="99"/>
@@ -30151,7 +30316,7 @@
       <c r="CU21" s="73"/>
       <c r="CV21" s="73"/>
       <c r="CW21" s="73"/>
-      <c r="CX21" s="201"/>
+      <c r="CX21" s="198"/>
     </row>
     <row r="22" spans="1:102" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="105"/>
@@ -30166,15 +30331,15 @@
         <v>22335.263999999999</v>
       </c>
       <c r="H22" s="112">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.66425106600118167</v>
       </c>
       <c r="I22" s="108">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>2510.5176331316993</v>
       </c>
       <c r="J22" s="112">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.68529103740656383</v>
       </c>
       <c r="K22" s="128"/>
@@ -30185,15 +30350,15 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="16"/>
       <c r="R22" s="38">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="S22" s="60">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="T22" s="45" t="e">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U22" s="135">
@@ -30203,15 +30368,15 @@
         <v>11210.087</v>
       </c>
       <c r="W22" s="38">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>0.61688234244208096</v>
       </c>
       <c r="X22" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>3047.6497394831099</v>
       </c>
       <c r="Y22" s="136">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>0.52129610999385112</v>
       </c>
       <c r="Z22" s="139">
@@ -30221,15 +30386,15 @@
         <v>11571.65</v>
       </c>
       <c r="AB22" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.61688234244208096</v>
       </c>
       <c r="AC22" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>3047.6497394831099</v>
       </c>
       <c r="AD22" s="136">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.53810966241478297</v>
       </c>
       <c r="AE22" s="135">
@@ -30239,15 +30404,15 @@
         <v>11133.701999999999</v>
       </c>
       <c r="AG22" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.61688234244208096</v>
       </c>
       <c r="AH22" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>3047.6497394831099</v>
       </c>
       <c r="AI22" s="136">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.51774402307767642</v>
       </c>
       <c r="AJ22" s="135">
@@ -30257,15 +30422,15 @@
         <v>11197.766</v>
       </c>
       <c r="AL22" s="38">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0.61688234244208096</v>
       </c>
       <c r="AM22" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>3047.6497394831099</v>
       </c>
       <c r="AN22" s="136">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.52072315374728195</v>
       </c>
       <c r="AO22" s="135">
@@ -30275,15 +30440,15 @@
         <v>11683.843000000001</v>
       </c>
       <c r="AQ22" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.61688234244208096</v>
       </c>
       <c r="AR22" s="38">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>3047.6497394831099</v>
       </c>
       <c r="AS22" s="136">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.54332690778215087</v>
       </c>
       <c r="AT22" s="6"/>
@@ -30298,15 +30463,15 @@
         <v>10933.877</v>
       </c>
       <c r="BA22" s="114">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.59786223744945233</v>
       </c>
       <c r="BB22" s="114">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>3448.2086718175037</v>
       </c>
       <c r="BC22" s="114">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.63194869340929083</v>
       </c>
       <c r="BD22" s="114"/>
@@ -30325,9 +30490,18 @@
       <c r="BO22" s="99">
         <v>8149.5194000000001</v>
       </c>
-      <c r="BP22" s="99"/>
-      <c r="BQ22" s="99"/>
-      <c r="BR22" s="99"/>
+      <c r="BP22" s="99">
+        <f t="shared" si="54"/>
+        <v>0.5626363575586123</v>
+      </c>
+      <c r="BQ22" s="99">
+        <f t="shared" si="55"/>
+        <v>3851.1570925395167</v>
+      </c>
+      <c r="BR22" s="99">
+        <f t="shared" si="56"/>
+        <v>0.63118594488803215</v>
+      </c>
       <c r="BS22" s="99"/>
       <c r="BT22" s="99"/>
       <c r="BU22" s="99"/>
@@ -30355,7 +30529,7 @@
       <c r="CU22" s="73"/>
       <c r="CV22" s="73"/>
       <c r="CW22" s="73"/>
-      <c r="CX22" s="201"/>
+      <c r="CX22" s="198"/>
     </row>
     <row r="23" spans="1:102" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="105"/>
@@ -30370,15 +30544,15 @@
         <v>26557.95</v>
       </c>
       <c r="H23" s="112">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.7306761726012998</v>
       </c>
       <c r="I23" s="108">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>2761.5693964448687</v>
       </c>
       <c r="J23" s="112">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.67343105588179841</v>
       </c>
       <c r="K23" s="128"/>
@@ -30389,15 +30563,15 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="16"/>
       <c r="R23" s="38">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="S23" s="60">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="T23" s="45" t="e">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U23" s="135">
@@ -30407,15 +30581,15 @@
         <v>13035.989</v>
       </c>
       <c r="W23" s="38">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>0.67857057668628895</v>
       </c>
       <c r="X23" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>3352.4147134314208</v>
       </c>
       <c r="Y23" s="136">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>0.50099583575696172</v>
       </c>
       <c r="Z23" s="139">
@@ -30425,15 +30599,15 @@
         <v>13360.300999999999</v>
       </c>
       <c r="AB23" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.67857057668628895</v>
       </c>
       <c r="AC23" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>3352.4147134314208</v>
       </c>
       <c r="AD23" s="136">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.51345971260481815</v>
       </c>
       <c r="AE23" s="135">
@@ -30443,15 +30617,15 @@
         <v>13059.373</v>
       </c>
       <c r="AG23" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.67857057668628895</v>
       </c>
       <c r="AH23" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>3352.4147134314208</v>
       </c>
       <c r="AI23" s="136">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.50189452373708665</v>
       </c>
       <c r="AJ23" s="135">
@@ -30461,15 +30635,15 @@
         <v>13097.154</v>
       </c>
       <c r="AL23" s="38">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0.67857057668628895</v>
       </c>
       <c r="AM23" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>3352.4147134314208</v>
       </c>
       <c r="AN23" s="136">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.50334651358386651</v>
       </c>
       <c r="AO23" s="135">
@@ -30479,15 +30653,15 @@
         <v>13716.749</v>
       </c>
       <c r="AQ23" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.67857057668628895</v>
       </c>
       <c r="AR23" s="38">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>3352.4147134314208</v>
       </c>
       <c r="AS23" s="136">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.52715863208564151</v>
       </c>
       <c r="AT23" s="6"/>
@@ -30502,15 +30676,15 @@
         <v>12757.145</v>
       </c>
       <c r="BA23" s="114">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.65764846119439757</v>
       </c>
       <c r="BB23" s="114">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>3793.0295389992539</v>
       </c>
       <c r="BC23" s="114">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.60936254686728319</v>
       </c>
       <c r="BD23" s="114"/>
@@ -30529,9 +30703,18 @@
       <c r="BO23" s="99">
         <v>9370.7862000000005</v>
       </c>
-      <c r="BP23" s="99"/>
-      <c r="BQ23" s="99"/>
-      <c r="BR23" s="99"/>
+      <c r="BP23" s="99">
+        <f t="shared" si="54"/>
+        <v>0.61889999331447354</v>
+      </c>
+      <c r="BQ23" s="99">
+        <f t="shared" si="55"/>
+        <v>4236.2728017934687</v>
+      </c>
+      <c r="BR23" s="99">
+        <f t="shared" si="56"/>
+        <v>0.59981314697873978</v>
+      </c>
       <c r="BS23" s="99"/>
       <c r="BT23" s="99"/>
       <c r="BU23" s="99"/>
@@ -30559,21 +30742,21 @@
       <c r="CU23" s="73"/>
       <c r="CV23" s="73"/>
       <c r="CW23" s="73"/>
-      <c r="CX23" s="201"/>
+      <c r="CX23" s="198"/>
     </row>
     <row r="24" spans="1:102" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="105"/>
       <c r="B24" s="106"/>
       <c r="C24" s="107">
-        <f t="shared" ref="C24:C33" si="81">(A24)/($CM$11*$CL$5)</f>
+        <f t="shared" ref="C24:C33" si="87">(A24)/($CM$11*$CL$5)</f>
         <v>0</v>
       </c>
       <c r="D24" s="108">
-        <f t="shared" ref="D24:D33" si="82">(A24*$CL$6)/($CJ$11*$CL$5)</f>
+        <f t="shared" ref="D24:D33" si="88">(A24*$CL$6)/($CJ$11*$CL$5)</f>
         <v>0</v>
       </c>
       <c r="E24" s="109" t="e">
-        <f t="shared" ref="E24:E33" si="83">(B24*$CL$6)/(2*$CL$7*$CM$11*(C24^2))</f>
+        <f t="shared" ref="E24:E33" si="89">(B24*$CL$6)/(2*$CL$7*$CM$11*(C24^2))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="112">
@@ -30583,15 +30766,15 @@
         <v>31036.456999999999</v>
       </c>
       <c r="H24" s="112">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.79710127920141793</v>
       </c>
       <c r="I24" s="108">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>3012.6211597580386</v>
       </c>
       <c r="J24" s="112">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.66129251604330874</v>
       </c>
       <c r="K24" s="128"/>
@@ -30602,15 +30785,15 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="16"/>
       <c r="R24" s="38">
-        <f t="shared" ref="R24:R33" si="84">(P24)/($CM$11*$CM$5)</f>
+        <f t="shared" ref="R24:R33" si="90">(P24)/($CM$11*$CM$5)</f>
         <v>0</v>
       </c>
       <c r="S24" s="60">
-        <f t="shared" ref="S24:S33" si="85">(P24*$CM$6)/($CJ$11*$CM$5)</f>
+        <f t="shared" ref="S24:S33" si="91">(P24*$CM$6)/($CJ$11*$CM$5)</f>
         <v>0</v>
       </c>
       <c r="T24" s="45" t="e">
-        <f t="shared" ref="T24:T33" si="86">(Q24*$CM$6)/(2*$CM$7*$CM$11*(R24^2))</f>
+        <f t="shared" ref="T24:T33" si="92">(Q24*$CM$6)/(2*$CM$7*$CM$11*(R24^2))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U24" s="135">
@@ -30620,15 +30803,15 @@
         <v>15270.699000000001</v>
       </c>
       <c r="W24" s="38">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>0.74025881093049706</v>
       </c>
       <c r="X24" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>3657.1796873797316</v>
       </c>
       <c r="Y24" s="136">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>0.49314192466836859</v>
       </c>
       <c r="Z24" s="139">
@@ -30638,15 +30821,15 @@
         <v>15117.093000000001</v>
       </c>
       <c r="AB24" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.74025881093049706</v>
       </c>
       <c r="AC24" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>3657.1796873797316</v>
       </c>
       <c r="AD24" s="136">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.48818147338315832</v>
       </c>
       <c r="AE24" s="135">
@@ -30656,15 +30839,15 @@
         <v>15585.125</v>
       </c>
       <c r="AG24" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.74025881093049706</v>
       </c>
       <c r="AH24" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>3657.1796873797316</v>
       </c>
       <c r="AI24" s="136">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.50329579141708625</v>
       </c>
       <c r="AJ24" s="135">
@@ -30674,15 +30857,15 @@
         <v>15755.51</v>
       </c>
       <c r="AL24" s="38">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0.74025881093049706</v>
       </c>
       <c r="AM24" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>3657.1796873797316</v>
       </c>
       <c r="AN24" s="136">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.50879809270890142</v>
       </c>
       <c r="AO24" s="135">
@@ -30692,29 +30875,29 @@
         <v>15531.147000000001</v>
       </c>
       <c r="AQ24" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.74025881093049706</v>
       </c>
       <c r="AR24" s="38">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>3657.1796873797316</v>
       </c>
       <c r="AS24" s="136">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.5015526613344522</v>
       </c>
       <c r="AT24" s="6"/>
       <c r="AU24" s="18"/>
       <c r="AV24" s="39">
-        <f t="shared" ref="AV24:AV33" si="87">(AT24)/($CM$11*$CN$5)</f>
+        <f t="shared" ref="AV24:AV33" si="93">(AT24)/($CM$11*$CN$5)</f>
         <v>0</v>
       </c>
       <c r="AW24" s="53">
-        <f t="shared" ref="AW24:AW33" si="88">(AT24*$CN$6)/($CJ$11*$CN$5)</f>
+        <f t="shared" ref="AW24:AW33" si="94">(AT24*$CN$6)/($CJ$11*$CN$5)</f>
         <v>0</v>
       </c>
       <c r="AX24" s="47" t="e">
-        <f t="shared" ref="AX24:AX33" si="89">(AU24*$CN$6)/(2*$CN$7*$CM$11*(AV24^2))</f>
+        <f t="shared" ref="AX24:AX33" si="95">(AU24*$CN$6)/(2*$CN$7*$CM$11*(AV24^2))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AY24" s="114">
@@ -30724,15 +30907,15 @@
         <v>14978.583000000001</v>
       </c>
       <c r="BA24" s="114">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.71743468493934281</v>
       </c>
       <c r="BB24" s="114">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>4137.8504061810045</v>
       </c>
       <c r="BC24" s="114">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.60119571213627399</v>
       </c>
       <c r="BD24" s="114"/>
@@ -30743,15 +30926,15 @@
       <c r="BI24" s="7"/>
       <c r="BJ24" s="20"/>
       <c r="BK24" s="40">
-        <f t="shared" ref="BK24:BK33" si="90">(BI24)/($CM$11*$CO$5)</f>
+        <f t="shared" ref="BK24:BK33" si="96">(BI24)/($CM$11*$CO$5)</f>
         <v>0</v>
       </c>
       <c r="BL24" s="58">
-        <f t="shared" ref="BL24:BL33" si="91">(BI24*$CO$6)/($CJ$11*$CO$5)</f>
+        <f t="shared" ref="BL24:BL33" si="97">(BI24*$CO$6)/($CJ$11*$CO$5)</f>
         <v>0</v>
       </c>
       <c r="BM24" s="49" t="e">
-        <f t="shared" ref="BM24:BM33" si="92">(BJ24*$CO$6)/(2*$CO$7*$CM$11*(BK24^2))</f>
+        <f t="shared" ref="BM24:BM33" si="98">(BJ24*$CO$6)/(2*$CO$7*$CM$11*(BK24^2))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BN24" s="99">
@@ -30760,9 +30943,18 @@
       <c r="BO24" s="99">
         <v>11640.69</v>
       </c>
-      <c r="BP24" s="99"/>
-      <c r="BQ24" s="99"/>
-      <c r="BR24" s="99"/>
+      <c r="BP24" s="99">
+        <f t="shared" si="54"/>
+        <v>0.67516362907033478</v>
+      </c>
+      <c r="BQ24" s="99">
+        <f t="shared" si="55"/>
+        <v>4621.3885110474193</v>
+      </c>
+      <c r="BR24" s="99">
+        <f t="shared" si="56"/>
+        <v>0.62609689978898464</v>
+      </c>
       <c r="BS24" s="99"/>
       <c r="BT24" s="99"/>
       <c r="BU24" s="99"/>
@@ -30771,42 +30963,42 @@
       <c r="BX24" s="8"/>
       <c r="BY24" s="22"/>
       <c r="BZ24" s="41">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="CA24" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="CB24" s="51" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CC24" s="8"/>
       <c r="CD24" s="22"/>
       <c r="CE24" s="41">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="CF24" s="56">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="CG24" s="51" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CH24" s="119"/>
-      <c r="CJ24" s="188" t="s">
+      <c r="CJ24" s="168" t="s">
         <v>23</v>
       </c>
-      <c r="CK24" s="189"/>
-      <c r="CL24" s="189"/>
-      <c r="CM24" s="190" t="s">
+      <c r="CK24" s="169"/>
+      <c r="CL24" s="169"/>
+      <c r="CM24" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="CN24" s="190"/>
-      <c r="CO24" s="191"/>
+      <c r="CN24" s="170"/>
+      <c r="CO24" s="171"/>
       <c r="CS24" s="79" t="s">
         <v>30</v>
       </c>
@@ -30822,21 +31014,21 @@
       <c r="CW24" s="74">
         <v>5.9732718268774168E-3</v>
       </c>
-      <c r="CX24" s="201"/>
+      <c r="CX24" s="198"/>
     </row>
     <row r="25" spans="1:102" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="105"/>
       <c r="B25" s="106"/>
       <c r="C25" s="107">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="D25" s="108">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="E25" s="109" t="e">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="112">
@@ -30846,15 +31038,15 @@
         <v>36292.474000000002</v>
       </c>
       <c r="H25" s="112">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.86352638580153618</v>
       </c>
       <c r="I25" s="108">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>3263.672923071209</v>
       </c>
       <c r="J25" s="112">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.65889138856621998</v>
       </c>
       <c r="K25" s="128"/>
@@ -30865,15 +31057,15 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="16"/>
       <c r="R25" s="38">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="S25" s="60">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="T25" s="45" t="e">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U25" s="135">
@@ -30883,15 +31075,15 @@
         <v>17499.405999999999</v>
       </c>
       <c r="W25" s="38">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>0.80194704517470516</v>
       </c>
       <c r="X25" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>3961.9446613280425</v>
       </c>
       <c r="Y25" s="136">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>0.48151753123428698</v>
       </c>
       <c r="Z25" s="139">
@@ -30901,15 +31093,15 @@
         <v>17181.87</v>
       </c>
       <c r="AB25" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.80194704517470516</v>
       </c>
       <c r="AC25" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>3961.9446613280425</v>
       </c>
       <c r="AD25" s="136">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.47278014033096083</v>
       </c>
       <c r="AE25" s="135">
@@ -30919,15 +31111,15 @@
         <v>17760.776000000002</v>
       </c>
       <c r="AG25" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.80194704517470516</v>
       </c>
       <c r="AH25" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>3961.9446613280425</v>
       </c>
       <c r="AI25" s="136">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.48870944604206423</v>
       </c>
       <c r="AJ25" s="135">
@@ -30937,15 +31129,15 @@
         <v>17407.932000000001</v>
       </c>
       <c r="AL25" s="38">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0.80194704517470516</v>
       </c>
       <c r="AM25" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>3961.9446613280425</v>
       </c>
       <c r="AN25" s="136">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.47900051239078306</v>
       </c>
       <c r="AO25" s="135">
@@ -30955,29 +31147,29 @@
         <v>17730.317999999999</v>
       </c>
       <c r="AQ25" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.80194704517470516</v>
       </c>
       <c r="AR25" s="38">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>3961.9446613280425</v>
       </c>
       <c r="AS25" s="136">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.48787135696827882</v>
       </c>
       <c r="AT25" s="6"/>
       <c r="AU25" s="18"/>
       <c r="AV25" s="39">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AW25" s="53">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AX25" s="47" t="e">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY25" s="114">
@@ -30987,15 +31179,15 @@
         <v>18024.312000000002</v>
       </c>
       <c r="BA25" s="114">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.77722090868428806</v>
       </c>
       <c r="BB25" s="114">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>4482.6712733627555</v>
       </c>
       <c r="BC25" s="114">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.61642412593281348</v>
       </c>
       <c r="BD25" s="114"/>
@@ -31006,15 +31198,15 @@
       <c r="BI25" s="7"/>
       <c r="BJ25" s="20"/>
       <c r="BK25" s="40">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="BL25" s="58">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="BM25" s="49" t="e">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BN25" s="99">
@@ -31023,9 +31215,18 @@
       <c r="BO25" s="99">
         <v>12674.014999999999</v>
       </c>
-      <c r="BP25" s="99"/>
-      <c r="BQ25" s="99"/>
-      <c r="BR25" s="99"/>
+      <c r="BP25" s="99">
+        <f t="shared" si="54"/>
+        <v>0.73142726482619602</v>
+      </c>
+      <c r="BQ25" s="99">
+        <f t="shared" si="55"/>
+        <v>5006.5042203013718</v>
+      </c>
+      <c r="BR25" s="99">
+        <f t="shared" si="56"/>
+        <v>0.58083507428606507</v>
+      </c>
       <c r="BS25" s="99"/>
       <c r="BT25" s="99"/>
       <c r="BU25" s="99"/>
@@ -31034,38 +31235,38 @@
       <c r="BX25" s="8"/>
       <c r="BY25" s="22"/>
       <c r="BZ25" s="41">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="CA25" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="CB25" s="51" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CC25" s="8"/>
       <c r="CD25" s="22"/>
       <c r="CE25" s="41">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="CF25" s="56">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="CG25" s="51" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CH25" s="119"/>
-      <c r="CJ25" s="192"/>
-      <c r="CK25" s="193"/>
-      <c r="CL25" s="193"/>
-      <c r="CM25" s="193"/>
-      <c r="CN25" s="193"/>
-      <c r="CO25" s="194"/>
+      <c r="CJ25" s="172"/>
+      <c r="CK25" s="173"/>
+      <c r="CL25" s="173"/>
+      <c r="CM25" s="173"/>
+      <c r="CN25" s="173"/>
+      <c r="CO25" s="174"/>
       <c r="CS25" s="79" t="s">
         <v>37</v>
       </c>
@@ -31081,21 +31282,21 @@
       <c r="CW25" s="74">
         <v>5.8639632851565171E-3</v>
       </c>
-      <c r="CX25" s="201"/>
+      <c r="CX25" s="198"/>
     </row>
     <row r="26" spans="1:102" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="105"/>
       <c r="B26" s="106"/>
       <c r="C26" s="107">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="D26" s="108">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="E26" s="109" t="e">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F26" s="112">
@@ -31105,15 +31306,15 @@
         <v>42015.957000000002</v>
       </c>
       <c r="H26" s="112">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.92995149240165442</v>
       </c>
       <c r="I26" s="108">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>3514.7246863843789</v>
       </c>
       <c r="J26" s="112">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.65772166930869458</v>
       </c>
       <c r="K26" s="128"/>
@@ -31124,15 +31325,15 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="16"/>
       <c r="R26" s="38">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="S26" s="60">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="T26" s="45" t="e">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U26" s="135">
@@ -31142,15 +31343,15 @@
         <v>19179.375</v>
       </c>
       <c r="W26" s="38">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>0.86363527941891338</v>
       </c>
       <c r="X26" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>4266.7096352763538</v>
       </c>
       <c r="Y26" s="136">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>0.45504451134297202</v>
       </c>
       <c r="Z26" s="139">
@@ -31160,15 +31361,15 @@
         <v>19441.731</v>
       </c>
       <c r="AB26" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.86363527941891338</v>
       </c>
       <c r="AC26" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>4266.7096352763538</v>
       </c>
       <c r="AD26" s="136">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.46126909675401362</v>
       </c>
       <c r="AE26" s="135">
@@ -31178,15 +31379,15 @@
         <v>20365.036</v>
       </c>
       <c r="AG26" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.86363527941891338</v>
       </c>
       <c r="AH26" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>4266.7096352763538</v>
       </c>
       <c r="AI26" s="136">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.48317517411813643</v>
       </c>
       <c r="AJ26" s="135">
@@ -31196,15 +31397,15 @@
         <v>20272.95</v>
       </c>
       <c r="AL26" s="38">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0.86363527941891338</v>
       </c>
       <c r="AM26" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>4266.7096352763538</v>
       </c>
       <c r="AN26" s="136">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.48099036732065065</v>
       </c>
       <c r="AO26" s="135">
@@ -31214,29 +31415,29 @@
         <v>19664.112000000001</v>
       </c>
       <c r="AQ26" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.86363527941891338</v>
       </c>
       <c r="AR26" s="38">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>4266.7096352763538</v>
       </c>
       <c r="AS26" s="136">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.46654524644486445</v>
       </c>
       <c r="AT26" s="6"/>
       <c r="AU26" s="18"/>
       <c r="AV26" s="39">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AW26" s="53">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AX26" s="47" t="e">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY26" s="114">
@@ -31246,15 +31447,15 @@
         <v>20326.076000000001</v>
       </c>
       <c r="BA26" s="114">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.83700713242923341</v>
       </c>
       <c r="BB26" s="114">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>4827.4921405445057</v>
       </c>
       <c r="BC26" s="114">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.59938395072759276</v>
       </c>
       <c r="BD26" s="114"/>
@@ -31265,15 +31466,15 @@
       <c r="BI26" s="7"/>
       <c r="BJ26" s="20"/>
       <c r="BK26" s="40">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="BL26" s="58">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="BM26" s="49" t="e">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BN26" s="99">
@@ -31282,9 +31483,18 @@
       <c r="BO26" s="99">
         <v>14458.56</v>
       </c>
-      <c r="BP26" s="99"/>
-      <c r="BQ26" s="99"/>
-      <c r="BR26" s="99"/>
+      <c r="BP26" s="99">
+        <f t="shared" si="54"/>
+        <v>0.78769090058205726</v>
+      </c>
+      <c r="BQ26" s="99">
+        <f t="shared" si="55"/>
+        <v>5391.6199295553233</v>
+      </c>
+      <c r="BR26" s="99">
+        <f t="shared" si="56"/>
+        <v>0.57133955449283136</v>
+      </c>
       <c r="BS26" s="99"/>
       <c r="BT26" s="99"/>
       <c r="BU26" s="99"/>
@@ -31293,29 +31503,29 @@
       <c r="BX26" s="8"/>
       <c r="BY26" s="22"/>
       <c r="BZ26" s="41">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="CA26" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="CB26" s="51" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CC26" s="8"/>
       <c r="CD26" s="22"/>
       <c r="CE26" s="41">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="CF26" s="56">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="CG26" s="51" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CH26" s="119"/>
@@ -31334,21 +31544,21 @@
       <c r="CW26" s="75">
         <v>5.7568540570479094E-3</v>
       </c>
-      <c r="CX26" s="202"/>
+      <c r="CX26" s="199"/>
     </row>
     <row r="27" spans="1:102" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="105"/>
       <c r="B27" s="106"/>
       <c r="C27" s="107">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="D27" s="108">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="E27" s="109" t="e">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="112">
@@ -31358,15 +31568,15 @@
         <v>47621.228000000003</v>
       </c>
       <c r="H27" s="112">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>0.99637659900177244</v>
       </c>
       <c r="I27" s="108">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>3765.7764496975483</v>
       </c>
       <c r="J27" s="112">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.64938467286916546</v>
       </c>
       <c r="K27" s="128"/>
@@ -31377,15 +31587,15 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="16"/>
       <c r="R27" s="38">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="S27" s="60">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="T27" s="45" t="e">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U27" s="135">
@@ -31395,15 +31605,15 @@
         <v>22140.58</v>
       </c>
       <c r="W27" s="38">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>0.92532351366312138</v>
       </c>
       <c r="X27" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>4571.4746092246642</v>
       </c>
       <c r="Y27" s="136">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>0.45759574398417202</v>
       </c>
       <c r="Z27" s="139">
@@ -31413,15 +31623,15 @@
         <v>21888.292000000001</v>
       </c>
       <c r="AB27" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.92532351366312138</v>
       </c>
       <c r="AC27" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>4571.4746092246642</v>
       </c>
       <c r="AD27" s="136">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.45238152127373354</v>
       </c>
       <c r="AE27" s="135">
@@ -31431,15 +31641,15 @@
         <v>23501.562999999998</v>
       </c>
       <c r="AG27" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.92532351366312138</v>
       </c>
       <c r="AH27" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>4571.4746092246642</v>
       </c>
       <c r="AI27" s="136">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.48572418634813935</v>
       </c>
       <c r="AJ27" s="135">
@@ -31449,15 +31659,15 @@
         <v>22694.477999999999</v>
       </c>
       <c r="AL27" s="38">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0.92532351366312138</v>
       </c>
       <c r="AM27" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>4571.4746092246642</v>
       </c>
       <c r="AN27" s="136">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.46904356366194661</v>
       </c>
       <c r="AO27" s="135">
@@ -31467,29 +31677,29 @@
         <v>22361.753000000001</v>
       </c>
       <c r="AQ27" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.92532351366312138</v>
       </c>
       <c r="AR27" s="38">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>4571.4746092246642</v>
       </c>
       <c r="AS27" s="136">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.46216688997421429</v>
       </c>
       <c r="AT27" s="6"/>
       <c r="AU27" s="18"/>
       <c r="AV27" s="39">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AW27" s="53">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AX27" s="47" t="e">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY27" s="114">
@@ -31499,15 +31709,15 @@
         <v>22542.615000000002</v>
       </c>
       <c r="BA27" s="114">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.89679335617417844</v>
       </c>
       <c r="BB27" s="114">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>5172.3130077262558</v>
       </c>
       <c r="BC27" s="114">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.57906779473978731</v>
       </c>
       <c r="BD27" s="114"/>
@@ -31518,15 +31728,15 @@
       <c r="BI27" s="7"/>
       <c r="BJ27" s="20"/>
       <c r="BK27" s="40">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="BL27" s="58">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="BM27" s="49" t="e">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BN27" s="99">
@@ -31535,9 +31745,18 @@
       <c r="BO27" s="99">
         <v>16842.833999999999</v>
       </c>
-      <c r="BP27" s="99"/>
-      <c r="BQ27" s="99"/>
-      <c r="BR27" s="99"/>
+      <c r="BP27" s="99">
+        <f t="shared" si="54"/>
+        <v>0.84395453633791839</v>
+      </c>
+      <c r="BQ27" s="99">
+        <f t="shared" si="55"/>
+        <v>5776.7356388092749</v>
+      </c>
+      <c r="BR27" s="99">
+        <f t="shared" si="56"/>
+        <v>0.5797729805259586</v>
+      </c>
       <c r="BS27" s="99"/>
       <c r="BT27" s="99"/>
       <c r="BU27" s="99"/>
@@ -31546,29 +31765,29 @@
       <c r="BX27" s="8"/>
       <c r="BY27" s="22"/>
       <c r="BZ27" s="41">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="CA27" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="CB27" s="51" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CC27" s="8"/>
       <c r="CD27" s="22"/>
       <c r="CE27" s="41">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="CF27" s="56">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="CG27" s="51" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CH27" s="119"/>
@@ -31577,15 +31796,15 @@
       <c r="A28" s="105"/>
       <c r="B28" s="106"/>
       <c r="C28" s="107">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="D28" s="108">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="E28" s="109" t="e">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="112">
@@ -31595,15 +31814,15 @@
         <v>53359.17</v>
       </c>
       <c r="H28" s="112">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1.0628017056018906</v>
       </c>
       <c r="I28" s="108">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>4016.8282130107182</v>
       </c>
       <c r="J28" s="112">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.63951842596261832</v>
       </c>
       <c r="K28" s="128"/>
@@ -31614,15 +31833,15 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="16"/>
       <c r="R28" s="38">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="S28" s="60">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="T28" s="45" t="e">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U28" s="135">
@@ -31632,15 +31851,15 @@
         <v>24402.488000000001</v>
       </c>
       <c r="W28" s="38">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>0.98701174790732948</v>
       </c>
       <c r="X28" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>4876.2395831729755</v>
       </c>
       <c r="Y28" s="136">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>0.44327133081445264</v>
       </c>
       <c r="Z28" s="139">
@@ -31650,15 +31869,15 @@
         <v>24662.831999999999</v>
       </c>
       <c r="AB28" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>0.98701174790732948</v>
       </c>
       <c r="AC28" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>4876.2395831729755</v>
       </c>
       <c r="AD28" s="136">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.44800048102854378</v>
       </c>
       <c r="AE28" s="135">
@@ -31668,15 +31887,15 @@
         <v>25623.495999999999</v>
       </c>
       <c r="AG28" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0.98701174790732948</v>
       </c>
       <c r="AH28" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>4876.2395831729755</v>
       </c>
       <c r="AI28" s="136">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.46545094795411035</v>
       </c>
       <c r="AJ28" s="135">
@@ -31686,15 +31905,15 @@
         <v>25209.062999999998</v>
       </c>
       <c r="AL28" s="38">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0.98701174790732948</v>
       </c>
       <c r="AM28" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>4876.2395831729755</v>
       </c>
       <c r="AN28" s="136">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.45792277019439065</v>
       </c>
       <c r="AO28" s="135">
@@ -31704,29 +31923,29 @@
         <v>25004.166000000001</v>
       </c>
       <c r="AQ28" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.98701174790732948</v>
       </c>
       <c r="AR28" s="38">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>4876.2395831729755</v>
       </c>
       <c r="AS28" s="136">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.45420081504498594</v>
       </c>
       <c r="AT28" s="6"/>
       <c r="AU28" s="18"/>
       <c r="AV28" s="39">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AW28" s="53">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AX28" s="47" t="e">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY28" s="114">
@@ -31736,15 +31955,15 @@
         <v>26750.562999999998</v>
       </c>
       <c r="BA28" s="114">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.95657957991912379</v>
       </c>
       <c r="BB28" s="114">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>5517.133874908006</v>
       </c>
       <c r="BC28" s="114">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.60394946052090404</v>
       </c>
       <c r="BD28" s="114"/>
@@ -31755,15 +31974,15 @@
       <c r="BI28" s="7"/>
       <c r="BJ28" s="20"/>
       <c r="BK28" s="40">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="BL28" s="58">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="BM28" s="49" t="e">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BN28" s="99">
@@ -31772,9 +31991,18 @@
       <c r="BO28" s="99">
         <v>19879.753000000001</v>
       </c>
-      <c r="BP28" s="99"/>
-      <c r="BQ28" s="99"/>
-      <c r="BR28" s="99"/>
+      <c r="BP28" s="99">
+        <f t="shared" si="54"/>
+        <v>0.90021817209377974</v>
+      </c>
+      <c r="BQ28" s="99">
+        <f t="shared" si="55"/>
+        <v>6161.8513480632264</v>
+      </c>
+      <c r="BR28" s="99">
+        <f t="shared" si="56"/>
+        <v>0.60144558385734037</v>
+      </c>
       <c r="BS28" s="99"/>
       <c r="BT28" s="99"/>
       <c r="BU28" s="99"/>
@@ -31783,29 +32011,29 @@
       <c r="BX28" s="8"/>
       <c r="BY28" s="22"/>
       <c r="BZ28" s="41">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="CA28" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="CB28" s="51" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CC28" s="8"/>
       <c r="CD28" s="22"/>
       <c r="CE28" s="41">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="CF28" s="56">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="CG28" s="51" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CH28" s="119"/>
@@ -31814,15 +32042,15 @@
       <c r="A29" s="105"/>
       <c r="B29" s="106"/>
       <c r="C29" s="107">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="D29" s="108">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="E29" s="109" t="e">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="112">
@@ -31832,15 +32060,15 @@
         <v>60586.277000000002</v>
       </c>
       <c r="H29" s="112">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1.1292268122020088</v>
       </c>
       <c r="I29" s="108">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>4267.8799763238885</v>
       </c>
       <c r="J29" s="112">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.64322125213263137</v>
       </c>
       <c r="K29" s="128"/>
@@ -31851,15 +32079,15 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="16"/>
       <c r="R29" s="38">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="S29" s="60">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="T29" s="45" t="e">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U29" s="135">
@@ -31869,15 +32097,15 @@
         <v>27224.752</v>
       </c>
       <c r="W29" s="38">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>1.0486999821515377</v>
       </c>
       <c r="X29" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>5181.0045571212868</v>
       </c>
       <c r="Y29" s="136">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>0.43806806113222896</v>
       </c>
       <c r="Z29" s="139">
@@ -31887,15 +32115,15 @@
         <v>26761.819</v>
       </c>
       <c r="AB29" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>1.0486999821515377</v>
       </c>
       <c r="AC29" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>5181.0045571212868</v>
       </c>
       <c r="AD29" s="136">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.43061909844767898</v>
       </c>
       <c r="AE29" s="135">
@@ -31905,15 +32133,15 @@
         <v>28851.357</v>
       </c>
       <c r="AG29" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1.0486999821515377</v>
       </c>
       <c r="AH29" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>5181.0045571212868</v>
       </c>
       <c r="AI29" s="136">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.46424143815979518</v>
       </c>
       <c r="AJ29" s="135">
@@ -31923,15 +32151,15 @@
         <v>28639.261999999999</v>
       </c>
       <c r="AL29" s="38">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>1.0486999821515377</v>
       </c>
       <c r="AM29" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>5181.0045571212868</v>
       </c>
       <c r="AN29" s="136">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.46082865976512549</v>
       </c>
       <c r="AO29" s="135">
@@ -31941,29 +32169,29 @@
         <v>27874.524000000001</v>
       </c>
       <c r="AQ29" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>1.0486999821515377</v>
       </c>
       <c r="AR29" s="38">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>5181.0045571212868</v>
       </c>
       <c r="AS29" s="136">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.44852341294656356</v>
       </c>
       <c r="AT29" s="6"/>
       <c r="AU29" s="18"/>
       <c r="AV29" s="39">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AW29" s="53">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AX29" s="47" t="e">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY29" s="114">
@@ -31973,15 +32201,15 @@
         <v>29797.725999999999</v>
       </c>
       <c r="BA29" s="114">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>1.016365803664069</v>
       </c>
       <c r="BB29" s="114">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>5861.954742089757</v>
       </c>
       <c r="BC29" s="114">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.59592679848727814</v>
       </c>
       <c r="BD29" s="114"/>
@@ -31992,15 +32220,15 @@
       <c r="BI29" s="7"/>
       <c r="BJ29" s="20"/>
       <c r="BK29" s="40">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="BL29" s="58">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="BM29" s="49" t="e">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BN29" s="99">
@@ -32009,9 +32237,18 @@
       <c r="BO29" s="99">
         <v>21359.571</v>
       </c>
-      <c r="BP29" s="99"/>
-      <c r="BQ29" s="99"/>
-      <c r="BR29" s="99"/>
+      <c r="BP29" s="99">
+        <f t="shared" si="54"/>
+        <v>0.95648180784964099</v>
+      </c>
+      <c r="BQ29" s="99">
+        <f t="shared" si="55"/>
+        <v>6546.9670573171788</v>
+      </c>
+      <c r="BR29" s="99">
+        <f t="shared" si="56"/>
+        <v>0.57242686085582029</v>
+      </c>
       <c r="BS29" s="99"/>
       <c r="BT29" s="99"/>
       <c r="BU29" s="99"/>
@@ -32020,29 +32257,29 @@
       <c r="BX29" s="8"/>
       <c r="BY29" s="22"/>
       <c r="BZ29" s="41">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="CA29" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="CB29" s="51" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CC29" s="8"/>
       <c r="CD29" s="22"/>
       <c r="CE29" s="41">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="CF29" s="56">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="CG29" s="51" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CH29" s="119"/>
@@ -32051,15 +32288,15 @@
       <c r="A30" s="105"/>
       <c r="B30" s="106"/>
       <c r="C30" s="107">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="D30" s="108">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="E30" s="109" t="e">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="112">
@@ -32069,15 +32306,15 @@
         <v>67333.955000000002</v>
       </c>
       <c r="H30" s="112">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1.1956519188021268</v>
       </c>
       <c r="I30" s="108">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>4518.9317396370579</v>
       </c>
       <c r="J30" s="112">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.63763636304086502</v>
       </c>
       <c r="K30" s="128"/>
@@ -32088,15 +32325,15 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="16"/>
       <c r="R30" s="38">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="S30" s="60">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="T30" s="45" t="e">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U30" s="135">
@@ -32106,15 +32343,15 @@
         <v>30561.396000000001</v>
       </c>
       <c r="W30" s="38">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>1.1103882163957457</v>
       </c>
       <c r="X30" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>5485.7695310695972</v>
       </c>
       <c r="Y30" s="136">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>0.43863540071791307</v>
       </c>
       <c r="Z30" s="139">
@@ -32124,15 +32361,15 @@
         <v>28865</v>
       </c>
       <c r="AB30" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>1.1103882163957457</v>
       </c>
       <c r="AC30" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>5485.7695310695972</v>
       </c>
       <c r="AD30" s="136">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.4142877125679259</v>
       </c>
       <c r="AE30" s="135">
@@ -32142,15 +32379,15 @@
         <v>31268.612000000001</v>
       </c>
       <c r="AG30" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1.1103882163957457</v>
       </c>
       <c r="AH30" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>5485.7695310695972</v>
       </c>
       <c r="AI30" s="136">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.44878578696185695</v>
       </c>
       <c r="AJ30" s="135">
@@ -32160,15 +32397,15 @@
         <v>31325.282999999999</v>
       </c>
       <c r="AL30" s="38">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>1.1103882163957457</v>
       </c>
       <c r="AM30" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>5485.7695310695972</v>
       </c>
       <c r="AN30" s="136">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.44959916298676378</v>
       </c>
       <c r="AO30" s="135">
@@ -32178,29 +32415,29 @@
         <v>30829.63</v>
       </c>
       <c r="AQ30" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>1.1103882163957457</v>
       </c>
       <c r="AR30" s="38">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>5485.7695310695972</v>
       </c>
       <c r="AS30" s="136">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.4424852552231251</v>
       </c>
       <c r="AT30" s="6"/>
       <c r="AU30" s="18"/>
       <c r="AV30" s="39">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AW30" s="53">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AX30" s="47" t="e">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY30" s="114">
@@ -32210,15 +32447,15 @@
         <v>32377.822</v>
       </c>
       <c r="BA30" s="114">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>1.0761520274090142</v>
       </c>
       <c r="BB30" s="114">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>6206.7756092715063</v>
       </c>
       <c r="BC30" s="114">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.57757748749847315</v>
       </c>
       <c r="BD30" s="114"/>
@@ -32229,15 +32466,15 @@
       <c r="BI30" s="7"/>
       <c r="BJ30" s="20"/>
       <c r="BK30" s="40">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="BL30" s="58">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="BM30" s="49" t="e">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BN30" s="99">
@@ -32246,9 +32483,18 @@
       <c r="BO30" s="99">
         <v>22778.692999999999</v>
       </c>
-      <c r="BP30" s="99"/>
-      <c r="BQ30" s="99"/>
-      <c r="BR30" s="99"/>
+      <c r="BP30" s="99">
+        <f t="shared" si="54"/>
+        <v>1.0127454436055021</v>
+      </c>
+      <c r="BQ30" s="99">
+        <f t="shared" si="55"/>
+        <v>6932.0827665711295</v>
+      </c>
+      <c r="BR30" s="99">
+        <f t="shared" si="56"/>
+        <v>0.54451407829089338</v>
+      </c>
       <c r="BS30" s="99"/>
       <c r="BT30" s="99"/>
       <c r="BU30" s="99"/>
@@ -32257,29 +32503,29 @@
       <c r="BX30" s="8"/>
       <c r="BY30" s="22"/>
       <c r="BZ30" s="41">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="CA30" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="CB30" s="51" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CC30" s="8"/>
       <c r="CD30" s="22"/>
       <c r="CE30" s="41">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="CF30" s="56">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="CG30" s="51" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CH30" s="119"/>
@@ -32288,15 +32534,15 @@
       <c r="A31" s="105"/>
       <c r="B31" s="106"/>
       <c r="C31" s="107">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="D31" s="108">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="E31" s="109" t="e">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F31" s="112">
@@ -32306,15 +32552,15 @@
         <v>74235.073999999993</v>
       </c>
       <c r="H31" s="112">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1.2620770254022451</v>
       </c>
       <c r="I31" s="108">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>4769.9835029502283</v>
       </c>
       <c r="J31" s="112">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.63093686809257754</v>
       </c>
       <c r="K31" s="128"/>
@@ -32325,15 +32571,15 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="16"/>
       <c r="R31" s="38">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="S31" s="60">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="T31" s="45" t="e">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U31" s="135">
@@ -32343,15 +32589,15 @@
         <v>32291</v>
       </c>
       <c r="W31" s="38">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>1.1720764506399537</v>
       </c>
       <c r="X31" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>5790.5345050179085</v>
       </c>
       <c r="Y31" s="136">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>0.41595829919834193</v>
       </c>
       <c r="Z31" s="139">
@@ -32361,15 +32607,15 @@
         <v>32204.169000000002</v>
       </c>
       <c r="AB31" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>1.1720764506399537</v>
       </c>
       <c r="AC31" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>5790.5345050179085</v>
       </c>
       <c r="AD31" s="136">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.4148397808781385</v>
       </c>
       <c r="AE31" s="135">
@@ -32379,15 +32625,15 @@
         <v>34402.065000000002</v>
       </c>
       <c r="AG31" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1.1720764506399537</v>
       </c>
       <c r="AH31" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>5790.5345050179085</v>
       </c>
       <c r="AI31" s="136">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.44315209954200269</v>
       </c>
       <c r="AJ31" s="135">
@@ -32397,15 +32643,15 @@
         <v>33800.012999999999</v>
       </c>
       <c r="AL31" s="38">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>1.1720764506399537</v>
       </c>
       <c r="AM31" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>5790.5345050179085</v>
       </c>
       <c r="AN31" s="136">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.43539673346634816</v>
       </c>
       <c r="AO31" s="135">
@@ -32415,29 +32661,29 @@
         <v>34041.995000000003</v>
       </c>
       <c r="AQ31" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>1.1720764506399537</v>
       </c>
       <c r="AR31" s="38">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>5790.5345050179085</v>
       </c>
       <c r="AS31" s="136">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.43851383795851673</v>
       </c>
       <c r="AT31" s="6"/>
       <c r="AU31" s="18"/>
       <c r="AV31" s="39">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AW31" s="53">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AX31" s="47" t="e">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY31" s="114">
@@ -32447,15 +32693,15 @@
         <v>36170.892999999996</v>
       </c>
       <c r="BA31" s="114">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>1.1359382511539595</v>
       </c>
       <c r="BB31" s="114">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>6551.5964764532573</v>
       </c>
       <c r="BC31" s="114">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.57910813438126019</v>
       </c>
       <c r="BD31" s="114"/>
@@ -32466,15 +32712,15 @@
       <c r="BI31" s="7"/>
       <c r="BJ31" s="20"/>
       <c r="BK31" s="40">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="BL31" s="58">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="BM31" s="49" t="e">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BN31" s="99">
@@ -32483,9 +32729,18 @@
       <c r="BO31" s="99">
         <v>26174.791000000001</v>
       </c>
-      <c r="BP31" s="99"/>
-      <c r="BQ31" s="99"/>
-      <c r="BR31" s="99"/>
+      <c r="BP31" s="99">
+        <f t="shared" si="54"/>
+        <v>1.0690090793613634</v>
+      </c>
+      <c r="BQ31" s="99">
+        <f t="shared" si="55"/>
+        <v>7317.198475825081</v>
+      </c>
+      <c r="BR31" s="99">
+        <f t="shared" si="56"/>
+        <v>0.56156669404016291</v>
+      </c>
       <c r="BS31" s="99"/>
       <c r="BT31" s="99"/>
       <c r="BU31" s="99"/>
@@ -32494,29 +32749,29 @@
       <c r="BX31" s="8"/>
       <c r="BY31" s="22"/>
       <c r="BZ31" s="41">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="CA31" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="CB31" s="51" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CC31" s="8"/>
       <c r="CD31" s="22"/>
       <c r="CE31" s="41">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="CF31" s="56">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="CG31" s="51" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CH31" s="119"/>
@@ -32525,15 +32780,15 @@
       <c r="A32" s="105"/>
       <c r="B32" s="106"/>
       <c r="C32" s="107">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="D32" s="108">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="E32" s="109" t="e">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F32" s="112">
@@ -32543,15 +32798,15 @@
         <v>81715.963000000003</v>
       </c>
       <c r="H32" s="112">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1.3285021320023633</v>
       </c>
       <c r="I32" s="108">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>5021.0352662633986</v>
       </c>
       <c r="J32" s="112">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>0.62680272166187934</v>
       </c>
       <c r="K32" s="128"/>
@@ -32562,15 +32817,15 @@
       <c r="P32" s="5"/>
       <c r="Q32" s="16"/>
       <c r="R32" s="38">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="S32" s="60">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="T32" s="45" t="e">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U32" s="135">
@@ -32580,15 +32835,15 @@
         <v>35013.264000000003</v>
       </c>
       <c r="W32" s="38">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>1.2337646848841619</v>
       </c>
       <c r="X32" s="38">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>6095.2994789662198</v>
       </c>
       <c r="Y32" s="136">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>0.40705032711583217</v>
       </c>
       <c r="Z32" s="139">
@@ -32598,15 +32853,15 @@
         <v>35428.088000000003</v>
       </c>
       <c r="AB32" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>1.2337646848841619</v>
       </c>
       <c r="AC32" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>6095.2994789662198</v>
       </c>
       <c r="AD32" s="136">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.41187290649305042</v>
       </c>
       <c r="AE32" s="135">
@@ -32616,15 +32871,15 @@
         <v>37264.762000000002</v>
       </c>
       <c r="AG32" s="38">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1.2337646848841619</v>
       </c>
       <c r="AH32" s="38">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>6095.2994789662198</v>
       </c>
       <c r="AI32" s="136">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.43322535031277382</v>
       </c>
       <c r="AJ32" s="135">
@@ -32634,15 +32889,15 @@
         <v>36874.521000000001</v>
       </c>
       <c r="AL32" s="38">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>1.2337646848841619</v>
       </c>
       <c r="AM32" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>6095.2994789662198</v>
       </c>
       <c r="AN32" s="136">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.42868856314822923</v>
       </c>
       <c r="AO32" s="135">
@@ -32652,29 +32907,29 @@
         <v>36943.148999999998</v>
       </c>
       <c r="AQ32" s="38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>1.2337646848841619</v>
       </c>
       <c r="AR32" s="38">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>6095.2994789662198</v>
       </c>
       <c r="AS32" s="136">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.42948640507034491</v>
       </c>
       <c r="AT32" s="6"/>
       <c r="AU32" s="18"/>
       <c r="AV32" s="39">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AW32" s="53">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AX32" s="47" t="e">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY32" s="114">
@@ -32684,15 +32939,15 @@
         <v>39270.877999999997</v>
       </c>
       <c r="BA32" s="114">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>1.1957244748989047</v>
       </c>
       <c r="BB32" s="114">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>6896.4173436350075</v>
       </c>
       <c r="BC32" s="114">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>0.56743779084801438</v>
       </c>
       <c r="BD32" s="114"/>
@@ -32703,15 +32958,15 @@
       <c r="BI32" s="7"/>
       <c r="BJ32" s="20"/>
       <c r="BK32" s="40">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="BL32" s="58">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="BM32" s="49" t="e">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BN32" s="99">
@@ -32720,9 +32975,18 @@
       <c r="BO32" s="99">
         <v>26927.935000000001</v>
       </c>
-      <c r="BP32" s="99"/>
-      <c r="BQ32" s="99"/>
-      <c r="BR32" s="99"/>
+      <c r="BP32" s="99">
+        <f t="shared" si="54"/>
+        <v>1.1252727151172246</v>
+      </c>
+      <c r="BQ32" s="99">
+        <f t="shared" si="55"/>
+        <v>7702.3141850790335</v>
+      </c>
+      <c r="BR32" s="99">
+        <f t="shared" si="56"/>
+        <v>0.52139682300954182</v>
+      </c>
       <c r="BS32" s="99"/>
       <c r="BT32" s="99"/>
       <c r="BU32" s="99"/>
@@ -32731,29 +32995,29 @@
       <c r="BX32" s="8"/>
       <c r="BY32" s="22"/>
       <c r="BZ32" s="41">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="CA32" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="CB32" s="51" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CC32" s="8"/>
       <c r="CD32" s="22"/>
       <c r="CE32" s="41">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="CF32" s="56">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="CG32" s="51" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CH32" s="119"/>
@@ -32762,15 +33026,15 @@
       <c r="A33" s="110"/>
       <c r="B33" s="111"/>
       <c r="C33" s="107">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="D33" s="108">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="E33" s="109" t="e">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F33" s="113"/>
@@ -32786,15 +33050,15 @@
       <c r="P33" s="23"/>
       <c r="Q33" s="24"/>
       <c r="R33" s="132">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="S33" s="133">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="T33" s="134" t="e">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U33" s="137"/>
@@ -32825,29 +33089,29 @@
       <c r="AT33" s="25"/>
       <c r="AU33" s="26"/>
       <c r="AV33" s="39">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="AW33" s="53">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>0</v>
       </c>
       <c r="AX33" s="47" t="e">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AY33" s="115"/>
       <c r="AZ33" s="115"/>
       <c r="BA33" s="114">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="BB33" s="114">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="BC33" s="114" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD33" s="115"/>
@@ -32858,15 +33122,15 @@
       <c r="BI33" s="27"/>
       <c r="BJ33" s="28"/>
       <c r="BK33" s="40">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="BL33" s="58">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>0</v>
       </c>
       <c r="BM33" s="49" t="e">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BN33" s="100"/>
@@ -32882,29 +33146,29 @@
       <c r="BX33" s="29"/>
       <c r="BY33" s="30"/>
       <c r="BZ33" s="41">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="CA33" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="CB33" s="51" t="e">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CC33" s="29"/>
       <c r="CD33" s="30"/>
       <c r="CE33" s="41">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="CF33" s="56">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="CG33" s="51" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CH33" s="119"/>
@@ -33029,6 +33293,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="Z2:AD2"/>
+    <mergeCell ref="AY2:BC2"/>
+    <mergeCell ref="BD2:BH2"/>
+    <mergeCell ref="CJ25:CL25"/>
+    <mergeCell ref="CM25:CO25"/>
+    <mergeCell ref="BN2:BR2"/>
+    <mergeCell ref="BS2:BW2"/>
+    <mergeCell ref="CC2:CG2"/>
+    <mergeCell ref="CJ13:CO13"/>
+    <mergeCell ref="CJ24:CL24"/>
+    <mergeCell ref="CM24:CO24"/>
+    <mergeCell ref="AE2:AI2"/>
+    <mergeCell ref="AJ2:AN2"/>
+    <mergeCell ref="AO2:AS2"/>
     <mergeCell ref="CX5:CX26"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A1:CB1"/>
@@ -33045,20 +33323,6 @@
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="Z2:AD2"/>
-    <mergeCell ref="AY2:BC2"/>
-    <mergeCell ref="BD2:BH2"/>
-    <mergeCell ref="CJ25:CL25"/>
-    <mergeCell ref="CM25:CO25"/>
-    <mergeCell ref="BN2:BR2"/>
-    <mergeCell ref="BS2:BW2"/>
-    <mergeCell ref="CC2:CG2"/>
-    <mergeCell ref="CJ13:CO13"/>
-    <mergeCell ref="CJ24:CL24"/>
-    <mergeCell ref="CM24:CO24"/>
-    <mergeCell ref="AE2:AI2"/>
-    <mergeCell ref="AJ2:AN2"/>
-    <mergeCell ref="AO2:AS2"/>
   </mergeCells>
   <conditionalFormatting sqref="CP26">
     <cfRule type="colorScale" priority="1">
@@ -33081,67 +33345,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B0393B-82C6-4D69-988A-485F4ACA0E75}">
   <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="213" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="H1" s="212" t="s">
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="H1" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="212"/>
-      <c r="N1" s="212" t="s">
+      <c r="I1" s="208"/>
+      <c r="N1" s="208" t="s">
         <v>126</v>
       </c>
-      <c r="O1" s="212"/>
-      <c r="P1" s="212"/>
-      <c r="Q1" s="212"/>
-      <c r="R1" s="212"/>
-      <c r="S1" s="212"/>
+      <c r="O1" s="208"/>
+      <c r="P1" s="208"/>
+      <c r="Q1" s="208"/>
+      <c r="R1" s="208"/>
+      <c r="S1" s="208"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="212" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="209" t="s">
+      <c r="B2" s="212"/>
+      <c r="C2" s="211" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="209"/>
-      <c r="E2" s="208" t="s">
+      <c r="D2" s="211"/>
+      <c r="E2" s="210" t="s">
         <v>119</v>
       </c>
-      <c r="F2" s="208"/>
-      <c r="H2" s="212" t="s">
+      <c r="F2" s="210"/>
+      <c r="H2" s="208" t="s">
         <v>120</v>
       </c>
-      <c r="I2" s="212"/>
-      <c r="J2" s="213" t="s">
+      <c r="I2" s="208"/>
+      <c r="J2" s="209" t="s">
         <v>122</v>
       </c>
-      <c r="K2" s="213"/>
-      <c r="N2" s="212" t="s">
+      <c r="K2" s="209"/>
+      <c r="N2" s="208" t="s">
         <v>123</v>
       </c>
-      <c r="O2" s="212"/>
-      <c r="P2" s="212" t="s">
+      <c r="O2" s="208"/>
+      <c r="P2" s="208" t="s">
         <v>124</v>
       </c>
-      <c r="Q2" s="212"/>
-      <c r="R2" s="212" t="s">
+      <c r="Q2" s="208"/>
+      <c r="R2" s="208" t="s">
         <v>125</v>
       </c>
-      <c r="S2" s="212"/>
+      <c r="S2" s="208"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="101">
@@ -33175,16 +33439,16 @@
       <c r="K3" s="106">
         <v>4977.2169999999996</v>
       </c>
-      <c r="N3" s="240">
+      <c r="N3">
         <v>4.7703333333333341E-2</v>
       </c>
-      <c r="O3" s="240">
+      <c r="O3">
         <v>7246.666666666667</v>
       </c>
-      <c r="P3" s="241">
+      <c r="P3">
         <v>4.8474509803921567E-2</v>
       </c>
-      <c r="Q3" s="241">
+      <c r="Q3">
         <v>6829.6078431372562</v>
       </c>
       <c r="R3" s="101">
@@ -33234,16 +33498,16 @@
       <c r="K4" s="106">
         <v>6889.884</v>
       </c>
-      <c r="N4" s="240">
+      <c r="N4">
         <v>5.9526199999999994E-2</v>
       </c>
-      <c r="O4" s="240">
+      <c r="O4">
         <v>11623.240000000002</v>
       </c>
-      <c r="P4" s="241">
+      <c r="P4">
         <v>6.0925799999999981E-2</v>
       </c>
-      <c r="Q4" s="241">
+      <c r="Q4">
         <v>10837.280000000004</v>
       </c>
       <c r="R4" s="101">
@@ -33252,11 +33516,11 @@
       <c r="S4" s="102">
         <v>4213.78</v>
       </c>
-      <c r="U4" s="241">
+      <c r="U4">
         <f t="shared" ref="U4:U16" si="0">O4*100000</f>
         <v>1162324000.0000002</v>
       </c>
-      <c r="V4" s="241">
+      <c r="V4">
         <f t="shared" ref="V4:V16" si="1">Q4*100000</f>
         <v>1083728000.0000005</v>
       </c>
@@ -33293,16 +33557,16 @@
       <c r="K5" s="106">
         <v>9350.1560000000009</v>
       </c>
-      <c r="N5" s="240">
+      <c r="N5">
         <v>6.9934999999999997E-2</v>
       </c>
-      <c r="O5" s="240">
+      <c r="O5">
         <v>16268</v>
       </c>
-      <c r="P5" s="241">
+      <c r="P5">
         <v>7.2190000000000004E-2</v>
       </c>
-      <c r="Q5" s="241">
+      <c r="Q5">
         <v>15169</v>
       </c>
       <c r="R5" s="101">
@@ -33311,11 +33575,11 @@
       <c r="S5" s="102">
         <v>5653.9269999999997</v>
       </c>
-      <c r="U5" s="241">
+      <c r="U5">
         <f t="shared" si="0"/>
         <v>1626800000</v>
       </c>
-      <c r="V5" s="241">
+      <c r="V5">
         <f t="shared" si="1"/>
         <v>1516900000</v>
       </c>
@@ -33352,16 +33616,16 @@
       <c r="K6" s="106">
         <v>12179.93</v>
       </c>
-      <c r="N6" s="240">
+      <c r="N6">
         <v>8.1379999999999994E-2</v>
       </c>
-      <c r="O6" s="240">
+      <c r="O6">
         <v>21555</v>
       </c>
-      <c r="P6" s="241">
+      <c r="P6">
         <v>8.3845000000000003E-2</v>
       </c>
-      <c r="Q6" s="241">
+      <c r="Q6">
         <v>20013.5</v>
       </c>
       <c r="R6" s="101">
@@ -33370,11 +33634,11 @@
       <c r="S6" s="102">
         <v>7272.3410000000003</v>
       </c>
-      <c r="U6" s="241">
+      <c r="U6">
         <f t="shared" si="0"/>
         <v>2155500000</v>
       </c>
-      <c r="V6" s="241">
+      <c r="V6">
         <f t="shared" si="1"/>
         <v>2001350000</v>
       </c>
@@ -33411,16 +33675,16 @@
       <c r="K7" s="106">
         <v>15152.36</v>
       </c>
-      <c r="N7" s="240">
+      <c r="N7">
         <v>9.2079999999999995E-2</v>
       </c>
-      <c r="O7" s="240">
+      <c r="O7">
         <v>27119</v>
       </c>
-      <c r="P7" s="241">
+      <c r="P7">
         <v>9.486E-2</v>
       </c>
-      <c r="Q7" s="241">
+      <c r="Q7">
         <v>25169.999999999996</v>
       </c>
       <c r="R7" s="101">
@@ -33429,11 +33693,11 @@
       <c r="S7" s="102">
         <v>9018.8359999999993</v>
       </c>
-      <c r="U7" s="241">
+      <c r="U7">
         <f t="shared" si="0"/>
         <v>2711900000</v>
       </c>
-      <c r="V7" s="241">
+      <c r="V7">
         <f t="shared" si="1"/>
         <v>2516999999.9999995</v>
       </c>
@@ -33470,16 +33734,16 @@
       <c r="K8" s="106">
         <v>18425.259999999998</v>
       </c>
-      <c r="N8" s="240">
+      <c r="N8">
         <v>0.10264</v>
       </c>
-      <c r="O8" s="240">
+      <c r="O8">
         <v>33101</v>
       </c>
-      <c r="P8" s="241">
+      <c r="P8">
         <v>0.10489666666666668</v>
       </c>
-      <c r="Q8" s="241">
+      <c r="Q8">
         <v>30890.333333333332</v>
       </c>
       <c r="R8" s="101">
@@ -33488,11 +33752,11 @@
       <c r="S8" s="102">
         <v>10996.2</v>
       </c>
-      <c r="U8" s="241">
+      <c r="U8">
         <f t="shared" si="0"/>
         <v>3310100000</v>
       </c>
-      <c r="V8" s="241">
+      <c r="V8">
         <f t="shared" si="1"/>
         <v>3089033333.333333</v>
       </c>
@@ -33529,16 +33793,16 @@
       <c r="K9" s="106">
         <v>22100.95</v>
       </c>
-      <c r="N9" s="240">
+      <c r="N9">
         <v>0.11222390243902441</v>
       </c>
-      <c r="O9" s="240">
+      <c r="O9">
         <v>39266.341463414625</v>
       </c>
-      <c r="P9" s="241">
+      <c r="P9">
         <v>0.11526</v>
       </c>
-      <c r="Q9" s="241">
+      <c r="Q9">
         <v>37070</v>
       </c>
       <c r="R9" s="101">
@@ -33547,11 +33811,11 @@
       <c r="S9" s="102">
         <v>13372.73</v>
       </c>
-      <c r="U9" s="241">
+      <c r="U9">
         <f t="shared" si="0"/>
         <v>3926634146.3414626</v>
       </c>
-      <c r="V9" s="241">
+      <c r="V9">
         <f t="shared" si="1"/>
         <v>3707000000</v>
       </c>
@@ -33588,16 +33852,16 @@
       <c r="K10" s="106">
         <v>26666.12</v>
       </c>
-      <c r="N10" s="240">
+      <c r="N10">
         <v>0.12343</v>
       </c>
-      <c r="O10" s="240">
+      <c r="O10">
         <v>46770</v>
       </c>
-      <c r="P10" s="241">
+      <c r="P10">
         <v>0.12648999999999999</v>
       </c>
-      <c r="Q10" s="241">
+      <c r="Q10">
         <v>43675</v>
       </c>
       <c r="R10" s="101">
@@ -33606,11 +33870,11 @@
       <c r="S10" s="102">
         <v>15765.51</v>
       </c>
-      <c r="U10" s="241">
+      <c r="U10">
         <f t="shared" si="0"/>
         <v>4677000000</v>
       </c>
-      <c r="V10" s="241">
+      <c r="V10">
         <f t="shared" si="1"/>
         <v>4367500000</v>
       </c>
@@ -33647,16 +33911,16 @@
       <c r="K11" s="106">
         <v>30841.67</v>
       </c>
-      <c r="N11" s="240">
+      <c r="N11">
         <v>0.13324</v>
       </c>
-      <c r="O11" s="240">
+      <c r="O11">
         <v>54337</v>
       </c>
-      <c r="P11" s="241">
+      <c r="P11">
         <v>0.13916333333333333</v>
       </c>
-      <c r="Q11" s="241">
+      <c r="Q11">
         <v>52313.666666666672</v>
       </c>
       <c r="R11" s="101">
@@ -33665,11 +33929,11 @@
       <c r="S11" s="102">
         <v>18069.59</v>
       </c>
-      <c r="U11" s="241">
+      <c r="U11">
         <f t="shared" si="0"/>
         <v>5433700000</v>
       </c>
-      <c r="V11" s="241">
+      <c r="V11">
         <f t="shared" si="1"/>
         <v>5231366666.666667</v>
       </c>
@@ -33706,16 +33970,16 @@
       <c r="K12" s="106">
         <v>35072.6</v>
       </c>
-      <c r="N12" s="240">
+      <c r="N12">
         <v>0.14537</v>
       </c>
-      <c r="O12" s="240">
+      <c r="O12">
         <v>64273</v>
       </c>
-      <c r="P12" s="241">
+      <c r="P12">
         <v>0.149175</v>
       </c>
-      <c r="Q12" s="241">
+      <c r="Q12">
         <v>60135.500000000007</v>
       </c>
       <c r="R12" s="101">
@@ -33724,11 +33988,11 @@
       <c r="S12" s="102">
         <v>20445.150000000001</v>
       </c>
-      <c r="U12" s="241">
+      <c r="U12">
         <f t="shared" si="0"/>
         <v>6427300000</v>
       </c>
-      <c r="V12" s="241">
+      <c r="V12">
         <f t="shared" si="1"/>
         <v>6013550000.000001</v>
       </c>
@@ -33765,16 +34029,16 @@
       <c r="K13" s="106">
         <v>39419.440000000002</v>
       </c>
-      <c r="N13" s="240">
+      <c r="N13">
         <v>0.15676000000000001</v>
       </c>
-      <c r="O13" s="240">
+      <c r="O13">
         <v>73539.499999999985</v>
       </c>
-      <c r="P13" s="241">
+      <c r="P13">
         <v>0.16033249999999999</v>
       </c>
-      <c r="Q13" s="241">
+      <c r="Q13">
         <v>68300</v>
       </c>
       <c r="R13" s="101">
@@ -33783,11 +34047,11 @@
       <c r="S13" s="102">
         <v>22955.95</v>
       </c>
-      <c r="U13" s="241">
+      <c r="U13">
         <f t="shared" si="0"/>
         <v>7353949999.9999981</v>
       </c>
-      <c r="V13" s="241">
+      <c r="V13">
         <f t="shared" si="1"/>
         <v>6830000000</v>
       </c>
@@ -33824,16 +34088,16 @@
       <c r="K14" s="106">
         <v>44170.61</v>
       </c>
-      <c r="N14" s="240">
+      <c r="N14">
         <v>0.16744000000000001</v>
       </c>
-      <c r="O14" s="240">
+      <c r="O14">
         <v>83304</v>
       </c>
-      <c r="P14" s="241">
+      <c r="P14">
         <v>0.17115</v>
       </c>
-      <c r="Q14" s="241">
+      <c r="Q14">
         <v>77717.333333333343</v>
       </c>
       <c r="R14" s="101">
@@ -33842,11 +34106,11 @@
       <c r="S14" s="102">
         <v>25546.12</v>
       </c>
-      <c r="U14" s="241">
+      <c r="U14">
         <f t="shared" si="0"/>
         <v>8330400000</v>
       </c>
-      <c r="V14" s="241">
+      <c r="V14">
         <f t="shared" si="1"/>
         <v>7771733333.333334</v>
       </c>
@@ -33883,16 +34147,16 @@
       <c r="K15" s="106">
         <v>48794.49</v>
       </c>
-      <c r="N15" s="240">
+      <c r="N15">
         <v>0.17761600000000002</v>
       </c>
-      <c r="O15" s="240">
+      <c r="O15">
         <v>92903.56</v>
       </c>
-      <c r="P15" s="241">
+      <c r="P15">
         <v>0.18196999999999999</v>
       </c>
-      <c r="Q15" s="241">
+      <c r="Q15">
         <v>86883</v>
       </c>
       <c r="R15" s="101">
@@ -33901,11 +34165,11 @@
       <c r="S15" s="102">
         <v>28153.49</v>
       </c>
-      <c r="U15" s="241">
+      <c r="U15">
         <f t="shared" si="0"/>
         <v>9290356000</v>
       </c>
-      <c r="V15" s="241">
+      <c r="V15">
         <f t="shared" si="1"/>
         <v>8688300000</v>
       </c>
@@ -33938,16 +34202,16 @@
       <c r="K16" s="106">
         <v>53711.02</v>
       </c>
-      <c r="N16" s="240">
+      <c r="N16">
         <v>0.18755470588235296</v>
       </c>
-      <c r="O16" s="240">
+      <c r="O16">
         <v>103041.23529411764</v>
       </c>
-      <c r="P16" s="241">
+      <c r="P16">
         <v>0.19221980392156865</v>
       </c>
-      <c r="Q16" s="241">
+      <c r="Q16">
         <v>96301.725490196099</v>
       </c>
       <c r="R16" s="101">
@@ -33956,11 +34220,11 @@
       <c r="S16" s="102">
         <v>30792.19</v>
       </c>
-      <c r="U16" s="241">
+      <c r="U16">
         <f t="shared" si="0"/>
         <v>10304123529.411764</v>
       </c>
-      <c r="V16" s="241">
+      <c r="V16">
         <f t="shared" si="1"/>
         <v>9630172549.0196095</v>
       </c>
@@ -34007,17 +34271,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="N1:S1"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R2:S2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -34103,7 +34367,7 @@
       <c r="F2" s="70">
         <v>3.36341135090538E-3</v>
       </c>
-      <c r="G2" s="201">
+      <c r="G2" s="198">
         <v>0.12</v>
       </c>
       <c r="K2" s="144" t="s">
@@ -34147,7 +34411,7 @@
       <c r="F3" s="70">
         <v>3.2378655949988834E-3</v>
       </c>
-      <c r="G3" s="201"/>
+      <c r="G3" s="198"/>
       <c r="K3" s="144" t="s">
         <v>34</v>
       </c>
@@ -34187,7 +34451,7 @@
       <c r="F4" s="70">
         <v>3.0917662135566846E-3</v>
       </c>
-      <c r="G4" s="201"/>
+      <c r="G4" s="198"/>
       <c r="K4" s="144" t="s">
         <v>26</v>
       </c>
@@ -34227,7 +34491,7 @@
       <c r="F5" s="84">
         <v>4.3558635394456294E-3</v>
       </c>
-      <c r="G5" s="201"/>
+      <c r="G5" s="198"/>
       <c r="K5" s="144" t="s">
         <v>32</v>
       </c>
@@ -34267,7 +34531,7 @@
       <c r="F6" s="84">
         <v>4.2324371205550741E-3</v>
       </c>
-      <c r="G6" s="201"/>
+      <c r="G6" s="198"/>
       <c r="K6" s="144" t="s">
         <v>35</v>
       </c>
@@ -34307,7 +34571,7 @@
       <c r="F7" s="84">
         <v>4.0937396853339206E-3</v>
       </c>
-      <c r="G7" s="201"/>
+      <c r="G7" s="198"/>
       <c r="K7" s="144" t="s">
         <v>27</v>
       </c>
@@ -34347,7 +34611,7 @@
       <c r="F8" s="85">
         <v>5.0540589624069251E-3</v>
       </c>
-      <c r="G8" s="201"/>
+      <c r="G8" s="198"/>
       <c r="K8" s="144" t="s">
         <v>31</v>
       </c>
@@ -34387,7 +34651,7 @@
       <c r="F9" s="85">
         <v>4.941061024225697E-3</v>
       </c>
-      <c r="G9" s="201"/>
+      <c r="G9" s="198"/>
       <c r="K9" s="144" t="s">
         <v>36</v>
       </c>
@@ -34427,7 +34691,7 @@
       <c r="F10" s="85">
         <v>4.8327628057509174E-3</v>
       </c>
-      <c r="G10" s="201"/>
+      <c r="G10" s="198"/>
       <c r="K10" s="144" t="s">
         <v>28</v>
       </c>
@@ -34467,7 +34731,7 @@
       <c r="F11" s="86">
         <v>5.9732718268774168E-3</v>
       </c>
-      <c r="G11" s="201"/>
+      <c r="G11" s="198"/>
       <c r="K11" s="144" t="s">
         <v>30</v>
       </c>
@@ -34507,7 +34771,7 @@
       <c r="F12" s="86">
         <v>5.8639632851565171E-3</v>
       </c>
-      <c r="G12" s="201"/>
+      <c r="G12" s="198"/>
       <c r="K12" s="144" t="s">
         <v>37</v>
       </c>
@@ -34547,7 +34811,7 @@
       <c r="F13" s="87">
         <v>5.7568540570479094E-3</v>
       </c>
-      <c r="G13" s="202"/>
+      <c r="G13" s="199"/>
       <c r="K13" s="148" t="s">
         <v>29</v>
       </c>
@@ -34616,7 +34880,7 @@
         <f>(4*C17)/D17</f>
         <v>2.7748166553119864E-3</v>
       </c>
-      <c r="G17" s="201">
+      <c r="G17" s="198">
         <v>0.12</v>
       </c>
     </row>
@@ -34641,7 +34905,7 @@
         <f t="shared" ref="F18:F20" si="0">(4*C18)/D18</f>
         <v>4.1347980682481557E-3</v>
       </c>
-      <c r="G18" s="201"/>
+      <c r="G18" s="198"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="78" t="s">
@@ -34664,7 +34928,7 @@
         <f t="shared" si="0"/>
         <v>5.4212131041193644E-3</v>
       </c>
-      <c r="G19" s="201"/>
+      <c r="G19" s="198"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="79" t="s">
@@ -34687,7 +34951,7 @@
         <f t="shared" si="0"/>
         <v>6.7788171627367602E-3</v>
       </c>
-      <c r="G20" s="201"/>
+      <c r="G20" s="198"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -34734,7 +34998,7 @@
         <f>(4*C23)/D23</f>
         <v>2.7748166553119864E-3</v>
       </c>
-      <c r="G23" s="201">
+      <c r="G23" s="198">
         <v>0.12</v>
       </c>
     </row>
@@ -34759,7 +35023,7 @@
         <f t="shared" ref="F24:F26" si="1">(4*C24)/D24</f>
         <v>4.1347980682481557E-3</v>
       </c>
-      <c r="G24" s="201"/>
+      <c r="G24" s="198"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="78" t="s">
@@ -34782,7 +35046,7 @@
         <f t="shared" si="1"/>
         <v>5.4212131041193644E-3</v>
       </c>
-      <c r="G25" s="201"/>
+      <c r="G25" s="198"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="79" t="s">
@@ -34805,7 +35069,7 @@
         <f t="shared" si="1"/>
         <v>6.7788171627367602E-3</v>
       </c>
-      <c r="G26" s="201"/>
+      <c r="G26" s="198"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -34852,7 +35116,7 @@
         <f>(4*C29)/D29</f>
         <v>2.4054651067659332E-3</v>
       </c>
-      <c r="G29" s="201">
+      <c r="G29" s="198">
         <v>0.12</v>
       </c>
     </row>
@@ -34877,7 +35141,7 @@
         <f t="shared" ref="F30:F32" si="2">(4*C30)/D30</f>
         <v>3.4141120232775643E-3</v>
       </c>
-      <c r="G30" s="201"/>
+      <c r="G30" s="198"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="78" t="s">
@@ -34900,7 +35164,7 @@
         <f t="shared" si="2"/>
         <v>4.2459736456808197E-3</v>
       </c>
-      <c r="G31" s="201"/>
+      <c r="G31" s="198"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="79" t="s">
@@ -34923,7 +35187,7 @@
         <f t="shared" si="2"/>
         <v>4.8514490306019054E-3</v>
       </c>
-      <c r="G32" s="201"/>
+      <c r="G32" s="198"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -35007,13 +35271,13 @@
       <c r="C2" s="223"/>
       <c r="D2" s="223"/>
       <c r="E2" s="224"/>
-      <c r="F2" s="174" t="s">
+      <c r="F2" s="184" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="176"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="186"/>
       <c r="K2" s="225" t="s">
         <v>85</v>
       </c>
@@ -35031,10 +35295,10 @@
       <c r="U2" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="199"/>
-      <c r="W2" s="199"/>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="200"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="206"/>
+      <c r="Y2" s="207"/>
       <c r="AA2" s="31" t="s">
         <v>10</v>
       </c>
@@ -35683,13 +35947,13 @@
         <f t="shared" si="0"/>
         <v>0.48571310375028676</v>
       </c>
-      <c r="AA9" s="195" t="s">
+      <c r="AA9" s="175" t="s">
         <v>25</v>
       </c>
       <c r="AB9" s="218"/>
-      <c r="AC9" s="196"/>
-      <c r="AD9" s="196"/>
-      <c r="AE9" s="197"/>
+      <c r="AC9" s="176"/>
+      <c r="AD9" s="176"/>
+      <c r="AE9" s="177"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="69">
@@ -35768,11 +36032,11 @@
         <v>23</v>
       </c>
       <c r="AB10" s="66"/>
-      <c r="AC10" s="190" t="s">
+      <c r="AC10" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="AD10" s="190"/>
-      <c r="AE10" s="191"/>
+      <c r="AD10" s="170"/>
+      <c r="AE10" s="171"/>
     </row>
     <row r="11" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="69">
@@ -35851,11 +36115,11 @@
         <v>8.5374248628593903E-4</v>
       </c>
       <c r="AB11" s="67"/>
-      <c r="AC11" s="193">
+      <c r="AC11" s="173">
         <v>996.55</v>
       </c>
-      <c r="AD11" s="193"/>
-      <c r="AE11" s="194"/>
+      <c r="AD11" s="173"/>
+      <c r="AE11" s="174"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="69">
@@ -40198,13 +40462,13 @@
       <c r="C2" s="223"/>
       <c r="D2" s="223"/>
       <c r="E2" s="224"/>
-      <c r="F2" s="174" t="s">
+      <c r="F2" s="184" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="176"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="186"/>
       <c r="K2" s="225" t="s">
         <v>87</v>
       </c>
@@ -40222,10 +40486,10 @@
       <c r="U2" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="199"/>
-      <c r="W2" s="199"/>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="200"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="206"/>
+      <c r="Y2" s="207"/>
       <c r="AA2" s="31" t="s">
         <v>10</v>
       </c>
@@ -40858,13 +41122,13 @@
         <f t="shared" si="12"/>
         <v>0.46174525930464705</v>
       </c>
-      <c r="AA9" s="195" t="s">
+      <c r="AA9" s="175" t="s">
         <v>25</v>
       </c>
       <c r="AB9" s="218"/>
-      <c r="AC9" s="196"/>
-      <c r="AD9" s="196"/>
-      <c r="AE9" s="197"/>
+      <c r="AC9" s="176"/>
+      <c r="AD9" s="176"/>
+      <c r="AE9" s="177"/>
     </row>
     <row r="10" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -40943,11 +41207,11 @@
         <v>23</v>
       </c>
       <c r="AB10" s="66"/>
-      <c r="AC10" s="190" t="s">
+      <c r="AC10" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="AD10" s="190"/>
-      <c r="AE10" s="191"/>
+      <c r="AD10" s="170"/>
+      <c r="AE10" s="171"/>
     </row>
     <row r="11" spans="1:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -41026,11 +41290,11 @@
         <v>8.5374248628593903E-4</v>
       </c>
       <c r="AB11" s="67"/>
-      <c r="AC11" s="193">
+      <c r="AC11" s="173">
         <v>996.55</v>
       </c>
-      <c r="AD11" s="193"/>
-      <c r="AE11" s="194"/>
+      <c r="AD11" s="173"/>
+      <c r="AE11" s="174"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -41806,8 +42070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AJ64"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41816,92 +42080,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="212" t="s">
+      <c r="A1" s="208" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
+      <c r="E1" s="208"/>
       <c r="F1" s="88"/>
-      <c r="H1" s="212" t="s">
+      <c r="H1" s="208" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="212"/>
-      <c r="J1" s="212"/>
-      <c r="K1" s="212"/>
-      <c r="L1" s="212"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+      <c r="L1" s="208"/>
       <c r="M1" s="88"/>
-      <c r="O1" s="212" t="s">
+      <c r="O1" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="212"/>
-      <c r="Q1" s="212"/>
-      <c r="R1" s="212"/>
-      <c r="S1" s="212"/>
+      <c r="P1" s="208"/>
+      <c r="Q1" s="208"/>
+      <c r="R1" s="208"/>
+      <c r="S1" s="208"/>
       <c r="T1" s="88"/>
-      <c r="V1" s="212" t="s">
+      <c r="V1" s="208" t="s">
         <v>64</v>
       </c>
-      <c r="W1" s="212"/>
-      <c r="X1" s="212"/>
-      <c r="Y1" s="212"/>
-      <c r="Z1" s="212"/>
+      <c r="W1" s="208"/>
+      <c r="X1" s="208"/>
+      <c r="Y1" s="208"/>
+      <c r="Z1" s="208"/>
       <c r="AA1" s="88"/>
-      <c r="AD1" s="195" t="s">
+      <c r="AD1" s="175" t="s">
         <v>25</v>
       </c>
       <c r="AE1" s="218"/>
-      <c r="AF1" s="196"/>
-      <c r="AG1" s="196"/>
-      <c r="AH1" s="197"/>
+      <c r="AF1" s="176"/>
+      <c r="AG1" s="176"/>
+      <c r="AH1" s="177"/>
     </row>
     <row r="2" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="212" t="s">
+      <c r="A2" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
+      <c r="B2" s="208"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
       <c r="F2" s="88"/>
       <c r="G2">
         <f>D4/1000</f>
         <v>1.4782692502221298E-2</v>
       </c>
-      <c r="H2" s="212" t="s">
+      <c r="H2" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="212"/>
-      <c r="J2" s="212"/>
-      <c r="K2" s="212"/>
-      <c r="L2" s="212"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
       <c r="M2" s="88"/>
-      <c r="O2" s="212" t="s">
+      <c r="O2" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="212"/>
-      <c r="Q2" s="212"/>
-      <c r="R2" s="212"/>
-      <c r="S2" s="212"/>
+      <c r="P2" s="208"/>
+      <c r="Q2" s="208"/>
+      <c r="R2" s="208"/>
+      <c r="S2" s="208"/>
       <c r="T2" s="88"/>
-      <c r="V2" s="212" t="s">
+      <c r="V2" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="212"/>
-      <c r="X2" s="212"/>
-      <c r="Y2" s="212"/>
-      <c r="Z2" s="212"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="208"/>
+      <c r="Y2" s="208"/>
+      <c r="Z2" s="208"/>
       <c r="AA2" s="88"/>
       <c r="AD2" s="63" t="s">
         <v>23</v>
       </c>
       <c r="AE2" s="66"/>
-      <c r="AF2" s="190" t="s">
+      <c r="AF2" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="AG2" s="190"/>
-      <c r="AH2" s="191"/>
+      <c r="AG2" s="170"/>
+      <c r="AH2" s="171"/>
     </row>
     <row r="3" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -41956,11 +42220,11 @@
         <v>8.5374248628593903E-4</v>
       </c>
       <c r="AE3" s="67"/>
-      <c r="AF3" s="193">
+      <c r="AF3" s="173">
         <v>996.55</v>
       </c>
-      <c r="AG3" s="193"/>
-      <c r="AH3" s="194"/>
+      <c r="AG3" s="173"/>
+      <c r="AH3" s="174"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -42352,7 +42616,7 @@
         <f>(4*AF8)/AG8</f>
         <v>2.7748166553119864E-3</v>
       </c>
-      <c r="AJ8" s="201">
+      <c r="AJ8" s="198">
         <v>0.12</v>
       </c>
     </row>
@@ -42445,7 +42709,7 @@
         <f t="shared" ref="AI9:AI11" si="8">(4*AF9)/AG9</f>
         <v>4.1347980682481557E-3</v>
       </c>
-      <c r="AJ9" s="201"/>
+      <c r="AJ9" s="198"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -42536,7 +42800,7 @@
         <f t="shared" si="8"/>
         <v>5.4212131041193644E-3</v>
       </c>
-      <c r="AJ10" s="201"/>
+      <c r="AJ10" s="198"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -42627,40 +42891,40 @@
         <f t="shared" si="8"/>
         <v>6.7788171627367602E-3</v>
       </c>
-      <c r="AJ11" s="201"/>
+      <c r="AJ11" s="198"/>
     </row>
     <row r="13" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="212" t="s">
+      <c r="A13" s="208" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="212"/>
-      <c r="C13" s="212"/>
-      <c r="D13" s="212"/>
-      <c r="E13" s="212"/>
+      <c r="B13" s="208"/>
+      <c r="C13" s="208"/>
+      <c r="D13" s="208"/>
+      <c r="E13" s="208"/>
       <c r="F13" s="88"/>
-      <c r="H13" s="212" t="s">
+      <c r="H13" s="208" t="s">
         <v>68</v>
       </c>
-      <c r="I13" s="212"/>
-      <c r="J13" s="212"/>
-      <c r="K13" s="212"/>
-      <c r="L13" s="212"/>
+      <c r="I13" s="208"/>
+      <c r="J13" s="208"/>
+      <c r="K13" s="208"/>
+      <c r="L13" s="208"/>
       <c r="M13" s="88"/>
-      <c r="O13" s="212" t="s">
+      <c r="O13" s="208" t="s">
         <v>68</v>
       </c>
-      <c r="P13" s="212"/>
-      <c r="Q13" s="212"/>
-      <c r="R13" s="212"/>
-      <c r="S13" s="212"/>
+      <c r="P13" s="208"/>
+      <c r="Q13" s="208"/>
+      <c r="R13" s="208"/>
+      <c r="S13" s="208"/>
       <c r="T13" s="88"/>
-      <c r="V13" s="212" t="s">
+      <c r="V13" s="208" t="s">
         <v>68</v>
       </c>
-      <c r="W13" s="212"/>
-      <c r="X13" s="212"/>
-      <c r="Y13" s="212"/>
-      <c r="Z13" s="212"/>
+      <c r="W13" s="208"/>
+      <c r="X13" s="208"/>
+      <c r="Y13" s="208"/>
+      <c r="Z13" s="208"/>
       <c r="AA13" s="88"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
@@ -42823,7 +43087,7 @@
         <f>(4*AF15)/AG15</f>
         <v>2.7748166553119864E-3</v>
       </c>
-      <c r="AJ15" s="201">
+      <c r="AJ15" s="198">
         <v>0.12</v>
       </c>
     </row>
@@ -42916,7 +43180,7 @@
         <f t="shared" ref="AI16:AI18" si="17">(4*AF16)/AG16</f>
         <v>4.1347980682481557E-3</v>
       </c>
-      <c r="AJ16" s="201"/>
+      <c r="AJ16" s="198"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -43007,7 +43271,7 @@
         <f t="shared" si="17"/>
         <v>5.4212131041193644E-3</v>
       </c>
-      <c r="AJ17" s="201"/>
+      <c r="AJ17" s="198"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -43098,7 +43362,7 @@
         <f t="shared" si="17"/>
         <v>6.7788171627367602E-3</v>
       </c>
-      <c r="AJ18" s="201"/>
+      <c r="AJ18" s="198"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -43418,7 +43682,7 @@
       <c r="AI22" s="70">
         <v>3.2378655949988834E-3</v>
       </c>
-      <c r="AJ22" s="201">
+      <c r="AJ22" s="198">
         <v>0.12</v>
       </c>
     </row>
@@ -43441,40 +43705,40 @@
       <c r="AI23" s="84">
         <v>4.2324371205550741E-3</v>
       </c>
-      <c r="AJ23" s="201"/>
+      <c r="AJ23" s="198"/>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A24" s="212" t="s">
+      <c r="A24" s="208" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="212"/>
-      <c r="C24" s="212"/>
-      <c r="D24" s="212"/>
-      <c r="E24" s="212"/>
+      <c r="B24" s="208"/>
+      <c r="C24" s="208"/>
+      <c r="D24" s="208"/>
+      <c r="E24" s="208"/>
       <c r="F24" s="88"/>
-      <c r="H24" s="212" t="s">
+      <c r="H24" s="208" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="212"/>
-      <c r="J24" s="212"/>
-      <c r="K24" s="212"/>
-      <c r="L24" s="212"/>
+      <c r="I24" s="208"/>
+      <c r="J24" s="208"/>
+      <c r="K24" s="208"/>
+      <c r="L24" s="208"/>
       <c r="M24" s="88"/>
-      <c r="O24" s="212" t="s">
+      <c r="O24" s="208" t="s">
         <v>15</v>
       </c>
-      <c r="P24" s="212"/>
-      <c r="Q24" s="212"/>
-      <c r="R24" s="212"/>
-      <c r="S24" s="212"/>
+      <c r="P24" s="208"/>
+      <c r="Q24" s="208"/>
+      <c r="R24" s="208"/>
+      <c r="S24" s="208"/>
       <c r="T24" s="88"/>
-      <c r="V24" s="212" t="s">
+      <c r="V24" s="208" t="s">
         <v>15</v>
       </c>
-      <c r="W24" s="212"/>
-      <c r="X24" s="212"/>
-      <c r="Y24" s="212"/>
-      <c r="Z24" s="212"/>
+      <c r="W24" s="208"/>
+      <c r="X24" s="208"/>
+      <c r="Y24" s="208"/>
+      <c r="Z24" s="208"/>
       <c r="AA24" s="88"/>
       <c r="AD24" s="78" t="s">
         <v>36</v>
@@ -43494,7 +43758,7 @@
       <c r="AI24" s="85">
         <v>4.941061024225697E-3</v>
       </c>
-      <c r="AJ24" s="201"/>
+      <c r="AJ24" s="198"/>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -43568,7 +43832,7 @@
       <c r="AI25" s="86">
         <v>5.8639632851565171E-3</v>
       </c>
-      <c r="AJ25" s="201"/>
+      <c r="AJ25" s="198"/>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -43890,7 +44154,7 @@
         <f>(4*AF29)/AG29</f>
         <v>2.4054651067659332E-3</v>
       </c>
-      <c r="AJ29" s="201">
+      <c r="AJ29" s="198">
         <v>0.12</v>
       </c>
     </row>
@@ -43983,7 +44247,7 @@
         <f t="shared" ref="AI30:AI32" si="26">(4*AF30)/AG30</f>
         <v>3.4141120232775643E-3</v>
       </c>
-      <c r="AJ30" s="201"/>
+      <c r="AJ30" s="198"/>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -44074,7 +44338,7 @@
         <f t="shared" si="26"/>
         <v>4.2459736456808197E-3</v>
       </c>
-      <c r="AJ31" s="201"/>
+      <c r="AJ31" s="198"/>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -44165,7 +44429,7 @@
         <f t="shared" si="26"/>
         <v>4.8514490306019054E-3</v>
       </c>
-      <c r="AJ32" s="201"/>
+      <c r="AJ32" s="198"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -44221,37 +44485,37 @@
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35" s="212" t="s">
+      <c r="A35" s="208" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="212"/>
-      <c r="C35" s="212"/>
-      <c r="D35" s="212"/>
-      <c r="E35" s="212"/>
+      <c r="B35" s="208"/>
+      <c r="C35" s="208"/>
+      <c r="D35" s="208"/>
+      <c r="E35" s="208"/>
       <c r="F35" s="88"/>
-      <c r="H35" s="212" t="s">
+      <c r="H35" s="208" t="s">
         <v>16</v>
       </c>
-      <c r="I35" s="212"/>
-      <c r="J35" s="212"/>
-      <c r="K35" s="212"/>
-      <c r="L35" s="212"/>
+      <c r="I35" s="208"/>
+      <c r="J35" s="208"/>
+      <c r="K35" s="208"/>
+      <c r="L35" s="208"/>
       <c r="M35" s="88"/>
-      <c r="O35" s="212" t="s">
+      <c r="O35" s="208" t="s">
         <v>16</v>
       </c>
-      <c r="P35" s="212"/>
-      <c r="Q35" s="212"/>
-      <c r="R35" s="212"/>
-      <c r="S35" s="212"/>
+      <c r="P35" s="208"/>
+      <c r="Q35" s="208"/>
+      <c r="R35" s="208"/>
+      <c r="S35" s="208"/>
       <c r="T35" s="88"/>
-      <c r="V35" s="212" t="s">
+      <c r="V35" s="208" t="s">
         <v>16</v>
       </c>
-      <c r="W35" s="212"/>
-      <c r="X35" s="212"/>
-      <c r="Y35" s="212"/>
-      <c r="Z35" s="212"/>
+      <c r="W35" s="208"/>
+      <c r="X35" s="208"/>
+      <c r="Y35" s="208"/>
+      <c r="Z35" s="208"/>
       <c r="AA35" s="88"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
@@ -44878,16 +45142,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="AJ8:AJ11"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="AJ15:AJ18"/>
-    <mergeCell ref="AJ29:AJ32"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="AJ22:AJ25"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="H2:L2"/>
     <mergeCell ref="AD1:AH1"/>
     <mergeCell ref="AF2:AH2"/>
     <mergeCell ref="AF3:AH3"/>
@@ -44899,12 +45159,16 @@
     <mergeCell ref="V24:Z24"/>
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="AJ8:AJ11"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="AJ15:AJ18"/>
+    <mergeCell ref="AJ29:AJ32"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="AJ22:AJ25"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -45128,10 +45392,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="212" t="s">
+      <c r="A1" s="208" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="212"/>
+      <c r="B1" s="208"/>
       <c r="D1" t="s">
         <v>89</v>
       </c>
